--- a/Zestawienie wyników TSP.xlsx
+++ b/Zestawienie wyników TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justyna\source\repos\Projekt_IO\TSP-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECF726B-ECFC-42F0-8757-403961A35134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE34489-D64A-4242-A64C-55C32D0C8887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7D776930-A9A0-493F-8678-92D617752308}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="TSP 127" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -150,11 +149,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -172,6 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -489,7 +502,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +554,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3">
+        <v>12012</v>
+      </c>
       <c r="G3" s="1">
         <v>10868</v>
       </c>
@@ -565,8 +580,10 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
         <v>15</v>
       </c>
     </row>
@@ -578,8 +595,10 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
         <v>46</v>
       </c>
     </row>
@@ -591,8 +610,10 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1">
         <v>33</v>
       </c>
     </row>
@@ -604,8 +625,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8">
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
         <v>12</v>
       </c>
     </row>
@@ -617,8 +640,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9">
+      <c r="F9" s="1">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
         <v>11</v>
       </c>
     </row>
@@ -630,8 +655,10 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1">
         <v>23</v>
       </c>
     </row>
@@ -643,8 +670,10 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11">
+      <c r="F11" s="1">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1">
         <v>3</v>
       </c>
     </row>
@@ -656,8 +685,10 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12">
+      <c r="F12" s="1">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1">
         <v>22</v>
       </c>
     </row>
@@ -669,8 +700,10 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13">
+      <c r="F13" s="1">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1">
         <v>16</v>
       </c>
     </row>
@@ -682,8 +715,10 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
         <v>41</v>
       </c>
     </row>
@@ -695,8 +730,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15">
+      <c r="F15" s="1">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1">
         <v>34</v>
       </c>
     </row>
@@ -708,8 +745,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16">
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1">
         <v>14</v>
       </c>
     </row>
@@ -721,8 +760,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17">
+      <c r="F17" s="1">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
         <v>25</v>
       </c>
     </row>
@@ -734,8 +775,10 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18">
+      <c r="F18" s="1">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1">
         <v>48</v>
       </c>
     </row>
@@ -747,8 +790,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19">
+      <c r="F19" s="1">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
         <v>5</v>
       </c>
     </row>
@@ -760,8 +805,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
         <v>29</v>
       </c>
     </row>
@@ -773,8 +820,10 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21">
+      <c r="F21" s="1">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
     </row>
@@ -786,8 +835,10 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22">
+      <c r="F22" s="1">
+        <v>46</v>
+      </c>
+      <c r="G22" s="1">
         <v>42</v>
       </c>
     </row>
@@ -799,8 +850,10 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23">
+      <c r="F23" s="1">
+        <v>44</v>
+      </c>
+      <c r="G23" s="1">
         <v>26</v>
       </c>
     </row>
@@ -812,8 +865,10 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24">
+      <c r="F24" s="1">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1">
         <v>4</v>
       </c>
     </row>
@@ -825,8 +880,10 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25">
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
         <v>35</v>
       </c>
     </row>
@@ -838,8 +895,10 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26">
+      <c r="F26" s="1">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1">
         <v>45</v>
       </c>
     </row>
@@ -851,8 +910,10 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27">
+      <c r="F27" s="1">
+        <v>36</v>
+      </c>
+      <c r="G27" s="1">
         <v>10</v>
       </c>
     </row>
@@ -864,8 +925,10 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28">
+      <c r="F28" s="1">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
         <v>24</v>
       </c>
     </row>
@@ -877,8 +940,10 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29">
+      <c r="F29" s="1">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1">
         <v>32</v>
       </c>
     </row>
@@ -890,8 +955,10 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30">
+      <c r="F30" s="1">
+        <v>37</v>
+      </c>
+      <c r="G30" s="1">
         <v>39</v>
       </c>
     </row>
@@ -903,8 +970,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31">
+      <c r="F31" s="1">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1">
         <v>21</v>
       </c>
     </row>
@@ -916,8 +985,10 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32">
+      <c r="F32" s="1">
+        <v>27</v>
+      </c>
+      <c r="G32" s="1">
         <v>13</v>
       </c>
     </row>
@@ -929,8 +1000,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33">
+      <c r="F33" s="1">
+        <v>43</v>
+      </c>
+      <c r="G33" s="1">
         <v>47</v>
       </c>
     </row>
@@ -942,8 +1015,10 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34">
+      <c r="F34" s="1">
+        <v>17</v>
+      </c>
+      <c r="G34" s="1">
         <v>20</v>
       </c>
     </row>
@@ -955,8 +1030,10 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35">
+      <c r="F35" s="1">
+        <v>20</v>
+      </c>
+      <c r="G35" s="1">
         <v>30</v>
       </c>
     </row>
@@ -968,8 +1045,10 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36">
+      <c r="F36" s="1">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1">
         <v>43</v>
       </c>
     </row>
@@ -981,8 +1060,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37">
+      <c r="F37" s="1">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1">
         <v>17</v>
       </c>
     </row>
@@ -994,8 +1075,10 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38">
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
         <v>27</v>
       </c>
     </row>
@@ -1007,8 +1090,10 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39">
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
         <v>19</v>
       </c>
     </row>
@@ -1020,8 +1105,10 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40">
+      <c r="F40" s="1">
+        <v>38</v>
+      </c>
+      <c r="G40" s="1">
         <v>37</v>
       </c>
     </row>
@@ -1033,8 +1120,10 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41">
+      <c r="F41" s="1">
+        <v>31</v>
+      </c>
+      <c r="G41" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1046,8 +1135,10 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42">
+      <c r="F42" s="1">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1">
         <v>28</v>
       </c>
     </row>
@@ -1059,8 +1150,10 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43">
+      <c r="F43" s="1">
+        <v>16</v>
+      </c>
+      <c r="G43" s="1">
         <v>36</v>
       </c>
     </row>
@@ -1072,8 +1165,10 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44">
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1085,8 +1180,10 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45">
+      <c r="F45" s="1">
+        <v>34</v>
+      </c>
+      <c r="G45" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1098,8 +1195,10 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46">
+      <c r="F46" s="1">
+        <v>41</v>
+      </c>
+      <c r="G46" s="1">
         <v>44</v>
       </c>
     </row>
@@ -1111,8 +1210,10 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47">
+      <c r="F47" s="1">
+        <v>29</v>
+      </c>
+      <c r="G47" s="1">
         <v>31</v>
       </c>
     </row>
@@ -1124,8 +1225,10 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48">
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
         <v>38</v>
       </c>
     </row>
@@ -1137,8 +1240,10 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49">
+      <c r="F49" s="1">
+        <v>26</v>
+      </c>
+      <c r="G49" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1150,8 +1255,10 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50">
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1163,8 +1270,10 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51">
+      <c r="F51" s="1">
+        <v>35</v>
+      </c>
+      <c r="G51" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1176,8 +1285,10 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52">
+      <c r="F52" s="1">
+        <v>45</v>
+      </c>
+      <c r="G52" s="1">
         <v>40</v>
       </c>
     </row>
@@ -1187,8 +1298,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
@@ -1213,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B0EA09-4E35-4AAA-8B43-1494F5D8CEB7}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,6 +1373,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>130921.00457667319</v>
+      </c>
       <c r="G3" s="1">
         <v>118293.47</v>
       </c>
@@ -1282,7 +1395,10 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1290,7 +1406,10 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1298,7 +1417,10 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1306,7 +1428,10 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="1">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1314,7 +1439,10 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1322,7 +1450,10 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
         <v>75</v>
       </c>
     </row>
@@ -1330,7 +1461,10 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="1">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
         <v>76</v>
       </c>
     </row>
@@ -1338,7 +1472,10 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="1">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1346,7 +1483,10 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="1">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1">
         <v>23</v>
       </c>
     </row>
@@ -1354,7 +1494,10 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1">
         <v>25</v>
       </c>
     </row>
@@ -1362,7 +1505,10 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="1">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1">
         <v>22</v>
       </c>
     </row>
@@ -1370,7 +1516,10 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="1">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1">
         <v>21</v>
       </c>
     </row>
@@ -1378,7 +1527,10 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="1">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1386,7 +1538,10 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="1">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1394,7 +1549,10 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="1">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1402,7 +1560,10 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1410,7 +1571,10 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="1">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1418,7 +1582,10 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="1">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1">
         <v>19</v>
       </c>
     </row>
@@ -1426,7 +1593,10 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="G23">
+      <c r="F23" s="1">
+        <v>63</v>
+      </c>
+      <c r="G23" s="1">
         <v>31</v>
       </c>
     </row>
@@ -1434,7 +1604,10 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="G24">
+      <c r="F24" s="1">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1">
         <v>30</v>
       </c>
     </row>
@@ -1442,7 +1615,10 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="G25">
+      <c r="F25" s="1">
+        <v>62</v>
+      </c>
+      <c r="G25" s="1">
         <v>29</v>
       </c>
     </row>
@@ -1450,7 +1626,10 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="1">
+        <v>61</v>
+      </c>
+      <c r="G26" s="1">
         <v>26</v>
       </c>
     </row>
@@ -1458,7 +1637,10 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="G27">
+      <c r="F27" s="1">
+        <v>55</v>
+      </c>
+      <c r="G27" s="1">
         <v>27.000000000000004</v>
       </c>
     </row>
@@ -1466,7 +1648,10 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="G28">
+      <c r="F28" s="1">
+        <v>56</v>
+      </c>
+      <c r="G28" s="1">
         <v>28</v>
       </c>
     </row>
@@ -1474,7 +1659,10 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="G29">
+      <c r="F29" s="1">
+        <v>51</v>
+      </c>
+      <c r="G29" s="1">
         <v>43</v>
       </c>
     </row>
@@ -1482,7 +1670,10 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="1">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1">
         <v>42</v>
       </c>
     </row>
@@ -1490,7 +1681,10 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="G31">
+      <c r="F31" s="1">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1">
         <v>54</v>
       </c>
     </row>
@@ -1498,7 +1692,10 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="G32">
+      <c r="F32" s="1">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1">
         <v>53</v>
       </c>
     </row>
@@ -1506,7 +1703,10 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="G33">
+      <c r="F33" s="1">
+        <v>49</v>
+      </c>
+      <c r="G33" s="1">
         <v>52</v>
       </c>
     </row>
@@ -1514,7 +1714,10 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="G34">
+      <c r="F34" s="1">
+        <v>52</v>
+      </c>
+      <c r="G34" s="1">
         <v>55</v>
       </c>
     </row>
@@ -1522,7 +1725,10 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="G35">
+      <c r="F35" s="1">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1">
         <v>56</v>
       </c>
     </row>
@@ -1530,7 +1736,10 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="G36">
+      <c r="F36" s="1">
+        <v>54</v>
+      </c>
+      <c r="G36" s="1">
         <v>51</v>
       </c>
     </row>
@@ -1538,7 +1747,10 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="G37">
+      <c r="F37" s="1">
+        <v>42</v>
+      </c>
+      <c r="G37" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1546,7 +1758,10 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="G38">
+      <c r="F38" s="1">
+        <v>43</v>
+      </c>
+      <c r="G38" s="1">
         <v>49</v>
       </c>
     </row>
@@ -1554,7 +1769,10 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="G39">
+      <c r="F39" s="1">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1">
         <v>48</v>
       </c>
     </row>
@@ -1562,7 +1780,10 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="G40">
+      <c r="F40" s="1">
+        <v>29</v>
+      </c>
+      <c r="G40" s="1">
         <v>44</v>
       </c>
     </row>
@@ -1570,7 +1791,10 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="G41">
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1">
         <v>24</v>
       </c>
     </row>
@@ -1578,7 +1802,10 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="G42">
+      <c r="F42" s="1">
+        <v>31</v>
+      </c>
+      <c r="G42" s="1">
         <v>46</v>
       </c>
     </row>
@@ -1586,7 +1813,10 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="G43">
+      <c r="F43" s="1">
+        <v>19</v>
+      </c>
+      <c r="G43" s="1">
         <v>44.999999999999993</v>
       </c>
     </row>
@@ -1594,7 +1824,10 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="G44">
+      <c r="F44" s="1">
+        <v>20</v>
+      </c>
+      <c r="G44" s="1">
         <v>47</v>
       </c>
     </row>
@@ -1602,7 +1835,10 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="G45">
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
         <v>69</v>
       </c>
     </row>
@@ -1610,7 +1846,10 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="G46">
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
         <v>68</v>
       </c>
     </row>
@@ -1618,7 +1857,10 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="G47">
+      <c r="F47" s="1">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
         <v>70</v>
       </c>
     </row>
@@ -1626,7 +1868,10 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="G48">
+      <c r="F48" s="1">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
         <v>67</v>
       </c>
     </row>
@@ -1634,7 +1879,10 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="G49">
+      <c r="F49" s="1">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1">
         <v>66</v>
       </c>
     </row>
@@ -1642,7 +1890,10 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="G50">
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
         <v>65</v>
       </c>
     </row>
@@ -1650,7 +1901,10 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="G51">
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
         <v>71</v>
       </c>
     </row>
@@ -1658,7 +1912,10 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="G52">
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
         <v>73</v>
       </c>
     </row>
@@ -1666,7 +1923,10 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="G53">
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
         <v>72</v>
       </c>
     </row>
@@ -1674,7 +1934,10 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
-      <c r="G54">
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
         <v>64</v>
       </c>
     </row>
@@ -1682,7 +1945,10 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="G55">
+      <c r="F55" s="1">
+        <v>23</v>
+      </c>
+      <c r="G55" s="1">
         <v>63</v>
       </c>
     </row>
@@ -1690,7 +1956,10 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
-      <c r="G56">
+      <c r="F56" s="1">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1">
         <v>57.000000000000007</v>
       </c>
     </row>
@@ -1698,7 +1967,10 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
-      <c r="G57">
+      <c r="F57" s="1">
+        <v>21</v>
+      </c>
+      <c r="G57" s="1">
         <v>58</v>
       </c>
     </row>
@@ -1706,7 +1978,10 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
-      <c r="G58">
+      <c r="F58" s="1">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1">
         <v>62</v>
       </c>
     </row>
@@ -1714,7 +1989,10 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
-      <c r="G59">
+      <c r="F59" s="1">
+        <v>24</v>
+      </c>
+      <c r="G59" s="1">
         <v>61</v>
       </c>
     </row>
@@ -1722,7 +2000,10 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
-      <c r="G60">
+      <c r="F60" s="1">
+        <v>46</v>
+      </c>
+      <c r="G60" s="1">
         <v>59</v>
       </c>
     </row>
@@ -1730,7 +2011,10 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="G61">
+      <c r="F61" s="1">
+        <v>45</v>
+      </c>
+      <c r="G61" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1738,7 +2022,10 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="G62">
+      <c r="F62" s="1">
+        <v>44</v>
+      </c>
+      <c r="G62" s="1">
         <v>41</v>
       </c>
     </row>
@@ -1746,7 +2033,10 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="G63">
+      <c r="F63" s="1">
+        <v>48</v>
+      </c>
+      <c r="G63" s="1">
         <v>40</v>
       </c>
     </row>
@@ -1754,7 +2044,10 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
-      <c r="G64">
+      <c r="F64" s="1">
+        <v>47</v>
+      </c>
+      <c r="G64" s="1">
         <v>39</v>
       </c>
     </row>
@@ -1762,7 +2055,10 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
-      <c r="G65">
+      <c r="F65" s="1">
+        <v>69</v>
+      </c>
+      <c r="G65" s="1">
         <v>38</v>
       </c>
     </row>
@@ -1770,7 +2066,10 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
-      <c r="G66">
+      <c r="F66" s="1">
+        <v>68</v>
+      </c>
+      <c r="G66" s="1">
         <v>36</v>
       </c>
     </row>
@@ -1778,7 +2077,10 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
-      <c r="G67">
+      <c r="F67" s="1">
+        <v>67</v>
+      </c>
+      <c r="G67" s="1">
         <v>35</v>
       </c>
     </row>
@@ -1786,7 +2088,10 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
-      <c r="G68">
+      <c r="F68" s="1">
+        <v>70</v>
+      </c>
+      <c r="G68" s="1">
         <v>34</v>
       </c>
     </row>
@@ -1794,7 +2099,10 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
-      <c r="G69">
+      <c r="F69" s="1">
+        <v>71</v>
+      </c>
+      <c r="G69" s="1">
         <v>33</v>
       </c>
     </row>
@@ -1802,7 +2110,10 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
-      <c r="G70">
+      <c r="F70" s="1">
+        <v>72</v>
+      </c>
+      <c r="G70" s="1">
         <v>32</v>
       </c>
     </row>
@@ -1810,7 +2121,10 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
-      <c r="G71">
+      <c r="F71" s="1">
+        <v>73</v>
+      </c>
+      <c r="G71" s="1">
         <v>37</v>
       </c>
     </row>
@@ -1818,7 +2132,10 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
-      <c r="G72">
+      <c r="F72" s="1">
+        <v>39</v>
+      </c>
+      <c r="G72" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1826,7 +2143,10 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
-      <c r="G73">
+      <c r="F73" s="1">
+        <v>38</v>
+      </c>
+      <c r="G73" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1834,7 +2154,10 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
-      <c r="G74">
+      <c r="F74" s="1">
+        <v>32</v>
+      </c>
+      <c r="G74" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1842,7 +2165,10 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
-      <c r="G75">
+      <c r="F75" s="1">
+        <v>33</v>
+      </c>
+      <c r="G75" s="1">
         <v>15</v>
       </c>
     </row>
@@ -1850,7 +2176,10 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
-      <c r="G76">
+      <c r="F76" s="1">
+        <v>27</v>
+      </c>
+      <c r="G76" s="1">
         <v>74</v>
       </c>
     </row>
@@ -1858,7 +2187,10 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
-      <c r="G77">
+      <c r="F77" s="1">
+        <v>26</v>
+      </c>
+      <c r="G77" s="1">
         <v>14</v>
       </c>
     </row>
@@ -1866,7 +2198,10 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
-      <c r="G78">
+      <c r="F78" s="1">
+        <v>75</v>
+      </c>
+      <c r="G78" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1874,7 +2209,10 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
-      <c r="G79">
+      <c r="F79" s="1">
+        <v>76</v>
+      </c>
+      <c r="G79" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1882,7 +2220,10 @@
       <c r="A80" s="1">
         <v>76</v>
       </c>
-      <c r="G80">
+      <c r="F80" s="1">
+        <v>74</v>
+      </c>
+      <c r="G80" s="1">
         <v>11</v>
       </c>
     </row>
@@ -1900,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E445DC-DEC7-486A-B56B-00B55FB99068}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,6 +2291,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>133970.64577239769</v>
+      </c>
       <c r="G3">
         <v>140217.63</v>
       </c>
@@ -1969,7 +2313,10 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>117</v>
+      </c>
+      <c r="G5" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1977,7 +2324,10 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>84</v>
+      </c>
+      <c r="G6" s="1">
         <v>24</v>
       </c>
     </row>
@@ -1985,7 +2335,10 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1">
         <v>108</v>
       </c>
     </row>
@@ -1993,7 +2346,10 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="1">
+        <v>126</v>
+      </c>
+      <c r="G8" s="1">
         <v>6</v>
       </c>
     </row>
@@ -2001,7 +2357,10 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="1">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1">
         <v>106</v>
       </c>
     </row>
@@ -2009,7 +2368,10 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>83</v>
+      </c>
+      <c r="G10" s="1">
         <v>15</v>
       </c>
     </row>
@@ -2017,7 +2379,10 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="1">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1">
         <v>105</v>
       </c>
     </row>
@@ -2025,7 +2390,10 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="1">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1">
         <v>114</v>
       </c>
     </row>
@@ -2033,7 +2401,10 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="1">
+        <v>78</v>
+      </c>
+      <c r="G13" s="1">
         <v>16</v>
       </c>
     </row>
@@ -2041,7 +2412,10 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1">
         <v>35</v>
       </c>
     </row>
@@ -2049,7 +2423,10 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="1">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1">
         <v>40</v>
       </c>
     </row>
@@ -2057,7 +2434,10 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="1">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1">
         <v>36</v>
       </c>
     </row>
@@ -2065,7 +2445,10 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="1">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
         <v>37</v>
       </c>
     </row>
@@ -2073,7 +2456,10 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="1">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1">
         <v>44</v>
       </c>
     </row>
@@ -2081,7 +2467,10 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
         <v>103</v>
       </c>
     </row>
@@ -2089,7 +2478,10 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1">
         <v>45</v>
       </c>
     </row>
@@ -2097,7 +2489,10 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
         <v>54</v>
       </c>
     </row>
@@ -2105,7 +2500,10 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="1">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1">
         <v>56</v>
       </c>
     </row>
@@ -2113,7 +2511,10 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="G23">
+      <c r="F23" s="1">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2121,7 +2522,10 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="G24">
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
         <v>124</v>
       </c>
     </row>
@@ -2129,7 +2533,10 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="G25">
+      <c r="F25" s="1">
+        <v>106</v>
+      </c>
+      <c r="G25" s="1">
         <v>52</v>
       </c>
     </row>
@@ -2137,7 +2544,10 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="1">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1">
         <v>100.00000000000001</v>
       </c>
     </row>
@@ -2145,7 +2555,10 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="G27">
+      <c r="F27" s="1">
+        <v>108</v>
+      </c>
+      <c r="G27" s="1">
         <v>64</v>
       </c>
     </row>
@@ -2153,7 +2566,10 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="G28">
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1">
         <v>58</v>
       </c>
     </row>
@@ -2161,7 +2577,10 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="G29">
+      <c r="F29" s="1">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1">
         <v>91</v>
       </c>
     </row>
@@ -2169,7 +2588,10 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="1">
+        <v>72</v>
+      </c>
+      <c r="G30" s="1">
         <v>90</v>
       </c>
     </row>
@@ -2177,7 +2599,10 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="G31">
+      <c r="F31" s="1">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2185,7 +2610,10 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="G32">
+      <c r="F32" s="1">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2193,7 +2621,10 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="G33">
+      <c r="F33" s="1">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
         <v>120.00000000000001</v>
       </c>
     </row>
@@ -2201,7 +2632,10 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="G34">
+      <c r="F34" s="1">
+        <v>114</v>
+      </c>
+      <c r="G34" s="1">
         <v>13</v>
       </c>
     </row>
@@ -2209,7 +2643,10 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="G35">
+      <c r="F35" s="1">
+        <v>105</v>
+      </c>
+      <c r="G35" s="1">
         <v>115</v>
       </c>
     </row>
@@ -2217,7 +2654,10 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="G36">
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2225,7 +2665,10 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="G37">
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
         <v>121</v>
       </c>
     </row>
@@ -2233,7 +2676,10 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="G38">
+      <c r="F38" s="1">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1">
         <v>57</v>
       </c>
     </row>
@@ -2241,7 +2687,10 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="G39">
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
         <v>51</v>
       </c>
     </row>
@@ -2249,7 +2698,10 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="G40">
+      <c r="F40" s="1">
+        <v>51</v>
+      </c>
+      <c r="G40" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2257,7 +2709,10 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="G41">
+      <c r="F41" s="1">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2265,7 +2720,10 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="G42">
+      <c r="F42" s="1">
+        <v>54</v>
+      </c>
+      <c r="G42" s="1">
         <v>7</v>
       </c>
     </row>
@@ -2273,7 +2731,10 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="G43">
+      <c r="F43" s="1">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1">
         <v>12</v>
       </c>
     </row>
@@ -2281,7 +2742,10 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="G44">
+      <c r="F44" s="1">
+        <v>103</v>
+      </c>
+      <c r="G44" s="1">
         <v>14</v>
       </c>
     </row>
@@ -2289,7 +2753,10 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="G45">
+      <c r="F45" s="1">
+        <v>44</v>
+      </c>
+      <c r="G45" s="1">
         <v>41</v>
       </c>
     </row>
@@ -2297,7 +2764,10 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="G46">
+      <c r="F46" s="1">
+        <v>35</v>
+      </c>
+      <c r="G46" s="1">
         <v>30</v>
       </c>
     </row>
@@ -2305,7 +2775,10 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="G47">
+      <c r="F47" s="1">
+        <v>36</v>
+      </c>
+      <c r="G47" s="1">
         <v>27</v>
       </c>
     </row>
@@ -2313,7 +2786,10 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="G48">
+      <c r="F48" s="1">
+        <v>37</v>
+      </c>
+      <c r="G48" s="1">
         <v>26</v>
       </c>
     </row>
@@ -2321,7 +2797,10 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="G49">
+      <c r="F49" s="1">
+        <v>41</v>
+      </c>
+      <c r="G49" s="1">
         <v>38</v>
       </c>
     </row>
@@ -2329,7 +2808,10 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="G50">
+      <c r="F50" s="1">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1">
         <v>39</v>
       </c>
     </row>
@@ -2337,7 +2819,10 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="G51">
+      <c r="F51" s="1">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1">
         <v>43</v>
       </c>
     </row>
@@ -2345,7 +2830,10 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="G52">
+      <c r="F52" s="1">
+        <v>31</v>
+      </c>
+      <c r="G52" s="1">
         <v>34</v>
       </c>
     </row>
@@ -2353,7 +2841,10 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="G53">
+      <c r="F53" s="1">
+        <v>27</v>
+      </c>
+      <c r="G53" s="1">
         <v>42</v>
       </c>
     </row>
@@ -2361,7 +2852,10 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
-      <c r="G54">
+      <c r="F54" s="1">
+        <v>30</v>
+      </c>
+      <c r="G54" s="1">
         <v>28.000000000000004</v>
       </c>
     </row>
@@ -2369,7 +2863,10 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="G55">
+      <c r="F55" s="1">
+        <v>43</v>
+      </c>
+      <c r="G55" s="1">
         <v>122</v>
       </c>
     </row>
@@ -2377,7 +2874,10 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
-      <c r="G56">
+      <c r="F56" s="1">
+        <v>34</v>
+      </c>
+      <c r="G56" s="1">
         <v>25</v>
       </c>
     </row>
@@ -2385,7 +2885,10 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
-      <c r="G57">
+      <c r="F57" s="1">
+        <v>39</v>
+      </c>
+      <c r="G57" s="1">
         <v>33</v>
       </c>
     </row>
@@ -2393,7 +2896,10 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
-      <c r="G58">
+      <c r="F58" s="1">
+        <v>38</v>
+      </c>
+      <c r="G58" s="1">
         <v>29.000000000000004</v>
       </c>
     </row>
@@ -2401,7 +2907,10 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
-      <c r="G59">
+      <c r="F59" s="1">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1">
         <v>32</v>
       </c>
     </row>
@@ -2409,7 +2918,10 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
-      <c r="G60">
+      <c r="F60" s="1">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1">
         <v>78</v>
       </c>
     </row>
@@ -2417,7 +2929,10 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="G61">
+      <c r="F61" s="1">
+        <v>33</v>
+      </c>
+      <c r="G61" s="1">
         <v>80</v>
       </c>
     </row>
@@ -2425,7 +2940,10 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="G62">
+      <c r="F62" s="1">
+        <v>122</v>
+      </c>
+      <c r="G62" s="1">
         <v>79</v>
       </c>
     </row>
@@ -2433,7 +2951,10 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="G63">
+      <c r="F63" s="1">
+        <v>28</v>
+      </c>
+      <c r="G63" s="1">
         <v>31.000000000000004</v>
       </c>
     </row>
@@ -2441,7 +2962,10 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
-      <c r="G64">
+      <c r="F64" s="1">
+        <v>29</v>
+      </c>
+      <c r="G64" s="1">
         <v>117</v>
       </c>
     </row>
@@ -2449,7 +2973,10 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
-      <c r="G65">
+      <c r="F65" s="1">
+        <v>32</v>
+      </c>
+      <c r="G65" s="1">
         <v>76</v>
       </c>
     </row>
@@ -2457,7 +2984,10 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
-      <c r="G66">
+      <c r="F66" s="1">
+        <v>42</v>
+      </c>
+      <c r="G66" s="1">
         <v>68</v>
       </c>
     </row>
@@ -2465,7 +2995,10 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
-      <c r="G67">
+      <c r="F67" s="1">
+        <v>40</v>
+      </c>
+      <c r="G67" s="1">
         <v>69</v>
       </c>
     </row>
@@ -2473,7 +3006,10 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
-      <c r="G68">
+      <c r="F68" s="1">
+        <v>121</v>
+      </c>
+      <c r="G68" s="1">
         <v>96</v>
       </c>
     </row>
@@ -2481,7 +3017,10 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
-      <c r="G69">
+      <c r="F69" s="1">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1">
         <v>119</v>
       </c>
     </row>
@@ -2489,7 +3028,10 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
-      <c r="G70">
+      <c r="F70" s="1">
+        <v>56</v>
+      </c>
+      <c r="G70" s="1">
         <v>63</v>
       </c>
     </row>
@@ -2497,7 +3039,10 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
-      <c r="G71">
+      <c r="F71" s="1">
+        <v>124</v>
+      </c>
+      <c r="G71" s="1">
         <v>75</v>
       </c>
     </row>
@@ -2505,7 +3050,10 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
-      <c r="G72">
+      <c r="F72" s="1">
+        <v>52</v>
+      </c>
+      <c r="G72" s="1">
         <v>84</v>
       </c>
     </row>
@@ -2513,7 +3061,10 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
-      <c r="G73">
+      <c r="F73" s="1">
+        <v>50</v>
+      </c>
+      <c r="G73" s="1">
         <v>81.000000000000014</v>
       </c>
     </row>
@@ -2521,7 +3072,10 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
-      <c r="G74">
+      <c r="F74" s="1">
+        <v>13</v>
+      </c>
+      <c r="G74" s="1">
         <v>126</v>
       </c>
     </row>
@@ -2529,7 +3083,10 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
-      <c r="G75">
+      <c r="F75" s="1">
+        <v>115</v>
+      </c>
+      <c r="G75" s="1">
         <v>82</v>
       </c>
     </row>
@@ -2537,7 +3094,10 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
-      <c r="G76">
+      <c r="F76" s="1">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1">
         <v>83</v>
       </c>
     </row>
@@ -2545,7 +3105,10 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
-      <c r="G77">
+      <c r="F77" s="1">
+        <v>120</v>
+      </c>
+      <c r="G77" s="1">
         <v>102</v>
       </c>
     </row>
@@ -2553,7 +3116,10 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
-      <c r="G78">
+      <c r="F78" s="1">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1">
         <v>101</v>
       </c>
     </row>
@@ -2561,7 +3127,10 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
-      <c r="G79">
+      <c r="F79" s="1">
+        <v>90</v>
+      </c>
+      <c r="G79" s="1">
         <v>98</v>
       </c>
     </row>
@@ -2569,7 +3138,10 @@
       <c r="A80" s="1">
         <v>76</v>
       </c>
-      <c r="G80">
+      <c r="F80" s="1">
+        <v>116</v>
+      </c>
+      <c r="G80" s="1">
         <v>97</v>
       </c>
     </row>
@@ -2577,7 +3149,10 @@
       <c r="A81" s="1">
         <v>77</v>
       </c>
-      <c r="G81">
+      <c r="F81" s="1">
+        <v>60</v>
+      </c>
+      <c r="G81" s="1">
         <v>123</v>
       </c>
     </row>
@@ -2585,7 +3160,10 @@
       <c r="A82" s="1">
         <v>78</v>
       </c>
-      <c r="G82">
+      <c r="F82" s="1">
+        <v>62</v>
+      </c>
+      <c r="G82" s="1">
         <v>94.999999999999986</v>
       </c>
     </row>
@@ -2593,7 +3171,10 @@
       <c r="A83" s="1">
         <v>79</v>
       </c>
-      <c r="G83">
+      <c r="F83" s="1">
+        <v>61</v>
+      </c>
+      <c r="G83" s="1">
         <v>93</v>
       </c>
     </row>
@@ -2601,7 +3182,10 @@
       <c r="A84" s="1">
         <v>80</v>
       </c>
-      <c r="G84">
+      <c r="F84" s="1">
+        <v>91</v>
+      </c>
+      <c r="G84" s="1">
         <v>127</v>
       </c>
     </row>
@@ -2609,7 +3193,10 @@
       <c r="A85" s="1">
         <v>81</v>
       </c>
-      <c r="G85">
+      <c r="F85" s="1">
+        <v>58</v>
+      </c>
+      <c r="G85" s="1">
         <v>107.00000000000001</v>
       </c>
     </row>
@@ -2617,7 +3204,10 @@
       <c r="A86" s="1">
         <v>82</v>
       </c>
-      <c r="G86">
+      <c r="F86" s="1">
+        <v>64</v>
+      </c>
+      <c r="G86" s="1">
         <v>111.00000000000001</v>
       </c>
     </row>
@@ -2625,7 +3215,10 @@
       <c r="A87" s="1">
         <v>83</v>
       </c>
-      <c r="G87">
+      <c r="F87" s="1">
+        <v>100</v>
+      </c>
+      <c r="G87" s="1">
         <v>111.99999999999999</v>
       </c>
     </row>
@@ -2633,7 +3226,10 @@
       <c r="A88" s="1">
         <v>84</v>
       </c>
-      <c r="G88">
+      <c r="F88" s="1">
+        <v>113</v>
+      </c>
+      <c r="G88" s="1">
         <v>94</v>
       </c>
     </row>
@@ -2641,7 +3237,10 @@
       <c r="A89" s="1">
         <v>85</v>
       </c>
-      <c r="G89">
+      <c r="F89" s="1">
+        <v>66</v>
+      </c>
+      <c r="G89" s="1">
         <v>46</v>
       </c>
     </row>
@@ -2649,7 +3248,10 @@
       <c r="A90" s="1">
         <v>86</v>
       </c>
-      <c r="G90">
+      <c r="F90" s="1">
+        <v>55</v>
+      </c>
+      <c r="G90" s="1">
         <v>48</v>
       </c>
     </row>
@@ -2657,7 +3259,10 @@
       <c r="A91" s="1">
         <v>87</v>
       </c>
-      <c r="G91">
+      <c r="F91" s="1">
+        <v>47</v>
+      </c>
+      <c r="G91" s="1">
         <v>117.99999999999999</v>
       </c>
     </row>
@@ -2665,7 +3270,10 @@
       <c r="A92" s="1">
         <v>88</v>
       </c>
-      <c r="G92">
+      <c r="F92" s="1">
+        <v>49</v>
+      </c>
+      <c r="G92" s="1">
         <v>53</v>
       </c>
     </row>
@@ -2673,7 +3281,10 @@
       <c r="A93" s="1">
         <v>89</v>
       </c>
-      <c r="G93">
+      <c r="F93" s="1">
+        <v>53</v>
+      </c>
+      <c r="G93" s="1">
         <v>49</v>
       </c>
     </row>
@@ -2681,7 +3292,10 @@
       <c r="A94" s="1">
         <v>90</v>
       </c>
-      <c r="G94">
+      <c r="F94" s="1">
+        <v>118</v>
+      </c>
+      <c r="G94" s="1">
         <v>47</v>
       </c>
     </row>
@@ -2689,7 +3303,10 @@
       <c r="A95" s="1">
         <v>91</v>
       </c>
-      <c r="G95">
+      <c r="F95" s="1">
+        <v>48</v>
+      </c>
+      <c r="G95" s="1">
         <v>55</v>
       </c>
     </row>
@@ -2697,7 +3314,10 @@
       <c r="A96" s="1">
         <v>92</v>
       </c>
-      <c r="G96">
+      <c r="F96" s="1">
+        <v>46</v>
+      </c>
+      <c r="G96" s="1">
         <v>66</v>
       </c>
     </row>
@@ -2705,7 +3325,10 @@
       <c r="A97" s="1">
         <v>93</v>
       </c>
-      <c r="G97">
+      <c r="F97" s="1">
+        <v>94</v>
+      </c>
+      <c r="G97" s="1">
         <v>65</v>
       </c>
     </row>
@@ -2713,7 +3336,10 @@
       <c r="A98" s="1">
         <v>94</v>
       </c>
-      <c r="G98">
+      <c r="F98" s="1">
+        <v>112</v>
+      </c>
+      <c r="G98" s="1">
         <v>113</v>
       </c>
     </row>
@@ -2721,7 +3347,10 @@
       <c r="A99" s="1">
         <v>95</v>
       </c>
-      <c r="G99">
+      <c r="F99" s="1">
+        <v>111</v>
+      </c>
+      <c r="G99" s="1">
         <v>61</v>
       </c>
     </row>
@@ -2729,7 +3358,10 @@
       <c r="A100" s="1">
         <v>96</v>
       </c>
-      <c r="G100">
+      <c r="F100" s="1">
+        <v>107</v>
+      </c>
+      <c r="G100" s="1">
         <v>62</v>
       </c>
     </row>
@@ -2737,7 +3369,10 @@
       <c r="A101" s="1">
         <v>97</v>
       </c>
-      <c r="G101">
+      <c r="F101" s="1">
+        <v>127</v>
+      </c>
+      <c r="G101" s="1">
         <v>60</v>
       </c>
     </row>
@@ -2745,7 +3380,10 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
-      <c r="G102">
+      <c r="F102" s="1">
+        <v>93</v>
+      </c>
+      <c r="G102" s="1">
         <v>116</v>
       </c>
     </row>
@@ -2753,7 +3391,10 @@
       <c r="A103" s="1">
         <v>99</v>
       </c>
-      <c r="G103">
+      <c r="F103" s="1">
+        <v>95</v>
+      </c>
+      <c r="G103" s="1">
         <v>67</v>
       </c>
     </row>
@@ -2761,7 +3402,10 @@
       <c r="A104" s="1">
         <v>100</v>
       </c>
-      <c r="G104">
+      <c r="F104" s="1">
+        <v>123</v>
+      </c>
+      <c r="G104" s="1">
         <v>18</v>
       </c>
     </row>
@@ -2769,7 +3413,10 @@
       <c r="A105" s="1">
         <v>101</v>
       </c>
-      <c r="G105">
+      <c r="F105" s="1">
+        <v>97</v>
+      </c>
+      <c r="G105" s="1">
         <v>77</v>
       </c>
     </row>
@@ -2777,7 +3424,10 @@
       <c r="A106" s="1">
         <v>102</v>
       </c>
-      <c r="G106">
+      <c r="F106" s="1">
+        <v>98</v>
+      </c>
+      <c r="G106" s="1">
         <v>74</v>
       </c>
     </row>
@@ -2785,7 +3435,10 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
-      <c r="G107">
+      <c r="F107" s="1">
+        <v>101</v>
+      </c>
+      <c r="G107" s="1">
         <v>73</v>
       </c>
     </row>
@@ -2793,7 +3446,10 @@
       <c r="A108" s="1">
         <v>104</v>
       </c>
-      <c r="G108">
+      <c r="F108" s="1">
+        <v>102</v>
+      </c>
+      <c r="G108" s="1">
         <v>71</v>
       </c>
     </row>
@@ -2801,7 +3457,10 @@
       <c r="A109" s="1">
         <v>105</v>
       </c>
-      <c r="G109">
+      <c r="F109" s="1">
+        <v>63</v>
+      </c>
+      <c r="G109" s="1">
         <v>70</v>
       </c>
     </row>
@@ -2809,7 +3468,10 @@
       <c r="A110" s="1">
         <v>106</v>
       </c>
-      <c r="G110">
+      <c r="F110" s="1">
+        <v>119</v>
+      </c>
+      <c r="G110" s="1">
         <v>109.00000000000001</v>
       </c>
     </row>
@@ -2817,7 +3479,10 @@
       <c r="A111" s="1">
         <v>107</v>
       </c>
-      <c r="G111">
+      <c r="F111" s="1">
+        <v>96</v>
+      </c>
+      <c r="G111" s="1">
         <v>88</v>
       </c>
     </row>
@@ -2825,7 +3490,10 @@
       <c r="A112" s="1">
         <v>108</v>
       </c>
-      <c r="G112">
+      <c r="F112" s="1">
+        <v>109</v>
+      </c>
+      <c r="G112" s="1">
         <v>87</v>
       </c>
     </row>
@@ -2833,7 +3501,10 @@
       <c r="A113" s="1">
         <v>109</v>
       </c>
-      <c r="G113">
+      <c r="F113" s="1">
+        <v>87</v>
+      </c>
+      <c r="G113" s="1">
         <v>86</v>
       </c>
     </row>
@@ -2841,7 +3512,10 @@
       <c r="A114" s="1">
         <v>110</v>
       </c>
-      <c r="G114">
+      <c r="F114" s="1">
+        <v>86</v>
+      </c>
+      <c r="G114" s="1">
         <v>85</v>
       </c>
     </row>
@@ -2849,7 +3523,10 @@
       <c r="A115" s="1">
         <v>111</v>
       </c>
-      <c r="G115">
+      <c r="F115" s="1">
+        <v>85</v>
+      </c>
+      <c r="G115" s="1">
         <v>110</v>
       </c>
     </row>
@@ -2857,7 +3534,10 @@
       <c r="A116" s="1">
         <v>112</v>
       </c>
-      <c r="G116">
+      <c r="F116" s="1">
+        <v>88</v>
+      </c>
+      <c r="G116" s="1">
         <v>104</v>
       </c>
     </row>
@@ -2865,7 +3545,10 @@
       <c r="A117" s="1">
         <v>113</v>
       </c>
-      <c r="G117">
+      <c r="F117" s="1">
+        <v>110</v>
+      </c>
+      <c r="G117" s="1">
         <v>99</v>
       </c>
     </row>
@@ -2873,7 +3556,10 @@
       <c r="A118" s="1">
         <v>114</v>
       </c>
-      <c r="G118">
+      <c r="F118" s="1">
+        <v>71</v>
+      </c>
+      <c r="G118" s="1">
         <v>92</v>
       </c>
     </row>
@@ -2881,7 +3567,10 @@
       <c r="A119" s="1">
         <v>115</v>
       </c>
-      <c r="G119">
+      <c r="F119" s="1">
+        <v>70</v>
+      </c>
+      <c r="G119" s="1">
         <v>89</v>
       </c>
     </row>
@@ -2889,7 +3578,10 @@
       <c r="A120" s="1">
         <v>116</v>
       </c>
-      <c r="G120">
+      <c r="F120" s="1">
+        <v>69</v>
+      </c>
+      <c r="G120" s="1">
         <v>125.00000000000001</v>
       </c>
     </row>
@@ -2897,7 +3589,10 @@
       <c r="A121" s="1">
         <v>117</v>
       </c>
-      <c r="G121">
+      <c r="F121" s="1">
+        <v>68</v>
+      </c>
+      <c r="G121" s="1">
         <v>59</v>
       </c>
     </row>
@@ -2905,7 +3600,10 @@
       <c r="A122" s="1">
         <v>118</v>
       </c>
-      <c r="G122">
+      <c r="F122" s="1">
+        <v>73</v>
+      </c>
+      <c r="G122" s="1">
         <v>11</v>
       </c>
     </row>
@@ -2913,7 +3611,10 @@
       <c r="A123" s="1">
         <v>119</v>
       </c>
-      <c r="G123">
+      <c r="F123" s="1">
+        <v>74</v>
+      </c>
+      <c r="G123" s="1">
         <v>9</v>
       </c>
     </row>
@@ -2921,7 +3622,10 @@
       <c r="A124" s="1">
         <v>120</v>
       </c>
-      <c r="G124">
+      <c r="F124" s="1">
+        <v>67</v>
+      </c>
+      <c r="G124" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2929,7 +3633,10 @@
       <c r="A125" s="1">
         <v>121</v>
       </c>
-      <c r="G125">
+      <c r="F125" s="1">
+        <v>59</v>
+      </c>
+      <c r="G125" s="1">
         <v>72</v>
       </c>
     </row>
@@ -2937,7 +3644,10 @@
       <c r="A126" s="1">
         <v>122</v>
       </c>
-      <c r="G126">
+      <c r="F126" s="1">
+        <v>125</v>
+      </c>
+      <c r="G126" s="1">
         <v>19</v>
       </c>
     </row>
@@ -2945,7 +3655,10 @@
       <c r="A127" s="1">
         <v>123</v>
       </c>
-      <c r="G127">
+      <c r="F127" s="1">
+        <v>89</v>
+      </c>
+      <c r="G127" s="1">
         <v>23</v>
       </c>
     </row>
@@ -2953,7 +3666,10 @@
       <c r="A128" s="1">
         <v>124</v>
       </c>
-      <c r="G128">
+      <c r="F128" s="1">
+        <v>92</v>
+      </c>
+      <c r="G128" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2961,7 +3677,10 @@
       <c r="A129" s="1">
         <v>125</v>
       </c>
-      <c r="G129">
+      <c r="F129" s="1">
+        <v>99</v>
+      </c>
+      <c r="G129" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2969,7 +3688,10 @@
       <c r="A130" s="1">
         <v>126</v>
       </c>
-      <c r="G130">
+      <c r="F130" s="1">
+        <v>65</v>
+      </c>
+      <c r="G130" s="1">
         <v>22</v>
       </c>
     </row>
@@ -2977,7 +3699,10 @@
       <c r="A131" s="1">
         <v>127</v>
       </c>
-      <c r="G131">
+      <c r="F131" s="1">
+        <v>104</v>
+      </c>
+      <c r="G131" s="1">
         <v>21</v>
       </c>
     </row>
@@ -2992,21 +3717,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009A90AB19BA281B46B8380751D999A78D" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="30d09d38612c93741b9eedbb53514047">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e4a570-071a-4a2d-92fe-032540accd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea953fb45c2891f5fd0cec805fc9463" ns2:_="">
     <xsd:import namespace="49e4a570-071a-4a2d-92fe-032540accd22"/>
@@ -3150,24 +3860,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AC383A-0CD0-4D21-B13C-12C946D4DD45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3183,4 +3891,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Zestawienie wyników TSP.xlsx
+++ b/Zestawienie wyników TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justyna\source\repos\Projekt_IO\TSP-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE34489-D64A-4242-A64C-55C32D0C8887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C45D6-8CE6-46AA-A0B8-2E9315B95B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7D776930-A9A0-493F-8678-92D617752308}"/>
   </bookViews>
@@ -172,6 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,7 +185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,18 +515,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +552,9 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>10788</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3">
         <v>12012</v>
@@ -562,15 +564,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -578,7 +580,9 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>10</v>
@@ -593,7 +597,9 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>24</v>
@@ -608,7 +614,9 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>33</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>42</v>
@@ -623,7 +631,9 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>28</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>5</v>
@@ -638,7 +648,9 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>48</v>
@@ -653,7 +665,9 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>39</v>
@@ -668,7 +682,9 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>32</v>
@@ -683,7 +699,9 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>34</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>21</v>
@@ -698,7 +716,9 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>44</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>47</v>
@@ -713,7 +733,9 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>11</v>
@@ -728,7 +750,9 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>23</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>23</v>
@@ -743,7 +767,9 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>41</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>14</v>
@@ -758,7 +784,9 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>25</v>
@@ -773,7 +801,9 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>47</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>13</v>
@@ -788,7 +818,9 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>38</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>12</v>
@@ -803,7 +835,9 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>31</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
         <v>15</v>
@@ -818,7 +852,9 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
         <v>33</v>
@@ -833,7 +869,9 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
         <v>46</v>
@@ -848,7 +886,9 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>24</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>44</v>
@@ -863,7 +903,9 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>13</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>18</v>
@@ -878,7 +920,9 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>22</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>7</v>
@@ -893,7 +937,9 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>28</v>
@@ -908,7 +954,9 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>46</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
         <v>36</v>
@@ -923,7 +971,9 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>19</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
         <v>30</v>
@@ -938,7 +988,9 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>11</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <v>6</v>
@@ -953,7 +1005,9 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
         <v>37</v>
@@ -968,7 +1022,9 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <v>32</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>19</v>
@@ -983,7 +1039,9 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1">
+        <v>45</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
         <v>27</v>
@@ -998,7 +1056,9 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1">
+        <v>35</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
         <v>43</v>
@@ -1013,7 +1073,9 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>29</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
         <v>17</v>
@@ -1028,7 +1090,9 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1">
+        <v>42</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
         <v>20</v>
@@ -1043,7 +1107,9 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1">
+        <v>16</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
         <v>40</v>
@@ -1058,7 +1124,9 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1">
+        <v>26</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
         <v>9</v>
@@ -1073,7 +1141,9 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1">
+        <v>18</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
         <v>1</v>
@@ -1088,7 +1158,9 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1">
+        <v>36</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
         <v>8</v>
@@ -1103,7 +1175,9 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
         <v>38</v>
@@ -1118,7 +1192,9 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1">
+        <v>27</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
         <v>31</v>
@@ -1133,7 +1209,9 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
         <v>22</v>
@@ -1148,7 +1226,9 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1">
+        <v>17</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
         <v>16</v>
@@ -1163,7 +1243,9 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1">
+        <v>43</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
         <v>3</v>
@@ -1178,7 +1260,9 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1">
+        <v>30</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1">
         <v>34</v>
@@ -1193,7 +1277,9 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1">
+        <v>37</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1">
         <v>41</v>
@@ -1208,7 +1294,9 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1">
+        <v>7</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
         <v>29</v>
@@ -1223,7 +1311,9 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
         <v>2</v>
@@ -1238,7 +1328,9 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
         <v>26</v>
@@ -1253,7 +1345,9 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <v>39</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
         <v>4</v>
@@ -1268,7 +1362,9 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
         <v>35</v>
@@ -1283,7 +1379,9 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1">
+        <v>21</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1">
         <v>45</v>
@@ -1298,7 +1396,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
@@ -1323,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B0EA09-4E35-4AAA-8B43-1494F5D8CEB7}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,18 +1436,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,6 +1471,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1">
+        <v>110041.248108399</v>
+      </c>
       <c r="F3">
         <v>130921.00457667319</v>
       </c>
@@ -1381,20 +1482,23 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
+      <c r="D5" s="1">
+        <v>62</v>
+      </c>
       <c r="F5" s="1">
         <v>16</v>
       </c>
@@ -1406,6 +1510,9 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
+      <c r="D6" s="1">
+        <v>56</v>
+      </c>
       <c r="F6" s="1">
         <v>15</v>
       </c>
@@ -1417,6 +1524,9 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
+      <c r="D7" s="1">
+        <v>61</v>
+      </c>
       <c r="F7" s="1">
         <v>13</v>
       </c>
@@ -1428,6 +1538,9 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
       <c r="F8" s="1">
         <v>14</v>
       </c>
@@ -1439,6 +1552,9 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
+      <c r="D9" s="1">
+        <v>57</v>
+      </c>
       <c r="F9" s="1">
         <v>12</v>
       </c>
@@ -1450,6 +1566,9 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
+      <c r="D10" s="1">
+        <v>58</v>
+      </c>
       <c r="F10" s="1">
         <v>11</v>
       </c>
@@ -1461,6 +1580,9 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
+      <c r="D11" s="1">
+        <v>59</v>
+      </c>
       <c r="F11" s="1">
         <v>17</v>
       </c>
@@ -1472,6 +1594,9 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
+      <c r="D12" s="1">
+        <v>40</v>
+      </c>
       <c r="F12" s="1">
         <v>18</v>
       </c>
@@ -1483,6 +1608,9 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
+      <c r="D13" s="1">
+        <v>39</v>
+      </c>
       <c r="F13" s="1">
         <v>37</v>
       </c>
@@ -1494,6 +1622,9 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
+      <c r="D14" s="1">
+        <v>38</v>
+      </c>
       <c r="F14" s="1">
         <v>36</v>
       </c>
@@ -1505,6 +1636,9 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
+      <c r="D15" s="1">
+        <v>37</v>
+      </c>
       <c r="F15" s="1">
         <v>35</v>
       </c>
@@ -1516,6 +1650,9 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
+      <c r="D16" s="1">
+        <v>33</v>
+      </c>
       <c r="F16" s="1">
         <v>34</v>
       </c>
@@ -1527,6 +1664,9 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
+      <c r="D17" s="1">
+        <v>34</v>
+      </c>
       <c r="F17" s="1">
         <v>40</v>
       </c>
@@ -1538,6 +1678,9 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
+      <c r="D18" s="1">
+        <v>35</v>
+      </c>
       <c r="F18" s="1">
         <v>41</v>
       </c>
@@ -1549,6 +1692,9 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
+      <c r="D19" s="1">
+        <v>36</v>
+      </c>
       <c r="F19" s="1">
         <v>60</v>
       </c>
@@ -1560,6 +1706,9 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
+      <c r="D20" s="1">
+        <v>17</v>
+      </c>
       <c r="F20" s="1">
         <v>59</v>
       </c>
@@ -1571,6 +1720,9 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
       <c r="F21" s="1">
         <v>58</v>
       </c>
@@ -1582,6 +1734,9 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
       <c r="F22" s="1">
         <v>57</v>
       </c>
@@ -1593,6 +1748,9 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
+      <c r="D23" s="1">
+        <v>14</v>
+      </c>
       <c r="F23" s="1">
         <v>63</v>
       </c>
@@ -1604,6 +1762,9 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
+      <c r="D24" s="1">
+        <v>73</v>
+      </c>
       <c r="F24" s="1">
         <v>64</v>
       </c>
@@ -1615,6 +1776,9 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
+      <c r="D25" s="1">
+        <v>13</v>
+      </c>
       <c r="F25" s="1">
         <v>62</v>
       </c>
@@ -1626,6 +1790,9 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
       <c r="F26" s="1">
         <v>61</v>
       </c>
@@ -1637,6 +1804,9 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
+      <c r="D27" s="1">
+        <v>11</v>
+      </c>
       <c r="F27" s="1">
         <v>55</v>
       </c>
@@ -1648,6 +1818,9 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
       <c r="F28" s="1">
         <v>56</v>
       </c>
@@ -1659,6 +1832,9 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
       <c r="F29" s="1">
         <v>51</v>
       </c>
@@ -1670,6 +1846,9 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
       <c r="F30" s="1">
         <v>66</v>
       </c>
@@ -1681,6 +1860,9 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
       <c r="F31" s="1">
         <v>65</v>
       </c>
@@ -1692,6 +1874,9 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
       <c r="F32" s="1">
         <v>50</v>
       </c>
@@ -1703,6 +1888,9 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
       <c r="F33" s="1">
         <v>49</v>
       </c>
@@ -1714,6 +1902,9 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
       <c r="F34" s="1">
         <v>52</v>
       </c>
@@ -1725,6 +1916,9 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
+      <c r="D35" s="1">
+        <v>19</v>
+      </c>
       <c r="F35" s="1">
         <v>53</v>
       </c>
@@ -1736,6 +1930,9 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
+      <c r="D36" s="1">
+        <v>18</v>
+      </c>
       <c r="F36" s="1">
         <v>54</v>
       </c>
@@ -1747,6 +1944,9 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
+      <c r="D37" s="1">
+        <v>30</v>
+      </c>
       <c r="F37" s="1">
         <v>42</v>
       </c>
@@ -1758,6 +1958,9 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
+      <c r="D38" s="1">
+        <v>29</v>
+      </c>
       <c r="F38" s="1">
         <v>43</v>
       </c>
@@ -1769,6 +1972,9 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
       <c r="F39" s="1">
         <v>28</v>
       </c>
@@ -1780,6 +1986,9 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
       <c r="F40" s="1">
         <v>29</v>
       </c>
@@ -1791,6 +2000,9 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
       <c r="F41" s="1">
         <v>30</v>
       </c>
@@ -1802,6 +2014,9 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
+      <c r="D42" s="1">
+        <v>74</v>
+      </c>
       <c r="F42" s="1">
         <v>31</v>
       </c>
@@ -1813,6 +2028,9 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
+      <c r="D43" s="1">
+        <v>75</v>
+      </c>
       <c r="F43" s="1">
         <v>19</v>
       </c>
@@ -1824,6 +2042,9 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
       <c r="F44" s="1">
         <v>20</v>
       </c>
@@ -1835,6 +2056,9 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
+      <c r="D45" s="1">
+        <v>22</v>
+      </c>
       <c r="F45" s="1">
         <v>5</v>
       </c>
@@ -1846,6 +2070,9 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
+      <c r="D46" s="1">
+        <v>21</v>
+      </c>
       <c r="F46" s="1">
         <v>6</v>
       </c>
@@ -1857,6 +2084,9 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
       <c r="F47" s="1">
         <v>7</v>
       </c>
@@ -1868,6 +2098,9 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
+      <c r="D48" s="1">
+        <v>24</v>
+      </c>
       <c r="F48" s="1">
         <v>8</v>
       </c>
@@ -1879,6 +2112,9 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
+      <c r="D49" s="1">
+        <v>23</v>
+      </c>
       <c r="F49" s="1">
         <v>9</v>
       </c>
@@ -1890,6 +2126,9 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
+      <c r="D50" s="1">
+        <v>45</v>
+      </c>
       <c r="F50" s="1">
         <v>10</v>
       </c>
@@ -1901,6 +2140,9 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
+      <c r="D51" s="1">
+        <v>44</v>
+      </c>
       <c r="F51" s="1">
         <v>4</v>
       </c>
@@ -1912,6 +2154,9 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
+      <c r="D52" s="1">
+        <v>43</v>
+      </c>
       <c r="F52" s="1">
         <v>3</v>
       </c>
@@ -1923,6 +2168,9 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
+      <c r="D53" s="1">
+        <v>47</v>
+      </c>
       <c r="F53" s="1">
         <v>2</v>
       </c>
@@ -1934,6 +2182,9 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
+      <c r="D54" s="1">
+        <v>46</v>
+      </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
@@ -1945,6 +2196,9 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
+      <c r="D55" s="1">
+        <v>68</v>
+      </c>
       <c r="F55" s="1">
         <v>23</v>
       </c>
@@ -1956,6 +2210,9 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
+      <c r="D56" s="1">
+        <v>67</v>
+      </c>
       <c r="F56" s="1">
         <v>22</v>
       </c>
@@ -1967,6 +2224,9 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
+      <c r="D57" s="1">
+        <v>69</v>
+      </c>
       <c r="F57" s="1">
         <v>21</v>
       </c>
@@ -1978,6 +2238,9 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
+      <c r="D58" s="1">
+        <v>66</v>
+      </c>
       <c r="F58" s="1">
         <v>25</v>
       </c>
@@ -1989,6 +2252,9 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
+      <c r="D59" s="1">
+        <v>49</v>
+      </c>
       <c r="F59" s="1">
         <v>24</v>
       </c>
@@ -2000,6 +2266,9 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
+      <c r="D60" s="1">
+        <v>48</v>
+      </c>
       <c r="F60" s="1">
         <v>46</v>
       </c>
@@ -2011,6 +2280,9 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
+      <c r="D61" s="1">
+        <v>26</v>
+      </c>
       <c r="F61" s="1">
         <v>45</v>
       </c>
@@ -2022,6 +2294,9 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
+      <c r="D62" s="1">
+        <v>25</v>
+      </c>
       <c r="F62" s="1">
         <v>44</v>
       </c>
@@ -2033,6 +2308,9 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
+      <c r="D63" s="1">
+        <v>28</v>
+      </c>
       <c r="F63" s="1">
         <v>48</v>
       </c>
@@ -2044,6 +2322,9 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
+      <c r="D64" s="1">
+        <v>31</v>
+      </c>
       <c r="F64" s="1">
         <v>47</v>
       </c>
@@ -2055,6 +2336,9 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
+      <c r="D65" s="1">
+        <v>32</v>
+      </c>
       <c r="F65" s="1">
         <v>69</v>
       </c>
@@ -2066,6 +2350,9 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
+      <c r="D66" s="1">
+        <v>27</v>
+      </c>
       <c r="F66" s="1">
         <v>68</v>
       </c>
@@ -2077,6 +2364,9 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
+      <c r="D67" s="1">
+        <v>42</v>
+      </c>
       <c r="F67" s="1">
         <v>67</v>
       </c>
@@ -2088,6 +2378,9 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
+      <c r="D68" s="1">
+        <v>41</v>
+      </c>
       <c r="F68" s="1">
         <v>70</v>
       </c>
@@ -2099,6 +2392,9 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
+      <c r="D69" s="1">
+        <v>53</v>
+      </c>
       <c r="F69" s="1">
         <v>71</v>
       </c>
@@ -2110,6 +2406,9 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
+      <c r="D70" s="1">
+        <v>52</v>
+      </c>
       <c r="F70" s="1">
         <v>72</v>
       </c>
@@ -2121,6 +2420,9 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
+      <c r="D71" s="1">
+        <v>51</v>
+      </c>
       <c r="F71" s="1">
         <v>73</v>
       </c>
@@ -2132,6 +2434,9 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
+      <c r="D72" s="1">
+        <v>54</v>
+      </c>
       <c r="F72" s="1">
         <v>39</v>
       </c>
@@ -2143,6 +2448,9 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
+      <c r="D73" s="1">
+        <v>55</v>
+      </c>
       <c r="F73" s="1">
         <v>38</v>
       </c>
@@ -2154,6 +2462,9 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
+      <c r="D74" s="1">
+        <v>50</v>
+      </c>
       <c r="F74" s="1">
         <v>32</v>
       </c>
@@ -2165,6 +2476,9 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
+      <c r="D75" s="1">
+        <v>65</v>
+      </c>
       <c r="F75" s="1">
         <v>33</v>
       </c>
@@ -2176,6 +2490,9 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
+      <c r="D76" s="1">
+        <v>64</v>
+      </c>
       <c r="F76" s="1">
         <v>27</v>
       </c>
@@ -2187,6 +2504,9 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
+      <c r="D77" s="1">
+        <v>70</v>
+      </c>
       <c r="F77" s="1">
         <v>26</v>
       </c>
@@ -2198,6 +2518,9 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
+      <c r="D78" s="1">
+        <v>71</v>
+      </c>
       <c r="F78" s="1">
         <v>75</v>
       </c>
@@ -2209,6 +2532,9 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
+      <c r="D79" s="1">
+        <v>72</v>
+      </c>
       <c r="F79" s="1">
         <v>76</v>
       </c>
@@ -2219,6 +2545,9 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>76</v>
+      </c>
+      <c r="D80" s="1">
+        <v>63</v>
       </c>
       <c r="F80" s="1">
         <v>74</v>
@@ -2241,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E445DC-DEC7-486A-B56B-00B55FB99068}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,18 +2585,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2291,6 +2620,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1">
+        <v>120791.74338491949</v>
+      </c>
       <c r="F3">
         <v>133970.64577239769</v>
       </c>
@@ -2299,20 +2631,23 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
       <c r="F5" s="1">
         <v>117</v>
       </c>
@@ -2324,6 +2659,9 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
+      <c r="D6" s="1">
+        <v>23</v>
+      </c>
       <c r="F6" s="1">
         <v>84</v>
       </c>
@@ -2335,6 +2673,9 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
       <c r="F7" s="1">
         <v>81</v>
       </c>
@@ -2346,6 +2687,9 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
+      <c r="D8" s="1">
+        <v>21</v>
+      </c>
       <c r="F8" s="1">
         <v>126</v>
       </c>
@@ -2357,6 +2701,9 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
+      <c r="D9" s="1">
+        <v>16</v>
+      </c>
       <c r="F9" s="1">
         <v>82</v>
       </c>
@@ -2368,6 +2715,9 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
       <c r="F10" s="1">
         <v>83</v>
       </c>
@@ -2379,6 +2729,9 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
+      <c r="D11" s="1">
+        <v>18</v>
+      </c>
       <c r="F11" s="1">
         <v>75</v>
       </c>
@@ -2390,6 +2743,9 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
+      <c r="D12" s="1">
+        <v>71</v>
+      </c>
       <c r="F12" s="1">
         <v>76</v>
       </c>
@@ -2401,6 +2757,9 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
       <c r="F13" s="1">
         <v>78</v>
       </c>
@@ -2412,6 +2771,9 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
+      <c r="D14" s="1">
+        <v>22</v>
+      </c>
       <c r="F14" s="1">
         <v>80</v>
       </c>
@@ -2423,6 +2785,9 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
       <c r="F15" s="1">
         <v>79</v>
       </c>
@@ -2434,6 +2799,9 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
       <c r="F16" s="1">
         <v>77</v>
       </c>
@@ -2445,6 +2813,9 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
+      <c r="D17" s="1">
+        <v>113</v>
+      </c>
       <c r="F17" s="1">
         <v>18</v>
       </c>
@@ -2456,6 +2827,9 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
+      <c r="D18" s="1">
+        <v>104</v>
+      </c>
       <c r="F18" s="1">
         <v>21</v>
       </c>
@@ -2467,6 +2841,9 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
       <c r="F19" s="1">
         <v>17</v>
       </c>
@@ -2478,6 +2855,9 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
+      <c r="D20" s="1">
+        <v>119</v>
+      </c>
       <c r="F20" s="1">
         <v>22</v>
       </c>
@@ -2489,6 +2869,9 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -2500,6 +2883,9 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
+      <c r="D22" s="1">
+        <v>49</v>
+      </c>
       <c r="F22" s="1">
         <v>23</v>
       </c>
@@ -2511,6 +2897,9 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
+      <c r="D23" s="1">
+        <v>114</v>
+      </c>
       <c r="F23" s="1">
         <v>24</v>
       </c>
@@ -2522,6 +2911,9 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
+      <c r="D24" s="1">
+        <v>9</v>
+      </c>
       <c r="F24" s="1">
         <v>6</v>
       </c>
@@ -2533,6 +2925,9 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
       <c r="F25" s="1">
         <v>106</v>
       </c>
@@ -2544,6 +2939,9 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
+      <c r="D26" s="1">
+        <v>89</v>
+      </c>
       <c r="F26" s="1">
         <v>15</v>
       </c>
@@ -2555,6 +2953,9 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
+      <c r="D27" s="1">
+        <v>115</v>
+      </c>
       <c r="F27" s="1">
         <v>108</v>
       </c>
@@ -2566,6 +2967,9 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
+      <c r="D28" s="1">
+        <v>59</v>
+      </c>
       <c r="F28" s="1">
         <v>20</v>
       </c>
@@ -2577,6 +2981,9 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
+      <c r="D29" s="1">
+        <v>58</v>
+      </c>
       <c r="F29" s="1">
         <v>19</v>
       </c>
@@ -2588,6 +2995,9 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
+      <c r="D30" s="1">
+        <v>61</v>
+      </c>
       <c r="F30" s="1">
         <v>72</v>
       </c>
@@ -2599,6 +3009,9 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
+      <c r="D31" s="1">
+        <v>60</v>
+      </c>
       <c r="F31" s="1">
         <v>8</v>
       </c>
@@ -2610,6 +3023,9 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
+      <c r="D32" s="1">
+        <v>90</v>
+      </c>
       <c r="F32" s="1">
         <v>9</v>
       </c>
@@ -2621,6 +3037,9 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
+      <c r="D33" s="1">
+        <v>99</v>
+      </c>
       <c r="F33" s="1">
         <v>11</v>
       </c>
@@ -2632,6 +3051,9 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
+      <c r="D34" s="1">
+        <v>57</v>
+      </c>
       <c r="F34" s="1">
         <v>114</v>
       </c>
@@ -2643,6 +3065,9 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
+      <c r="D35" s="1">
+        <v>63</v>
+      </c>
       <c r="F35" s="1">
         <v>105</v>
       </c>
@@ -2654,6 +3079,9 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
+      <c r="D36" s="1">
+        <v>112</v>
+      </c>
       <c r="F36" s="1">
         <v>7</v>
       </c>
@@ -2665,6 +3093,9 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
+      <c r="D37" s="1">
+        <v>64</v>
+      </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
@@ -2676,6 +3107,9 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
+      <c r="D38" s="1">
+        <v>98</v>
+      </c>
       <c r="F38" s="1">
         <v>16</v>
       </c>
@@ -2687,6 +3121,9 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
+      <c r="D39" s="1">
+        <v>91</v>
+      </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
@@ -2698,6 +3135,9 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
+      <c r="D40" s="1">
+        <v>88</v>
+      </c>
       <c r="F40" s="1">
         <v>51</v>
       </c>
@@ -2709,6 +3149,9 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
+      <c r="D41" s="1">
+        <v>124</v>
+      </c>
       <c r="F41" s="1">
         <v>57</v>
       </c>
@@ -2720,6 +3163,9 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
+      <c r="D42" s="1">
+        <v>103</v>
+      </c>
       <c r="F42" s="1">
         <v>54</v>
       </c>
@@ -2731,6 +3177,9 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
+      <c r="D43" s="1">
+        <v>109</v>
+      </c>
       <c r="F43" s="1">
         <v>45</v>
       </c>
@@ -2742,6 +3191,9 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
+      <c r="D44" s="1">
+        <v>84</v>
+      </c>
       <c r="F44" s="1">
         <v>103</v>
       </c>
@@ -2753,6 +3205,9 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
+      <c r="D45" s="1">
+        <v>85</v>
+      </c>
       <c r="F45" s="1">
         <v>44</v>
       </c>
@@ -2764,6 +3219,9 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
+      <c r="D46" s="1">
+        <v>86</v>
+      </c>
       <c r="F46" s="1">
         <v>35</v>
       </c>
@@ -2775,6 +3233,9 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
+      <c r="D47" s="1">
+        <v>87</v>
+      </c>
       <c r="F47" s="1">
         <v>36</v>
       </c>
@@ -2786,6 +3247,9 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
+      <c r="D48" s="1">
+        <v>108</v>
+      </c>
       <c r="F48" s="1">
         <v>37</v>
       </c>
@@ -2797,6 +3261,9 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
+      <c r="D49" s="1">
+        <v>95</v>
+      </c>
       <c r="F49" s="1">
         <v>41</v>
       </c>
@@ -2808,6 +3275,9 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
+      <c r="D50" s="1">
+        <v>118</v>
+      </c>
       <c r="F50" s="1">
         <v>14</v>
       </c>
@@ -2819,6 +3289,9 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
+      <c r="D51" s="1">
+        <v>62</v>
+      </c>
       <c r="F51" s="1">
         <v>12</v>
       </c>
@@ -2830,6 +3303,9 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
+      <c r="D52" s="1">
+        <v>101</v>
+      </c>
       <c r="F52" s="1">
         <v>31</v>
       </c>
@@ -2841,6 +3317,9 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
+      <c r="D53" s="1">
+        <v>100</v>
+      </c>
       <c r="F53" s="1">
         <v>27</v>
       </c>
@@ -2852,6 +3331,9 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
+      <c r="D54" s="1">
+        <v>82</v>
+      </c>
       <c r="F54" s="1">
         <v>30</v>
       </c>
@@ -2863,6 +3345,9 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
+      <c r="D55" s="1">
+        <v>81</v>
+      </c>
       <c r="F55" s="1">
         <v>43</v>
       </c>
@@ -2874,6 +3359,9 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
+      <c r="D56" s="1">
+        <v>125</v>
+      </c>
       <c r="F56" s="1">
         <v>34</v>
       </c>
@@ -2885,6 +3373,9 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
+      <c r="D57" s="1">
+        <v>80</v>
+      </c>
       <c r="F57" s="1">
         <v>39</v>
       </c>
@@ -2896,6 +3387,9 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
+      <c r="D58" s="1">
+        <v>83</v>
+      </c>
       <c r="F58" s="1">
         <v>38</v>
       </c>
@@ -2907,6 +3401,9 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
+      <c r="D59" s="1">
+        <v>116</v>
+      </c>
       <c r="F59" s="1">
         <v>26</v>
       </c>
@@ -2918,6 +3415,9 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
+      <c r="D60" s="1">
+        <v>77</v>
+      </c>
       <c r="F60" s="1">
         <v>25</v>
       </c>
@@ -2929,6 +3429,9 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
+      <c r="D61" s="1">
+        <v>75</v>
+      </c>
       <c r="F61" s="1">
         <v>33</v>
       </c>
@@ -2940,6 +3443,9 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
+      <c r="D62" s="1">
+        <v>74</v>
+      </c>
       <c r="F62" s="1">
         <v>122</v>
       </c>
@@ -2951,6 +3457,9 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
+      <c r="D63" s="1">
+        <v>68</v>
+      </c>
       <c r="F63" s="1">
         <v>28</v>
       </c>
@@ -2962,6 +3471,9 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
+      <c r="D64" s="1">
+        <v>69</v>
+      </c>
       <c r="F64" s="1">
         <v>29</v>
       </c>
@@ -2973,6 +3485,9 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
+      <c r="D65" s="1">
+        <v>70</v>
+      </c>
       <c r="F65" s="1">
         <v>32</v>
       </c>
@@ -2984,6 +3499,9 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
+      <c r="D66" s="1">
+        <v>67</v>
+      </c>
       <c r="F66" s="1">
         <v>42</v>
       </c>
@@ -2995,6 +3513,9 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
+      <c r="D67" s="1">
+        <v>66</v>
+      </c>
       <c r="F67" s="1">
         <v>40</v>
       </c>
@@ -3006,6 +3527,9 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
+      <c r="D68" s="1">
+        <v>72</v>
+      </c>
       <c r="F68" s="1">
         <v>121</v>
       </c>
@@ -3017,6 +3541,9 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
+      <c r="D69" s="1">
+        <v>73</v>
+      </c>
       <c r="F69" s="1">
         <v>5</v>
       </c>
@@ -3028,6 +3555,9 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
+      <c r="D70" s="1">
+        <v>17</v>
+      </c>
       <c r="F70" s="1">
         <v>56</v>
       </c>
@@ -3039,6 +3569,9 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
+      <c r="D71" s="1">
+        <v>76</v>
+      </c>
       <c r="F71" s="1">
         <v>124</v>
       </c>
@@ -3050,6 +3583,9 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
+      <c r="D72" s="1">
+        <v>78</v>
+      </c>
       <c r="F72" s="1">
         <v>52</v>
       </c>
@@ -3061,6 +3597,9 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
+      <c r="D73" s="1">
+        <v>79</v>
+      </c>
       <c r="F73" s="1">
         <v>50</v>
       </c>
@@ -3072,6 +3611,9 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
+      <c r="D74" s="1">
+        <v>24</v>
+      </c>
       <c r="F74" s="1">
         <v>13</v>
       </c>
@@ -3083,6 +3625,9 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
+      <c r="D75" s="1">
+        <v>32</v>
+      </c>
       <c r="F75" s="1">
         <v>115</v>
       </c>
@@ -3094,6 +3639,9 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
+      <c r="D76" s="1">
+        <v>28</v>
+      </c>
       <c r="F76" s="1">
         <v>10</v>
       </c>
@@ -3105,6 +3653,9 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
+      <c r="D77" s="1">
+        <v>31</v>
+      </c>
       <c r="F77" s="1">
         <v>120</v>
       </c>
@@ -3116,6 +3667,9 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
+      <c r="D78" s="1">
+        <v>121</v>
+      </c>
       <c r="F78" s="1">
         <v>3</v>
       </c>
@@ -3127,6 +3681,9 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
+      <c r="D79" s="1">
+        <v>27</v>
+      </c>
       <c r="F79" s="1">
         <v>90</v>
       </c>
@@ -3138,6 +3695,9 @@
       <c r="A80" s="1">
         <v>76</v>
       </c>
+      <c r="D80" s="1">
+        <v>96</v>
+      </c>
       <c r="F80" s="1">
         <v>116</v>
       </c>
@@ -3149,6 +3709,9 @@
       <c r="A81" s="1">
         <v>77</v>
       </c>
+      <c r="D81" s="1">
+        <v>97</v>
+      </c>
       <c r="F81" s="1">
         <v>60</v>
       </c>
@@ -3160,6 +3723,9 @@
       <c r="A82" s="1">
         <v>78</v>
       </c>
+      <c r="D82" s="1">
+        <v>122</v>
+      </c>
       <c r="F82" s="1">
         <v>62</v>
       </c>
@@ -3171,6 +3737,9 @@
       <c r="A83" s="1">
         <v>79</v>
       </c>
+      <c r="D83" s="1">
+        <v>94</v>
+      </c>
       <c r="F83" s="1">
         <v>61</v>
       </c>
@@ -3182,6 +3751,9 @@
       <c r="A84" s="1">
         <v>80</v>
       </c>
+      <c r="D84" s="1">
+        <v>92</v>
+      </c>
       <c r="F84" s="1">
         <v>91</v>
       </c>
@@ -3193,6 +3765,9 @@
       <c r="A85" s="1">
         <v>81</v>
       </c>
+      <c r="D85" s="1">
+        <v>126</v>
+      </c>
       <c r="F85" s="1">
         <v>58</v>
       </c>
@@ -3204,6 +3779,9 @@
       <c r="A86" s="1">
         <v>82</v>
       </c>
+      <c r="D86" s="1">
+        <v>106</v>
+      </c>
       <c r="F86" s="1">
         <v>64</v>
       </c>
@@ -3215,6 +3793,9 @@
       <c r="A87" s="1">
         <v>83</v>
       </c>
+      <c r="D87" s="1">
+        <v>110</v>
+      </c>
       <c r="F87" s="1">
         <v>100</v>
       </c>
@@ -3226,6 +3807,9 @@
       <c r="A88" s="1">
         <v>84</v>
       </c>
+      <c r="D88" s="1">
+        <v>111</v>
+      </c>
       <c r="F88" s="1">
         <v>113</v>
       </c>
@@ -3237,6 +3821,9 @@
       <c r="A89" s="1">
         <v>85</v>
       </c>
+      <c r="D89" s="1">
+        <v>93</v>
+      </c>
       <c r="F89" s="1">
         <v>66</v>
       </c>
@@ -3248,6 +3835,9 @@
       <c r="A90" s="1">
         <v>86</v>
       </c>
+      <c r="D90" s="1">
+        <v>45</v>
+      </c>
       <c r="F90" s="1">
         <v>55</v>
       </c>
@@ -3259,6 +3849,9 @@
       <c r="A91" s="1">
         <v>87</v>
       </c>
+      <c r="D91" s="1">
+        <v>117</v>
+      </c>
       <c r="F91" s="1">
         <v>47</v>
       </c>
@@ -3270,6 +3863,9 @@
       <c r="A92" s="1">
         <v>88</v>
       </c>
+      <c r="D92" s="1">
+        <v>47</v>
+      </c>
       <c r="F92" s="1">
         <v>49</v>
       </c>
@@ -3281,6 +3877,9 @@
       <c r="A93" s="1">
         <v>89</v>
       </c>
+      <c r="D93" s="1">
+        <v>52</v>
+      </c>
       <c r="F93" s="1">
         <v>53</v>
       </c>
@@ -3292,6 +3891,9 @@
       <c r="A94" s="1">
         <v>90</v>
       </c>
+      <c r="D94" s="1">
+        <v>48</v>
+      </c>
       <c r="F94" s="1">
         <v>118</v>
       </c>
@@ -3303,6 +3905,9 @@
       <c r="A95" s="1">
         <v>91</v>
       </c>
+      <c r="D95" s="1">
+        <v>46</v>
+      </c>
       <c r="F95" s="1">
         <v>48</v>
       </c>
@@ -3314,6 +3919,9 @@
       <c r="A96" s="1">
         <v>92</v>
       </c>
+      <c r="D96" s="1">
+        <v>54</v>
+      </c>
       <c r="F96" s="1">
         <v>46</v>
       </c>
@@ -3325,6 +3933,9 @@
       <c r="A97" s="1">
         <v>93</v>
       </c>
+      <c r="D97" s="1">
+        <v>65</v>
+      </c>
       <c r="F97" s="1">
         <v>94</v>
       </c>
@@ -3336,6 +3947,9 @@
       <c r="A98" s="1">
         <v>94</v>
       </c>
+      <c r="D98" s="1">
+        <v>123</v>
+      </c>
       <c r="F98" s="1">
         <v>112</v>
       </c>
@@ -3347,6 +3961,9 @@
       <c r="A99" s="1">
         <v>95</v>
       </c>
+      <c r="D99" s="1">
+        <v>51</v>
+      </c>
       <c r="F99" s="1">
         <v>111</v>
       </c>
@@ -3358,6 +3975,9 @@
       <c r="A100" s="1">
         <v>96</v>
       </c>
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
       <c r="F100" s="1">
         <v>107</v>
       </c>
@@ -3369,6 +3989,9 @@
       <c r="A101" s="1">
         <v>97</v>
       </c>
+      <c r="D101" s="1">
+        <v>55</v>
+      </c>
       <c r="F101" s="1">
         <v>127</v>
       </c>
@@ -3380,6 +4003,9 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
+      <c r="D102" s="1">
+        <v>120</v>
+      </c>
       <c r="F102" s="1">
         <v>93</v>
       </c>
@@ -3391,6 +4017,9 @@
       <c r="A103" s="1">
         <v>99</v>
       </c>
+      <c r="D103" s="1">
+        <v>50</v>
+      </c>
       <c r="F103" s="1">
         <v>95</v>
       </c>
@@ -3402,6 +4031,9 @@
       <c r="A104" s="1">
         <v>100</v>
       </c>
+      <c r="D104" s="1">
+        <v>56</v>
+      </c>
       <c r="F104" s="1">
         <v>123</v>
       </c>
@@ -3413,6 +4045,9 @@
       <c r="A105" s="1">
         <v>101</v>
       </c>
+      <c r="D105" s="1">
+        <v>53</v>
+      </c>
       <c r="F105" s="1">
         <v>97</v>
       </c>
@@ -3424,6 +4059,9 @@
       <c r="A106" s="1">
         <v>102</v>
       </c>
+      <c r="D106" s="1">
+        <v>44</v>
+      </c>
       <c r="F106" s="1">
         <v>98</v>
       </c>
@@ -3435,6 +4073,9 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
+      <c r="D107" s="1">
+        <v>102</v>
+      </c>
       <c r="F107" s="1">
         <v>101</v>
       </c>
@@ -3446,6 +4087,9 @@
       <c r="A108" s="1">
         <v>104</v>
       </c>
+      <c r="D108" s="1">
+        <v>43</v>
+      </c>
       <c r="F108" s="1">
         <v>102</v>
       </c>
@@ -3457,6 +4101,9 @@
       <c r="A109" s="1">
         <v>105</v>
       </c>
+      <c r="D109" s="1">
+        <v>39</v>
+      </c>
       <c r="F109" s="1">
         <v>63</v>
       </c>
@@ -3468,6 +4115,9 @@
       <c r="A110" s="1">
         <v>106</v>
       </c>
+      <c r="D110" s="1">
+        <v>42</v>
+      </c>
       <c r="F110" s="1">
         <v>119</v>
       </c>
@@ -3479,6 +4129,9 @@
       <c r="A111" s="1">
         <v>107</v>
       </c>
+      <c r="D111" s="1">
+        <v>33</v>
+      </c>
       <c r="F111" s="1">
         <v>96</v>
       </c>
@@ -3490,6 +4143,9 @@
       <c r="A112" s="1">
         <v>108</v>
       </c>
+      <c r="D112" s="1">
+        <v>41</v>
+      </c>
       <c r="F112" s="1">
         <v>109</v>
       </c>
@@ -3501,6 +4157,9 @@
       <c r="A113" s="1">
         <v>109</v>
       </c>
+      <c r="D113" s="1">
+        <v>38</v>
+      </c>
       <c r="F113" s="1">
         <v>87</v>
       </c>
@@ -3512,6 +4171,9 @@
       <c r="A114" s="1">
         <v>110</v>
       </c>
+      <c r="D114" s="1">
+        <v>37</v>
+      </c>
       <c r="F114" s="1">
         <v>86</v>
       </c>
@@ -3523,6 +4185,9 @@
       <c r="A115" s="1">
         <v>111</v>
       </c>
+      <c r="D115" s="1">
+        <v>25</v>
+      </c>
       <c r="F115" s="1">
         <v>85</v>
       </c>
@@ -3534,6 +4199,9 @@
       <c r="A116" s="1">
         <v>112</v>
       </c>
+      <c r="D116" s="1">
+        <v>26</v>
+      </c>
       <c r="F116" s="1">
         <v>88</v>
       </c>
@@ -3545,6 +4213,9 @@
       <c r="A117" s="1">
         <v>113</v>
       </c>
+      <c r="D117" s="1">
+        <v>30</v>
+      </c>
       <c r="F117" s="1">
         <v>110</v>
       </c>
@@ -3556,6 +4227,9 @@
       <c r="A118" s="1">
         <v>114</v>
       </c>
+      <c r="D118" s="1">
+        <v>29</v>
+      </c>
       <c r="F118" s="1">
         <v>71</v>
       </c>
@@ -3567,6 +4241,9 @@
       <c r="A119" s="1">
         <v>115</v>
       </c>
+      <c r="D119" s="1">
+        <v>40</v>
+      </c>
       <c r="F119" s="1">
         <v>70</v>
       </c>
@@ -3578,6 +4255,9 @@
       <c r="A120" s="1">
         <v>116</v>
       </c>
+      <c r="D120" s="1">
+        <v>35</v>
+      </c>
       <c r="F120" s="1">
         <v>69</v>
       </c>
@@ -3589,6 +4269,9 @@
       <c r="A121" s="1">
         <v>117</v>
       </c>
+      <c r="D121" s="1">
+        <v>36</v>
+      </c>
       <c r="F121" s="1">
         <v>68</v>
       </c>
@@ -3600,6 +4283,9 @@
       <c r="A122" s="1">
         <v>118</v>
       </c>
+      <c r="D122" s="1">
+        <v>34</v>
+      </c>
       <c r="F122" s="1">
         <v>73</v>
       </c>
@@ -3611,6 +4297,9 @@
       <c r="A123" s="1">
         <v>119</v>
       </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
       <c r="F123" s="1">
         <v>74</v>
       </c>
@@ -3622,6 +4311,9 @@
       <c r="A124" s="1">
         <v>120</v>
       </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
       <c r="F124" s="1">
         <v>67</v>
       </c>
@@ -3633,6 +4325,9 @@
       <c r="A125" s="1">
         <v>121</v>
       </c>
+      <c r="D125" s="1">
+        <v>15</v>
+      </c>
       <c r="F125" s="1">
         <v>59</v>
       </c>
@@ -3644,6 +4339,9 @@
       <c r="A126" s="1">
         <v>122</v>
       </c>
+      <c r="D126" s="1">
+        <v>13</v>
+      </c>
       <c r="F126" s="1">
         <v>125</v>
       </c>
@@ -3655,6 +4353,9 @@
       <c r="A127" s="1">
         <v>123</v>
       </c>
+      <c r="D127" s="1">
+        <v>11</v>
+      </c>
       <c r="F127" s="1">
         <v>89</v>
       </c>
@@ -3666,6 +4367,9 @@
       <c r="A128" s="1">
         <v>124</v>
       </c>
+      <c r="D128" s="1">
+        <v>19</v>
+      </c>
       <c r="F128" s="1">
         <v>92</v>
       </c>
@@ -3677,6 +4381,9 @@
       <c r="A129" s="1">
         <v>125</v>
       </c>
+      <c r="D129" s="1">
+        <v>107</v>
+      </c>
       <c r="F129" s="1">
         <v>99</v>
       </c>
@@ -3688,6 +4395,9 @@
       <c r="A130" s="1">
         <v>126</v>
       </c>
+      <c r="D130" s="1">
+        <v>14</v>
+      </c>
       <c r="F130" s="1">
         <v>65</v>
       </c>
@@ -3698,6 +4408,9 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>127</v>
+      </c>
+      <c r="D131" s="1">
+        <v>105</v>
       </c>
       <c r="F131" s="1">
         <v>104</v>
@@ -3717,6 +4430,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009A90AB19BA281B46B8380751D999A78D" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="30d09d38612c93741b9eedbb53514047">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e4a570-071a-4a2d-92fe-032540accd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea953fb45c2891f5fd0cec805fc9463" ns2:_="">
     <xsd:import namespace="49e4a570-071a-4a2d-92fe-032540accd22"/>
@@ -3860,22 +4588,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AC383A-0CD0-4D21-B13C-12C946D4DD45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3891,21 +4621,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Zestawienie wyników TSP.xlsx
+++ b/Zestawienie wyników TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justyna\source\repos\Projekt_IO\TSP-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C45D6-8CE6-46AA-A0B8-2E9315B95B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023CCBC7-6EEF-424F-A42B-3E95BEACC65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7D776930-A9A0-493F-8678-92D617752308}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,9 @@
         <v>5</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>10811</v>
+      </c>
       <c r="D3" s="1">
         <v>10788</v>
       </c>
@@ -579,7 +581,9 @@
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
       <c r="D5" s="1">
         <v>15</v>
       </c>
@@ -596,7 +600,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
       <c r="D6" s="1">
         <v>40</v>
       </c>
@@ -613,7 +619,9 @@
         <v>3</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>33</v>
+      </c>
       <c r="D7" s="1">
         <v>33</v>
       </c>
@@ -630,7 +638,9 @@
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>28</v>
+      </c>
       <c r="D8" s="1">
         <v>28</v>
       </c>
@@ -647,7 +657,9 @@
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
@@ -664,7 +676,9 @@
         <v>6</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>25</v>
+      </c>
       <c r="D10" s="1">
         <v>25</v>
       </c>
@@ -681,7 +695,9 @@
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -698,7 +714,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>34</v>
+      </c>
       <c r="D12" s="1">
         <v>34</v>
       </c>
@@ -715,7 +733,9 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>44</v>
+      </c>
       <c r="D13" s="1">
         <v>44</v>
       </c>
@@ -732,7 +752,9 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -749,7 +771,9 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>23</v>
+      </c>
       <c r="D15" s="1">
         <v>23</v>
       </c>
@@ -766,7 +790,9 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>41</v>
+      </c>
       <c r="D16" s="1">
         <v>41</v>
       </c>
@@ -783,7 +809,9 @@
         <v>13</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
@@ -800,7 +828,9 @@
         <v>14</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>47</v>
+      </c>
       <c r="D18" s="1">
         <v>47</v>
       </c>
@@ -817,7 +847,9 @@
         <v>15</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>38</v>
+      </c>
       <c r="D19" s="1">
         <v>38</v>
       </c>
@@ -834,7 +866,9 @@
         <v>16</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>31</v>
+      </c>
       <c r="D20" s="1">
         <v>31</v>
       </c>
@@ -851,7 +885,9 @@
         <v>17</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
       <c r="D21" s="1">
         <v>20</v>
       </c>
@@ -868,7 +904,9 @@
         <v>18</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>46</v>
+      </c>
       <c r="D22" s="1">
         <v>12</v>
       </c>
@@ -885,7 +923,9 @@
         <v>19</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>19</v>
+      </c>
       <c r="D23" s="1">
         <v>24</v>
       </c>
@@ -902,7 +942,9 @@
         <v>20</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>32</v>
+      </c>
       <c r="D24" s="1">
         <v>13</v>
       </c>
@@ -919,7 +961,9 @@
         <v>21</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <v>45</v>
+      </c>
       <c r="D25" s="1">
         <v>22</v>
       </c>
@@ -936,7 +980,9 @@
         <v>22</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>35</v>
+      </c>
       <c r="D26" s="1">
         <v>10</v>
       </c>
@@ -953,7 +999,9 @@
         <v>23</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>29</v>
+      </c>
       <c r="D27" s="1">
         <v>46</v>
       </c>
@@ -970,7 +1018,9 @@
         <v>24</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>42</v>
+      </c>
       <c r="D28" s="1">
         <v>19</v>
       </c>
@@ -987,7 +1037,9 @@
         <v>25</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>16</v>
+      </c>
       <c r="D29" s="1">
         <v>11</v>
       </c>
@@ -1004,7 +1056,9 @@
         <v>26</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
       <c r="D30" s="1">
         <v>14</v>
       </c>
@@ -1021,7 +1075,9 @@
         <v>27</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>18</v>
+      </c>
       <c r="D31" s="1">
         <v>32</v>
       </c>
@@ -1038,7 +1094,9 @@
         <v>28</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>36</v>
+      </c>
       <c r="D32" s="1">
         <v>45</v>
       </c>
@@ -1055,7 +1113,9 @@
         <v>29</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
       <c r="D33" s="1">
         <v>35</v>
       </c>
@@ -1072,7 +1132,9 @@
         <v>30</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>27</v>
+      </c>
       <c r="D34" s="1">
         <v>29</v>
       </c>
@@ -1089,7 +1151,9 @@
         <v>31</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
       <c r="D35" s="1">
         <v>42</v>
       </c>
@@ -1106,7 +1170,9 @@
         <v>32</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1">
+        <v>17</v>
+      </c>
       <c r="D36" s="1">
         <v>16</v>
       </c>
@@ -1123,7 +1189,9 @@
         <v>33</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <v>43</v>
+      </c>
       <c r="D37" s="1">
         <v>26</v>
       </c>
@@ -1140,7 +1208,9 @@
         <v>34</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <v>30</v>
+      </c>
       <c r="D38" s="1">
         <v>18</v>
       </c>
@@ -1157,7 +1227,9 @@
         <v>35</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1">
+        <v>37</v>
+      </c>
       <c r="D39" s="1">
         <v>36</v>
       </c>
@@ -1174,7 +1246,9 @@
         <v>36</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
       <c r="D40" s="1">
         <v>5</v>
       </c>
@@ -1191,7 +1265,9 @@
         <v>37</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1">
+        <v>7</v>
+      </c>
       <c r="D41" s="1">
         <v>27</v>
       </c>
@@ -1208,7 +1284,9 @@
         <v>38</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
       <c r="D42" s="1">
         <v>6</v>
       </c>
@@ -1225,7 +1303,9 @@
         <v>39</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1">
+        <v>39</v>
+      </c>
       <c r="D43" s="1">
         <v>17</v>
       </c>
@@ -1242,7 +1322,9 @@
         <v>40</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1">
+        <v>14</v>
+      </c>
       <c r="D44" s="1">
         <v>43</v>
       </c>
@@ -1259,7 +1341,9 @@
         <v>41</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1">
+        <v>11</v>
+      </c>
       <c r="D45" s="1">
         <v>30</v>
       </c>
@@ -1276,7 +1360,9 @@
         <v>42</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1">
+        <v>10</v>
+      </c>
       <c r="D46" s="1">
         <v>37</v>
       </c>
@@ -1293,7 +1379,9 @@
         <v>43</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <v>22</v>
+      </c>
       <c r="D47" s="1">
         <v>7</v>
       </c>
@@ -1310,7 +1398,9 @@
         <v>44</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1">
+        <v>12</v>
+      </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
@@ -1327,7 +1417,9 @@
         <v>45</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1">
+        <v>24</v>
+      </c>
       <c r="D49" s="1">
         <v>8</v>
       </c>
@@ -1344,7 +1436,9 @@
         <v>46</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1">
+        <v>13</v>
+      </c>
       <c r="D50" s="1">
         <v>39</v>
       </c>
@@ -1361,7 +1455,9 @@
         <v>47</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
       <c r="D51" s="1">
         <v>2</v>
       </c>
@@ -1378,7 +1474,9 @@
         <v>48</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1">
+        <v>21</v>
+      </c>
       <c r="D52" s="1">
         <v>21</v>
       </c>
@@ -1422,7 +1520,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,6 +1569,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1">
+        <v>112768.6137258801</v>
+      </c>
       <c r="D3" s="1">
         <v>110041.248108399</v>
       </c>
@@ -1496,6 +1597,9 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
       <c r="D5" s="1">
         <v>62</v>
       </c>
@@ -1510,6 +1614,9 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
       <c r="D6" s="1">
         <v>56</v>
       </c>
@@ -1524,6 +1631,9 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
       <c r="D7" s="1">
         <v>61</v>
       </c>
@@ -1538,6 +1648,9 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
       <c r="D8" s="1">
         <v>60</v>
       </c>
@@ -1552,6 +1665,9 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
       <c r="D9" s="1">
         <v>57</v>
       </c>
@@ -1566,6 +1682,9 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
       <c r="D10" s="1">
         <v>58</v>
       </c>
@@ -1580,6 +1699,9 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
       <c r="D11" s="1">
         <v>59</v>
       </c>
@@ -1594,6 +1716,9 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
       <c r="D12" s="1">
         <v>40</v>
       </c>
@@ -1608,6 +1733,9 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
+      <c r="C13" s="1">
+        <v>29</v>
+      </c>
       <c r="D13" s="1">
         <v>39</v>
       </c>
@@ -1622,6 +1750,9 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
+      <c r="C14" s="1">
+        <v>28</v>
+      </c>
       <c r="D14" s="1">
         <v>38</v>
       </c>
@@ -1636,6 +1767,9 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
+      <c r="C15" s="1">
+        <v>25</v>
+      </c>
       <c r="D15" s="1">
         <v>37</v>
       </c>
@@ -1650,6 +1784,9 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
+      <c r="C16" s="1">
+        <v>26</v>
+      </c>
       <c r="D16" s="1">
         <v>33</v>
       </c>
@@ -1664,6 +1801,9 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
+      <c r="C17" s="1">
+        <v>27</v>
+      </c>
       <c r="D17" s="1">
         <v>34</v>
       </c>
@@ -1678,6 +1818,9 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
+      <c r="C18" s="1">
+        <v>32</v>
+      </c>
       <c r="D18" s="1">
         <v>35</v>
       </c>
@@ -1692,6 +1835,9 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
+      <c r="C19" s="1">
+        <v>31</v>
+      </c>
       <c r="D19" s="1">
         <v>36</v>
       </c>
@@ -1706,6 +1852,9 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
       <c r="D20" s="1">
         <v>17</v>
       </c>
@@ -1720,6 +1869,9 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
       <c r="D21" s="1">
         <v>16</v>
       </c>
@@ -1734,6 +1886,9 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
+      <c r="C22" s="1">
+        <v>12</v>
+      </c>
       <c r="D22" s="1">
         <v>15</v>
       </c>
@@ -1748,6 +1903,9 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
+      <c r="C23" s="1">
+        <v>13</v>
+      </c>
       <c r="D23" s="1">
         <v>14</v>
       </c>
@@ -1762,6 +1920,9 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
+      <c r="C24" s="1">
+        <v>73</v>
+      </c>
       <c r="D24" s="1">
         <v>73</v>
       </c>
@@ -1776,6 +1937,9 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
+      <c r="C25" s="1">
+        <v>14</v>
+      </c>
       <c r="D25" s="1">
         <v>13</v>
       </c>
@@ -1790,6 +1954,9 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
+      <c r="C26" s="1">
+        <v>15</v>
+      </c>
       <c r="D26" s="1">
         <v>12</v>
       </c>
@@ -1804,6 +1971,9 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
+      <c r="C27" s="1">
+        <v>16</v>
+      </c>
       <c r="D27" s="1">
         <v>11</v>
       </c>
@@ -1818,6 +1988,9 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
+      <c r="C28" s="1">
+        <v>17</v>
+      </c>
       <c r="D28" s="1">
         <v>10</v>
       </c>
@@ -1832,6 +2005,9 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
+      <c r="C29" s="1">
+        <v>36</v>
+      </c>
       <c r="D29" s="1">
         <v>9</v>
       </c>
@@ -1846,6 +2022,9 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
+      <c r="C30" s="1">
+        <v>35</v>
+      </c>
       <c r="D30" s="1">
         <v>8</v>
       </c>
@@ -1860,6 +2039,9 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
+      <c r="C31" s="1">
+        <v>34</v>
+      </c>
       <c r="D31" s="1">
         <v>7</v>
       </c>
@@ -1874,6 +2056,9 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
+      <c r="C32" s="1">
+        <v>33</v>
+      </c>
       <c r="D32" s="1">
         <v>6</v>
       </c>
@@ -1888,6 +2073,9 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
+      <c r="C33" s="1">
+        <v>37</v>
+      </c>
       <c r="D33" s="1">
         <v>5</v>
       </c>
@@ -1902,6 +2090,9 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
+      <c r="C34" s="1">
+        <v>38</v>
+      </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
@@ -1916,6 +2107,9 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
+      <c r="C35" s="1">
+        <v>39</v>
+      </c>
       <c r="D35" s="1">
         <v>19</v>
       </c>
@@ -1930,6 +2124,9 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
+      <c r="C36" s="1">
+        <v>40</v>
+      </c>
       <c r="D36" s="1">
         <v>18</v>
       </c>
@@ -1944,6 +2141,9 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
+      <c r="C37" s="1">
+        <v>59</v>
+      </c>
       <c r="D37" s="1">
         <v>30</v>
       </c>
@@ -1958,6 +2158,9 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
+      <c r="C38" s="1">
+        <v>58</v>
+      </c>
       <c r="D38" s="1">
         <v>29</v>
       </c>
@@ -1972,6 +2175,9 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
+      <c r="C39" s="1">
+        <v>60</v>
+      </c>
       <c r="D39" s="1">
         <v>3</v>
       </c>
@@ -1986,6 +2192,9 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
+      <c r="C40" s="1">
+        <v>61</v>
+      </c>
       <c r="D40" s="1">
         <v>2</v>
       </c>
@@ -2000,6 +2209,9 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
+      <c r="C41" s="1">
+        <v>63</v>
+      </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
@@ -2014,6 +2226,9 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
+      <c r="C42" s="1">
+        <v>72</v>
+      </c>
       <c r="D42" s="1">
         <v>74</v>
       </c>
@@ -2028,6 +2243,9 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
+      <c r="C43" s="1">
+        <v>71</v>
+      </c>
       <c r="D43" s="1">
         <v>75</v>
       </c>
@@ -2042,6 +2260,9 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
+      <c r="C44" s="1">
+        <v>70</v>
+      </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
@@ -2056,6 +2277,9 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
+      <c r="C45" s="1">
+        <v>62</v>
+      </c>
       <c r="D45" s="1">
         <v>22</v>
       </c>
@@ -2070,6 +2294,9 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
+      <c r="C46" s="1">
+        <v>56</v>
+      </c>
       <c r="D46" s="1">
         <v>21</v>
       </c>
@@ -2084,6 +2311,9 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
+      <c r="C47" s="1">
+        <v>57</v>
+      </c>
       <c r="D47" s="1">
         <v>20</v>
       </c>
@@ -2098,6 +2328,9 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
+      <c r="C48" s="1">
+        <v>55</v>
+      </c>
       <c r="D48" s="1">
         <v>24</v>
       </c>
@@ -2112,6 +2345,9 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
+      <c r="C49" s="1">
+        <v>54</v>
+      </c>
       <c r="D49" s="1">
         <v>23</v>
       </c>
@@ -2126,6 +2362,9 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
+      <c r="C50" s="1">
+        <v>53</v>
+      </c>
       <c r="D50" s="1">
         <v>45</v>
       </c>
@@ -2140,6 +2379,9 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
+      <c r="C51" s="1">
+        <v>41</v>
+      </c>
       <c r="D51" s="1">
         <v>44</v>
       </c>
@@ -2154,6 +2396,9 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
+      <c r="C52" s="1">
+        <v>42</v>
+      </c>
       <c r="D52" s="1">
         <v>43</v>
       </c>
@@ -2168,6 +2413,9 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
       <c r="D53" s="1">
         <v>47</v>
       </c>
@@ -2182,6 +2430,9 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
+      <c r="C54" s="1">
+        <v>51</v>
+      </c>
       <c r="D54" s="1">
         <v>46</v>
       </c>
@@ -2196,6 +2447,9 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
+      <c r="C55" s="1">
+        <v>48</v>
+      </c>
       <c r="D55" s="1">
         <v>68</v>
       </c>
@@ -2210,6 +2464,9 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
+      <c r="C56" s="1">
+        <v>49</v>
+      </c>
       <c r="D56" s="1">
         <v>67</v>
       </c>
@@ -2224,6 +2481,9 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
+      <c r="C57" s="1">
+        <v>50</v>
+      </c>
       <c r="D57" s="1">
         <v>69</v>
       </c>
@@ -2238,6 +2498,9 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
+      <c r="C58" s="1">
+        <v>64</v>
+      </c>
       <c r="D58" s="1">
         <v>66</v>
       </c>
@@ -2252,6 +2515,9 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
+      <c r="C59" s="1">
+        <v>65</v>
+      </c>
       <c r="D59" s="1">
         <v>49</v>
       </c>
@@ -2266,6 +2532,9 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
+      <c r="C60" s="1">
+        <v>66</v>
+      </c>
       <c r="D60" s="1">
         <v>48</v>
       </c>
@@ -2280,6 +2549,9 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
+      <c r="C61" s="1">
+        <v>69</v>
+      </c>
       <c r="D61" s="1">
         <v>26</v>
       </c>
@@ -2294,6 +2566,9 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
+      <c r="C62" s="1">
+        <v>67</v>
+      </c>
       <c r="D62" s="1">
         <v>25</v>
       </c>
@@ -2308,6 +2583,9 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
+      <c r="C63" s="1">
+        <v>68</v>
+      </c>
       <c r="D63" s="1">
         <v>28</v>
       </c>
@@ -2322,6 +2600,9 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
+      <c r="C64" s="1">
+        <v>46</v>
+      </c>
       <c r="D64" s="1">
         <v>31</v>
       </c>
@@ -2336,6 +2617,9 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
+      <c r="C65" s="1">
+        <v>47</v>
+      </c>
       <c r="D65" s="1">
         <v>32</v>
       </c>
@@ -2350,6 +2634,9 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
+      <c r="C66" s="1">
+        <v>43</v>
+      </c>
       <c r="D66" s="1">
         <v>27</v>
       </c>
@@ -2364,6 +2651,9 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
+      <c r="C67" s="1">
+        <v>44</v>
+      </c>
       <c r="D67" s="1">
         <v>42</v>
       </c>
@@ -2378,6 +2668,9 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
+      <c r="C68" s="1">
+        <v>45</v>
+      </c>
       <c r="D68" s="1">
         <v>41</v>
       </c>
@@ -2392,6 +2685,9 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
+      <c r="C69" s="1">
+        <v>23</v>
+      </c>
       <c r="D69" s="1">
         <v>53</v>
       </c>
@@ -2406,6 +2702,9 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
+      <c r="C70" s="1">
+        <v>24</v>
+      </c>
       <c r="D70" s="1">
         <v>52</v>
       </c>
@@ -2420,6 +2719,9 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
+      <c r="C71" s="1">
+        <v>20</v>
+      </c>
       <c r="D71" s="1">
         <v>51</v>
       </c>
@@ -2434,6 +2736,9 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
+      <c r="C72" s="1">
+        <v>21</v>
+      </c>
       <c r="D72" s="1">
         <v>54</v>
       </c>
@@ -2448,6 +2753,9 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
+      <c r="C73" s="1">
+        <v>22</v>
+      </c>
       <c r="D73" s="1">
         <v>55</v>
       </c>
@@ -2462,6 +2770,9 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
       <c r="D74" s="1">
         <v>50</v>
       </c>
@@ -2476,6 +2787,9 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
+      <c r="C75" s="1">
+        <v>74</v>
+      </c>
       <c r="D75" s="1">
         <v>65</v>
       </c>
@@ -2490,6 +2804,9 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
+      <c r="C76" s="1">
+        <v>75</v>
+      </c>
       <c r="D76" s="1">
         <v>64</v>
       </c>
@@ -2504,6 +2821,9 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
       <c r="D77" s="1">
         <v>70</v>
       </c>
@@ -2518,6 +2838,9 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
       <c r="D78" s="1">
         <v>71</v>
       </c>
@@ -2532,6 +2855,9 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
       <c r="D79" s="1">
         <v>72</v>
       </c>
@@ -2545,6 +2871,9 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>76</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5</v>
       </c>
       <c r="D80" s="1">
         <v>63</v>
@@ -2570,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E445DC-DEC7-486A-B56B-00B55FB99068}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2620,6 +2949,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1">
+        <v>143162.25843487619</v>
+      </c>
       <c r="D3" s="1">
         <v>120791.74338491949</v>
       </c>
@@ -2645,6 +2977,9 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
+      <c r="C5" s="1">
+        <v>94</v>
+      </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
@@ -2659,6 +2994,9 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
+      <c r="C6" s="1">
+        <v>122</v>
+      </c>
       <c r="D6" s="1">
         <v>23</v>
       </c>
@@ -2673,6 +3011,9 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
+      <c r="C7" s="1">
+        <v>96</v>
+      </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
@@ -2687,6 +3028,9 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
+      <c r="C8" s="1">
+        <v>97</v>
+      </c>
       <c r="D8" s="1">
         <v>21</v>
       </c>
@@ -2701,6 +3045,9 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
+      <c r="C9" s="1">
+        <v>126</v>
+      </c>
       <c r="D9" s="1">
         <v>16</v>
       </c>
@@ -2715,6 +3062,9 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
+      <c r="C10" s="1">
+        <v>106</v>
+      </c>
       <c r="D10" s="1">
         <v>20</v>
       </c>
@@ -2729,6 +3079,9 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
+      <c r="C11" s="1">
+        <v>110</v>
+      </c>
       <c r="D11" s="1">
         <v>18</v>
       </c>
@@ -2743,6 +3096,9 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
+      <c r="C12" s="1">
+        <v>111</v>
+      </c>
       <c r="D12" s="1">
         <v>71</v>
       </c>
@@ -2757,6 +3113,9 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
+      <c r="C13" s="1">
+        <v>93</v>
+      </c>
       <c r="D13" s="1">
         <v>7</v>
       </c>
@@ -2771,6 +3130,9 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
+      <c r="C14" s="1">
+        <v>45</v>
+      </c>
       <c r="D14" s="1">
         <v>22</v>
       </c>
@@ -2785,6 +3147,9 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
+      <c r="C15" s="1">
+        <v>48</v>
+      </c>
       <c r="D15" s="1">
         <v>8</v>
       </c>
@@ -2799,6 +3164,9 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
+      <c r="C16" s="1">
+        <v>117</v>
+      </c>
       <c r="D16" s="1">
         <v>10</v>
       </c>
@@ -2813,6 +3181,9 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
+      <c r="C17" s="1">
+        <v>47</v>
+      </c>
       <c r="D17" s="1">
         <v>113</v>
       </c>
@@ -2827,6 +3198,9 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
+      <c r="C18" s="1">
+        <v>44</v>
+      </c>
       <c r="D18" s="1">
         <v>104</v>
       </c>
@@ -2841,6 +3215,9 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
+      <c r="C19" s="1">
+        <v>102</v>
+      </c>
       <c r="D19" s="1">
         <v>6</v>
       </c>
@@ -2855,6 +3232,9 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
+      <c r="C20" s="1">
+        <v>43</v>
+      </c>
       <c r="D20" s="1">
         <v>119</v>
       </c>
@@ -2869,6 +3249,9 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
+      <c r="C21" s="1">
+        <v>53</v>
+      </c>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -2883,6 +3266,9 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
+      <c r="C22" s="1">
+        <v>56</v>
+      </c>
       <c r="D22" s="1">
         <v>49</v>
       </c>
@@ -2897,6 +3283,9 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
+      <c r="C23" s="1">
+        <v>120</v>
+      </c>
       <c r="D23" s="1">
         <v>114</v>
       </c>
@@ -2911,6 +3300,9 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
       <c r="D24" s="1">
         <v>9</v>
       </c>
@@ -2925,6 +3317,9 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
+      <c r="C25" s="1">
+        <v>55</v>
+      </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
@@ -2939,6 +3334,9 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
+      <c r="C26" s="1">
+        <v>52</v>
+      </c>
       <c r="D26" s="1">
         <v>89</v>
       </c>
@@ -2953,6 +3351,9 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
+      <c r="C27" s="1">
+        <v>46</v>
+      </c>
       <c r="D27" s="1">
         <v>115</v>
       </c>
@@ -2967,6 +3368,9 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
+      <c r="C28" s="1">
+        <v>51</v>
+      </c>
       <c r="D28" s="1">
         <v>59</v>
       </c>
@@ -2981,6 +3385,9 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
+      <c r="C29" s="1">
+        <v>123</v>
+      </c>
       <c r="D29" s="1">
         <v>58</v>
       </c>
@@ -2995,6 +3402,9 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
+      <c r="C30" s="1">
+        <v>54</v>
+      </c>
       <c r="D30" s="1">
         <v>61</v>
       </c>
@@ -3009,6 +3419,9 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
+      <c r="C31" s="1">
+        <v>65</v>
+      </c>
       <c r="D31" s="1">
         <v>60</v>
       </c>
@@ -3023,6 +3436,9 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
+      <c r="C32" s="1">
+        <v>64</v>
+      </c>
       <c r="D32" s="1">
         <v>90</v>
       </c>
@@ -3037,6 +3453,9 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
+      <c r="C33" s="1">
+        <v>112</v>
+      </c>
       <c r="D33" s="1">
         <v>99</v>
       </c>
@@ -3051,6 +3470,9 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
+      <c r="C34" s="1">
+        <v>98</v>
+      </c>
       <c r="D34" s="1">
         <v>57</v>
       </c>
@@ -3065,6 +3487,9 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
+      <c r="C35" s="1">
+        <v>91</v>
+      </c>
       <c r="D35" s="1">
         <v>63</v>
       </c>
@@ -3079,6 +3504,9 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
+      <c r="C36" s="1">
+        <v>88</v>
+      </c>
       <c r="D36" s="1">
         <v>112</v>
       </c>
@@ -3093,6 +3521,9 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
+      <c r="C37" s="1">
+        <v>124</v>
+      </c>
       <c r="D37" s="1">
         <v>64</v>
       </c>
@@ -3107,6 +3538,9 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
+      <c r="C38" s="1">
+        <v>103</v>
+      </c>
       <c r="D38" s="1">
         <v>98</v>
       </c>
@@ -3121,6 +3555,9 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
+      <c r="C39" s="1">
+        <v>58</v>
+      </c>
       <c r="D39" s="1">
         <v>91</v>
       </c>
@@ -3135,6 +3572,9 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
+      <c r="C40" s="1">
+        <v>61</v>
+      </c>
       <c r="D40" s="1">
         <v>88</v>
       </c>
@@ -3149,6 +3589,9 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
+      <c r="C41" s="1">
+        <v>59</v>
+      </c>
       <c r="D41" s="1">
         <v>124</v>
       </c>
@@ -3163,6 +3606,9 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
+      <c r="C42" s="1">
+        <v>115</v>
+      </c>
       <c r="D42" s="1">
         <v>103</v>
       </c>
@@ -3177,6 +3623,9 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
+      <c r="C43" s="1">
+        <v>89</v>
+      </c>
       <c r="D43" s="1">
         <v>109</v>
       </c>
@@ -3191,6 +3640,9 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
+      <c r="C44" s="1">
+        <v>60</v>
+      </c>
       <c r="D44" s="1">
         <v>84</v>
       </c>
@@ -3205,6 +3657,9 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
+      <c r="C45" s="1">
+        <v>90</v>
+      </c>
       <c r="D45" s="1">
         <v>85</v>
       </c>
@@ -3219,6 +3674,9 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
+      <c r="C46" s="1">
+        <v>57</v>
+      </c>
       <c r="D46" s="1">
         <v>86</v>
       </c>
@@ -3233,6 +3691,9 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
+      <c r="C47" s="1">
+        <v>63</v>
+      </c>
       <c r="D47" s="1">
         <v>87</v>
       </c>
@@ -3247,6 +3708,9 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
+      <c r="C48" s="1">
+        <v>9</v>
+      </c>
       <c r="D48" s="1">
         <v>108</v>
       </c>
@@ -3261,6 +3725,9 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
+      <c r="C49" s="1">
+        <v>99</v>
+      </c>
       <c r="D49" s="1">
         <v>95</v>
       </c>
@@ -3275,6 +3742,9 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
       <c r="D50" s="1">
         <v>118</v>
       </c>
@@ -3289,6 +3759,9 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
       <c r="D51" s="1">
         <v>62</v>
       </c>
@@ -3303,6 +3776,9 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
+      <c r="C52" s="1">
+        <v>8</v>
+      </c>
       <c r="D52" s="1">
         <v>101</v>
       </c>
@@ -3317,6 +3793,9 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
       <c r="D53" s="1">
         <v>100</v>
       </c>
@@ -3331,6 +3810,9 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
+      <c r="C54" s="1">
+        <v>20</v>
+      </c>
       <c r="D54" s="1">
         <v>82</v>
       </c>
@@ -3345,6 +3827,9 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
+      <c r="C55" s="1">
+        <v>16</v>
+      </c>
       <c r="D55" s="1">
         <v>81</v>
       </c>
@@ -3359,6 +3844,9 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
+      <c r="C56" s="1">
+        <v>78</v>
+      </c>
       <c r="D56" s="1">
         <v>125</v>
       </c>
@@ -3373,6 +3861,9 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
+      <c r="C57" s="1">
+        <v>79</v>
+      </c>
       <c r="D57" s="1">
         <v>80</v>
       </c>
@@ -3387,6 +3878,9 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
+      <c r="C58" s="1">
+        <v>30</v>
+      </c>
       <c r="D58" s="1">
         <v>83</v>
       </c>
@@ -3401,6 +3895,9 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
+      <c r="C59" s="1">
+        <v>26</v>
+      </c>
       <c r="D59" s="1">
         <v>116</v>
       </c>
@@ -3415,6 +3912,9 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
+      <c r="C60" s="1">
+        <v>25</v>
+      </c>
       <c r="D60" s="1">
         <v>77</v>
       </c>
@@ -3429,6 +3929,9 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
+      <c r="C61" s="1">
+        <v>29</v>
+      </c>
       <c r="D61" s="1">
         <v>75</v>
       </c>
@@ -3443,6 +3946,9 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
+      <c r="C62" s="1">
+        <v>40</v>
+      </c>
       <c r="D62" s="1">
         <v>74</v>
       </c>
@@ -3457,6 +3963,9 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
+      <c r="C63" s="1">
+        <v>13</v>
+      </c>
       <c r="D63" s="1">
         <v>68</v>
       </c>
@@ -3471,6 +3980,9 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
+      <c r="C64" s="1">
+        <v>104</v>
+      </c>
       <c r="D64" s="1">
         <v>69</v>
       </c>
@@ -3485,6 +3997,9 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
+      <c r="C65" s="1">
+        <v>113</v>
+      </c>
       <c r="D65" s="1">
         <v>70</v>
       </c>
@@ -3499,6 +4014,9 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
+      <c r="C66" s="1">
+        <v>119</v>
+      </c>
       <c r="D66" s="1">
         <v>67</v>
       </c>
@@ -3513,6 +4031,9 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
+      <c r="C67" s="1">
+        <v>114</v>
+      </c>
       <c r="D67" s="1">
         <v>66</v>
       </c>
@@ -3527,6 +4048,9 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
+      <c r="C68" s="1">
+        <v>12</v>
+      </c>
       <c r="D68" s="1">
         <v>72</v>
       </c>
@@ -3541,6 +4065,9 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
+      <c r="C69" s="1">
+        <v>49</v>
+      </c>
       <c r="D69" s="1">
         <v>73</v>
       </c>
@@ -3555,6 +4082,9 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
+      <c r="C70" s="1">
+        <v>6</v>
+      </c>
       <c r="D70" s="1">
         <v>17</v>
       </c>
@@ -3569,6 +4099,9 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
       <c r="D71" s="1">
         <v>76</v>
       </c>
@@ -3583,6 +4116,9 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
+      <c r="C72" s="1">
+        <v>15</v>
+      </c>
       <c r="D72" s="1">
         <v>78</v>
       </c>
@@ -3597,6 +4133,9 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
       <c r="D73" s="1">
         <v>79</v>
       </c>
@@ -3611,6 +4150,9 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
+      <c r="C74" s="1">
+        <v>50</v>
+      </c>
       <c r="D74" s="1">
         <v>24</v>
       </c>
@@ -3625,6 +4167,9 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
+      <c r="C75" s="1">
+        <v>34</v>
+      </c>
       <c r="D75" s="1">
         <v>32</v>
       </c>
@@ -3639,6 +4184,9 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
+      <c r="C76" s="1">
+        <v>36</v>
+      </c>
       <c r="D76" s="1">
         <v>28</v>
       </c>
@@ -3653,6 +4201,9 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
+      <c r="C77" s="1">
+        <v>35</v>
+      </c>
       <c r="D77" s="1">
         <v>31</v>
       </c>
@@ -3667,6 +4218,9 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
+      <c r="C78" s="1">
+        <v>11</v>
+      </c>
       <c r="D78" s="1">
         <v>121</v>
       </c>
@@ -3681,6 +4235,9 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
+      <c r="C79" s="1">
+        <v>105</v>
+      </c>
       <c r="D79" s="1">
         <v>27</v>
       </c>
@@ -3695,6 +4252,9 @@
       <c r="A80" s="1">
         <v>76</v>
       </c>
+      <c r="C80" s="1">
+        <v>14</v>
+      </c>
       <c r="D80" s="1">
         <v>96</v>
       </c>
@@ -3709,6 +4269,9 @@
       <c r="A81" s="1">
         <v>77</v>
       </c>
+      <c r="C81" s="1">
+        <v>19</v>
+      </c>
       <c r="D81" s="1">
         <v>97</v>
       </c>
@@ -3723,6 +4286,9 @@
       <c r="A82" s="1">
         <v>78</v>
       </c>
+      <c r="C82" s="1">
+        <v>22</v>
+      </c>
       <c r="D82" s="1">
         <v>122</v>
       </c>
@@ -3737,6 +4303,9 @@
       <c r="A83" s="1">
         <v>79</v>
       </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
       <c r="D83" s="1">
         <v>94</v>
       </c>
@@ -3751,6 +4320,9 @@
       <c r="A84" s="1">
         <v>80</v>
       </c>
+      <c r="C84" s="1">
+        <v>23</v>
+      </c>
       <c r="D84" s="1">
         <v>92</v>
       </c>
@@ -3765,6 +4337,9 @@
       <c r="A85" s="1">
         <v>81</v>
       </c>
+      <c r="C85" s="1">
+        <v>107</v>
+      </c>
       <c r="D85" s="1">
         <v>126</v>
       </c>
@@ -3779,6 +4354,9 @@
       <c r="A86" s="1">
         <v>82</v>
       </c>
+      <c r="C86" s="1">
+        <v>21</v>
+      </c>
       <c r="D86" s="1">
         <v>106</v>
       </c>
@@ -3793,6 +4371,9 @@
       <c r="A87" s="1">
         <v>83</v>
       </c>
+      <c r="C87" s="1">
+        <v>18</v>
+      </c>
       <c r="D87" s="1">
         <v>110</v>
       </c>
@@ -3807,6 +4388,9 @@
       <c r="A88" s="1">
         <v>84</v>
       </c>
+      <c r="C88" s="1">
+        <v>7</v>
+      </c>
       <c r="D88" s="1">
         <v>111</v>
       </c>
@@ -3821,6 +4405,9 @@
       <c r="A89" s="1">
         <v>85</v>
       </c>
+      <c r="C89" s="1">
+        <v>71</v>
+      </c>
       <c r="D89" s="1">
         <v>93</v>
       </c>
@@ -3835,6 +4422,9 @@
       <c r="A90" s="1">
         <v>86</v>
       </c>
+      <c r="C90" s="1">
+        <v>73</v>
+      </c>
       <c r="D90" s="1">
         <v>45</v>
       </c>
@@ -3849,6 +4439,9 @@
       <c r="A91" s="1">
         <v>87</v>
       </c>
+      <c r="C91" s="1">
+        <v>67</v>
+      </c>
       <c r="D91" s="1">
         <v>117</v>
       </c>
@@ -3863,6 +4456,9 @@
       <c r="A92" s="1">
         <v>88</v>
       </c>
+      <c r="C92" s="1">
+        <v>66</v>
+      </c>
       <c r="D92" s="1">
         <v>47</v>
       </c>
@@ -3877,6 +4473,9 @@
       <c r="A93" s="1">
         <v>89</v>
       </c>
+      <c r="C93" s="1">
+        <v>72</v>
+      </c>
       <c r="D93" s="1">
         <v>52</v>
       </c>
@@ -3891,6 +4490,9 @@
       <c r="A94" s="1">
         <v>90</v>
       </c>
+      <c r="C94" s="1">
+        <v>17</v>
+      </c>
       <c r="D94" s="1">
         <v>48</v>
       </c>
@@ -3905,6 +4507,9 @@
       <c r="A95" s="1">
         <v>91</v>
       </c>
+      <c r="C95" s="1">
+        <v>76</v>
+      </c>
       <c r="D95" s="1">
         <v>46</v>
       </c>
@@ -3919,6 +4524,9 @@
       <c r="A96" s="1">
         <v>92</v>
       </c>
+      <c r="C96" s="1">
+        <v>77</v>
+      </c>
       <c r="D96" s="1">
         <v>54</v>
       </c>
@@ -3933,6 +4541,9 @@
       <c r="A97" s="1">
         <v>93</v>
       </c>
+      <c r="C97" s="1">
+        <v>75</v>
+      </c>
       <c r="D97" s="1">
         <v>65</v>
       </c>
@@ -3947,6 +4558,9 @@
       <c r="A98" s="1">
         <v>94</v>
       </c>
+      <c r="C98" s="1">
+        <v>116</v>
+      </c>
       <c r="D98" s="1">
         <v>123</v>
       </c>
@@ -3961,6 +4575,9 @@
       <c r="A99" s="1">
         <v>95</v>
       </c>
+      <c r="C99" s="1">
+        <v>83</v>
+      </c>
       <c r="D99" s="1">
         <v>51</v>
       </c>
@@ -3975,6 +4592,9 @@
       <c r="A100" s="1">
         <v>96</v>
       </c>
+      <c r="C100" s="1">
+        <v>125</v>
+      </c>
       <c r="D100" s="1">
         <v>4</v>
       </c>
@@ -3989,6 +4609,9 @@
       <c r="A101" s="1">
         <v>97</v>
       </c>
+      <c r="C101" s="1">
+        <v>81</v>
+      </c>
       <c r="D101" s="1">
         <v>55</v>
       </c>
@@ -4003,6 +4626,9 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
+      <c r="C102" s="1">
+        <v>80</v>
+      </c>
       <c r="D102" s="1">
         <v>120</v>
       </c>
@@ -4017,6 +4643,9 @@
       <c r="A103" s="1">
         <v>99</v>
       </c>
+      <c r="C103" s="1">
+        <v>74</v>
+      </c>
       <c r="D103" s="1">
         <v>50</v>
       </c>
@@ -4031,6 +4660,9 @@
       <c r="A104" s="1">
         <v>100</v>
       </c>
+      <c r="C104" s="1">
+        <v>68</v>
+      </c>
       <c r="D104" s="1">
         <v>56</v>
       </c>
@@ -4045,6 +4677,9 @@
       <c r="A105" s="1">
         <v>101</v>
       </c>
+      <c r="C105" s="1">
+        <v>69</v>
+      </c>
       <c r="D105" s="1">
         <v>53</v>
       </c>
@@ -4059,6 +4694,9 @@
       <c r="A106" s="1">
         <v>102</v>
       </c>
+      <c r="C106" s="1">
+        <v>70</v>
+      </c>
       <c r="D106" s="1">
         <v>44</v>
       </c>
@@ -4073,6 +4711,9 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
+      <c r="C107" s="1">
+        <v>109</v>
+      </c>
       <c r="D107" s="1">
         <v>102</v>
       </c>
@@ -4087,6 +4728,9 @@
       <c r="A108" s="1">
         <v>104</v>
       </c>
+      <c r="C108" s="1">
+        <v>84</v>
+      </c>
       <c r="D108" s="1">
         <v>43</v>
       </c>
@@ -4101,6 +4745,9 @@
       <c r="A109" s="1">
         <v>105</v>
       </c>
+      <c r="C109" s="1">
+        <v>85</v>
+      </c>
       <c r="D109" s="1">
         <v>39</v>
       </c>
@@ -4115,6 +4762,9 @@
       <c r="A110" s="1">
         <v>106</v>
       </c>
+      <c r="C110" s="1">
+        <v>86</v>
+      </c>
       <c r="D110" s="1">
         <v>42</v>
       </c>
@@ -4129,6 +4779,9 @@
       <c r="A111" s="1">
         <v>107</v>
       </c>
+      <c r="C111" s="1">
+        <v>87</v>
+      </c>
       <c r="D111" s="1">
         <v>33</v>
       </c>
@@ -4143,6 +4796,9 @@
       <c r="A112" s="1">
         <v>108</v>
       </c>
+      <c r="C112" s="1">
+        <v>108</v>
+      </c>
       <c r="D112" s="1">
         <v>41</v>
       </c>
@@ -4157,6 +4813,9 @@
       <c r="A113" s="1">
         <v>109</v>
       </c>
+      <c r="C113" s="1">
+        <v>95</v>
+      </c>
       <c r="D113" s="1">
         <v>38</v>
       </c>
@@ -4171,6 +4830,9 @@
       <c r="A114" s="1">
         <v>110</v>
       </c>
+      <c r="C114" s="1">
+        <v>118</v>
+      </c>
       <c r="D114" s="1">
         <v>37</v>
       </c>
@@ -4185,6 +4847,9 @@
       <c r="A115" s="1">
         <v>111</v>
       </c>
+      <c r="C115" s="1">
+        <v>62</v>
+      </c>
       <c r="D115" s="1">
         <v>25</v>
       </c>
@@ -4199,6 +4864,9 @@
       <c r="A116" s="1">
         <v>112</v>
       </c>
+      <c r="C116" s="1">
+        <v>101</v>
+      </c>
       <c r="D116" s="1">
         <v>26</v>
       </c>
@@ -4213,6 +4881,9 @@
       <c r="A117" s="1">
         <v>113</v>
       </c>
+      <c r="C117" s="1">
+        <v>100</v>
+      </c>
       <c r="D117" s="1">
         <v>30</v>
       </c>
@@ -4227,6 +4898,9 @@
       <c r="A118" s="1">
         <v>114</v>
       </c>
+      <c r="C118" s="1">
+        <v>82</v>
+      </c>
       <c r="D118" s="1">
         <v>29</v>
       </c>
@@ -4241,6 +4915,9 @@
       <c r="A119" s="1">
         <v>115</v>
       </c>
+      <c r="C119" s="1">
+        <v>31</v>
+      </c>
       <c r="D119" s="1">
         <v>40</v>
       </c>
@@ -4255,6 +4932,9 @@
       <c r="A120" s="1">
         <v>116</v>
       </c>
+      <c r="C120" s="1">
+        <v>28</v>
+      </c>
       <c r="D120" s="1">
         <v>35</v>
       </c>
@@ -4269,6 +4949,9 @@
       <c r="A121" s="1">
         <v>117</v>
       </c>
+      <c r="C121" s="1">
+        <v>32</v>
+      </c>
       <c r="D121" s="1">
         <v>36</v>
       </c>
@@ -4283,6 +4966,9 @@
       <c r="A122" s="1">
         <v>118</v>
       </c>
+      <c r="C122" s="1">
+        <v>121</v>
+      </c>
       <c r="D122" s="1">
         <v>34</v>
       </c>
@@ -4297,6 +4983,9 @@
       <c r="A123" s="1">
         <v>119</v>
       </c>
+      <c r="C123" s="1">
+        <v>27</v>
+      </c>
       <c r="D123" s="1">
         <v>1</v>
       </c>
@@ -4311,6 +5000,9 @@
       <c r="A124" s="1">
         <v>120</v>
       </c>
+      <c r="C124" s="1">
+        <v>37</v>
+      </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
@@ -4325,6 +5017,9 @@
       <c r="A125" s="1">
         <v>121</v>
       </c>
+      <c r="C125" s="1">
+        <v>24</v>
+      </c>
       <c r="D125" s="1">
         <v>15</v>
       </c>
@@ -4339,6 +5034,9 @@
       <c r="A126" s="1">
         <v>122</v>
       </c>
+      <c r="C126" s="1">
+        <v>42</v>
+      </c>
       <c r="D126" s="1">
         <v>13</v>
       </c>
@@ -4353,6 +5051,9 @@
       <c r="A127" s="1">
         <v>123</v>
       </c>
+      <c r="C127" s="1">
+        <v>33</v>
+      </c>
       <c r="D127" s="1">
         <v>11</v>
       </c>
@@ -4367,6 +5068,9 @@
       <c r="A128" s="1">
         <v>124</v>
       </c>
+      <c r="C128" s="1">
+        <v>38</v>
+      </c>
       <c r="D128" s="1">
         <v>19</v>
       </c>
@@ -4381,6 +5085,9 @@
       <c r="A129" s="1">
         <v>125</v>
       </c>
+      <c r="C129" s="1">
+        <v>41</v>
+      </c>
       <c r="D129" s="1">
         <v>107</v>
       </c>
@@ -4395,6 +5102,9 @@
       <c r="A130" s="1">
         <v>126</v>
       </c>
+      <c r="C130" s="1">
+        <v>39</v>
+      </c>
       <c r="D130" s="1">
         <v>14</v>
       </c>
@@ -4408,6 +5118,9 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>127</v>
+      </c>
+      <c r="C131" s="1">
+        <v>92</v>
       </c>
       <c r="D131" s="1">
         <v>105</v>
@@ -4430,21 +5143,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009A90AB19BA281B46B8380751D999A78D" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="30d09d38612c93741b9eedbb53514047">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e4a570-071a-4a2d-92fe-032540accd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea953fb45c2891f5fd0cec805fc9463" ns2:_="">
     <xsd:import namespace="49e4a570-071a-4a2d-92fe-032540accd22"/>
@@ -4588,24 +5286,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AC383A-0CD0-4D21-B13C-12C946D4DD45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4621,4 +5317,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Zestawienie wyników TSP.xlsx
+++ b/Zestawienie wyników TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justyna\source\repos\Projekt_IO\TSP-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023CCBC7-6EEF-424F-A42B-3E95BEACC65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C899F01-9CDE-48B9-812B-F62EF7C6FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7D776930-A9A0-493F-8678-92D617752308}"/>
   </bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2D9EBF-28AC-433A-86F4-52F78A19CEF8}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,9 @@
       <c r="D3" s="1">
         <v>10788</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>10795</v>
+      </c>
       <c r="F3">
         <v>12012</v>
       </c>
@@ -587,7 +589,9 @@
       <c r="D5" s="1">
         <v>15</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>37</v>
+      </c>
       <c r="F5" s="1">
         <v>10</v>
       </c>
@@ -606,7 +610,9 @@
       <c r="D6" s="1">
         <v>40</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
       <c r="F6" s="1">
         <v>24</v>
       </c>
@@ -625,7 +631,9 @@
       <c r="D7" s="1">
         <v>33</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>28</v>
+      </c>
       <c r="F7" s="1">
         <v>42</v>
       </c>
@@ -644,7 +652,9 @@
       <c r="D8" s="1">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
@@ -663,7 +673,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>18</v>
+      </c>
       <c r="F9" s="1">
         <v>48</v>
       </c>
@@ -682,7 +694,9 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>44</v>
+      </c>
       <c r="F10" s="1">
         <v>39</v>
       </c>
@@ -701,7 +715,9 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>31</v>
+      </c>
       <c r="F11" s="1">
         <v>32</v>
       </c>
@@ -720,7 +736,9 @@
       <c r="D12" s="1">
         <v>34</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>38</v>
+      </c>
       <c r="F12" s="1">
         <v>21</v>
       </c>
@@ -739,7 +757,9 @@
       <c r="D13" s="1">
         <v>44</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
       <c r="F13" s="1">
         <v>47</v>
       </c>
@@ -758,7 +778,9 @@
       <c r="D14" s="1">
         <v>9</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="1">
         <v>11</v>
       </c>
@@ -777,7 +799,9 @@
       <c r="D15" s="1">
         <v>23</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>9</v>
+      </c>
       <c r="F15" s="1">
         <v>23</v>
       </c>
@@ -796,7 +820,9 @@
       <c r="D16" s="1">
         <v>41</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>40</v>
+      </c>
       <c r="F16" s="1">
         <v>14</v>
       </c>
@@ -815,7 +841,9 @@
       <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
       <c r="F17" s="1">
         <v>25</v>
       </c>
@@ -834,7 +862,9 @@
       <c r="D18" s="1">
         <v>47</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>12</v>
+      </c>
       <c r="F18" s="1">
         <v>13</v>
       </c>
@@ -853,7 +883,9 @@
       <c r="D19" s="1">
         <v>38</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>11</v>
+      </c>
       <c r="F19" s="1">
         <v>12</v>
       </c>
@@ -872,7 +904,9 @@
       <c r="D20" s="1">
         <v>31</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>23</v>
+      </c>
       <c r="F20" s="1">
         <v>15</v>
       </c>
@@ -891,7 +925,9 @@
       <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
       <c r="F21" s="1">
         <v>33</v>
       </c>
@@ -910,7 +946,9 @@
       <c r="D22" s="1">
         <v>12</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>22</v>
+      </c>
       <c r="F22" s="1">
         <v>46</v>
       </c>
@@ -929,7 +967,9 @@
       <c r="D23" s="1">
         <v>24</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>16</v>
+      </c>
       <c r="F23" s="1">
         <v>44</v>
       </c>
@@ -948,7 +988,9 @@
       <c r="D24" s="1">
         <v>13</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>41</v>
+      </c>
       <c r="F24" s="1">
         <v>18</v>
       </c>
@@ -967,7 +1009,9 @@
       <c r="D25" s="1">
         <v>22</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>34</v>
+      </c>
       <c r="F25" s="1">
         <v>7</v>
       </c>
@@ -986,7 +1030,9 @@
       <c r="D26" s="1">
         <v>10</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>29</v>
+      </c>
       <c r="F26" s="1">
         <v>28</v>
       </c>
@@ -1005,7 +1051,9 @@
       <c r="D27" s="1">
         <v>46</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
       <c r="F27" s="1">
         <v>36</v>
       </c>
@@ -1024,7 +1072,9 @@
       <c r="D28" s="1">
         <v>19</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>48</v>
+      </c>
       <c r="F28" s="1">
         <v>30</v>
       </c>
@@ -1043,7 +1093,9 @@
       <c r="D29" s="1">
         <v>11</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>42</v>
+      </c>
       <c r="F29" s="1">
         <v>6</v>
       </c>
@@ -1062,7 +1114,9 @@
       <c r="D30" s="1">
         <v>14</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
       <c r="F30" s="1">
         <v>37</v>
       </c>
@@ -1081,7 +1135,9 @@
       <c r="D31" s="1">
         <v>32</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>26</v>
+      </c>
       <c r="F31" s="1">
         <v>19</v>
       </c>
@@ -1100,7 +1156,9 @@
       <c r="D32" s="1">
         <v>45</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
       <c r="F32" s="1">
         <v>27</v>
       </c>
@@ -1119,7 +1177,9 @@
       <c r="D33" s="1">
         <v>35</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>35</v>
+      </c>
       <c r="F33" s="1">
         <v>43</v>
       </c>
@@ -1138,7 +1198,9 @@
       <c r="D34" s="1">
         <v>29</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>45</v>
+      </c>
       <c r="F34" s="1">
         <v>17</v>
       </c>
@@ -1157,7 +1219,9 @@
       <c r="D35" s="1">
         <v>42</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
       <c r="F35" s="1">
         <v>20</v>
       </c>
@@ -1176,7 +1240,9 @@
       <c r="D36" s="1">
         <v>16</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>24</v>
+      </c>
       <c r="F36" s="1">
         <v>40</v>
       </c>
@@ -1195,7 +1261,9 @@
       <c r="D37" s="1">
         <v>26</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1">
+        <v>32</v>
+      </c>
       <c r="F37" s="1">
         <v>9</v>
       </c>
@@ -1214,7 +1282,9 @@
       <c r="D38" s="1">
         <v>18</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1">
+        <v>39</v>
+      </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
@@ -1233,7 +1303,9 @@
       <c r="D39" s="1">
         <v>36</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>25</v>
+      </c>
       <c r="F39" s="1">
         <v>8</v>
       </c>
@@ -1252,7 +1324,9 @@
       <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>14</v>
+      </c>
       <c r="F40" s="1">
         <v>38</v>
       </c>
@@ -1271,7 +1345,9 @@
       <c r="D41" s="1">
         <v>27</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>13</v>
+      </c>
       <c r="F41" s="1">
         <v>31</v>
       </c>
@@ -1290,7 +1366,9 @@
       <c r="D42" s="1">
         <v>6</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>21</v>
+      </c>
       <c r="F42" s="1">
         <v>22</v>
       </c>
@@ -1309,7 +1387,9 @@
       <c r="D43" s="1">
         <v>17</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1">
+        <v>47</v>
+      </c>
       <c r="F43" s="1">
         <v>16</v>
       </c>
@@ -1328,7 +1408,9 @@
       <c r="D44" s="1">
         <v>43</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>20</v>
+      </c>
       <c r="F44" s="1">
         <v>3</v>
       </c>
@@ -1347,7 +1429,9 @@
       <c r="D45" s="1">
         <v>30</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1">
+        <v>33</v>
+      </c>
       <c r="F45" s="1">
         <v>34</v>
       </c>
@@ -1366,7 +1450,9 @@
       <c r="D46" s="1">
         <v>37</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1">
+        <v>46</v>
+      </c>
       <c r="F46" s="1">
         <v>41</v>
       </c>
@@ -1385,7 +1471,9 @@
       <c r="D47" s="1">
         <v>7</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1">
+        <v>36</v>
+      </c>
       <c r="F47" s="1">
         <v>29</v>
       </c>
@@ -1404,7 +1492,9 @@
       <c r="D48" s="1">
         <v>0</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1">
+        <v>30</v>
+      </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
@@ -1423,7 +1513,9 @@
       <c r="D49" s="1">
         <v>8</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1">
+        <v>43</v>
+      </c>
       <c r="F49" s="1">
         <v>26</v>
       </c>
@@ -1442,7 +1534,9 @@
       <c r="D50" s="1">
         <v>39</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1">
+        <v>17</v>
+      </c>
       <c r="F50" s="1">
         <v>4</v>
       </c>
@@ -1461,7 +1555,9 @@
       <c r="D51" s="1">
         <v>2</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1">
+        <v>27</v>
+      </c>
       <c r="F51" s="1">
         <v>35</v>
       </c>
@@ -1480,7 +1576,9 @@
       <c r="D52" s="1">
         <v>21</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1">
+        <v>19</v>
+      </c>
       <c r="F52" s="1">
         <v>45</v>
       </c>
@@ -1520,6 +1618,1617 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>112768.6137258801</v>
+      </c>
+      <c r="D3" s="1">
+        <v>110041.248108399</v>
+      </c>
+      <c r="E3" s="1">
+        <v>112600.5333893308</v>
+      </c>
+      <c r="F3">
+        <v>130921.00457667319</v>
+      </c>
+      <c r="G3" s="1">
+        <v>118293.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1">
+        <v>63</v>
+      </c>
+      <c r="G23" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1">
+        <v>62</v>
+      </c>
+      <c r="G25" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1">
+        <v>61</v>
+      </c>
+      <c r="G26" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1">
+        <v>55</v>
+      </c>
+      <c r="G27" s="1">
+        <v>27.000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>74</v>
+      </c>
+      <c r="F28" s="1">
+        <v>56</v>
+      </c>
+      <c r="G28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>51</v>
+      </c>
+      <c r="G29" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>49</v>
+      </c>
+      <c r="G33" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>52</v>
+      </c>
+      <c r="G34" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>54</v>
+      </c>
+      <c r="G36" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42</v>
+      </c>
+      <c r="G37" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1">
+        <v>29</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>43</v>
+      </c>
+      <c r="G38" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1">
+        <v>29</v>
+      </c>
+      <c r="G40" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>76</v>
+      </c>
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1">
+        <v>72</v>
+      </c>
+      <c r="D42" s="1">
+        <v>74</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>31</v>
+      </c>
+      <c r="G42" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1">
+        <v>23</v>
+      </c>
+      <c r="F43" s="1">
+        <v>19</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44.999999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>22</v>
+      </c>
+      <c r="F44" s="1">
+        <v>20</v>
+      </c>
+      <c r="G44" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1">
+        <v>62</v>
+      </c>
+      <c r="D45" s="1">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1">
+        <v>24</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1">
+        <v>24</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1">
+        <v>53</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1">
+        <v>41</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44</v>
+      </c>
+      <c r="E51" s="1">
+        <v>19</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43</v>
+      </c>
+      <c r="E52" s="1">
+        <v>31</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1">
+        <v>47</v>
+      </c>
+      <c r="E53" s="1">
+        <v>30</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1">
+        <v>46</v>
+      </c>
+      <c r="E54" s="1">
+        <v>29</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1">
+        <v>48</v>
+      </c>
+      <c r="D55" s="1">
+        <v>68</v>
+      </c>
+      <c r="E55" s="1">
+        <v>26</v>
+      </c>
+      <c r="F55" s="1">
+        <v>23</v>
+      </c>
+      <c r="G55" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1">
+        <v>49</v>
+      </c>
+      <c r="D56" s="1">
+        <v>67</v>
+      </c>
+      <c r="E56" s="1">
+        <v>27</v>
+      </c>
+      <c r="F56" s="1">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1">
+        <v>57.000000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="C57" s="1">
+        <v>50</v>
+      </c>
+      <c r="D57" s="1">
+        <v>69</v>
+      </c>
+      <c r="E57" s="1">
+        <v>46</v>
+      </c>
+      <c r="F57" s="1">
+        <v>21</v>
+      </c>
+      <c r="G57" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1">
+        <v>64</v>
+      </c>
+      <c r="D58" s="1">
+        <v>66</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45</v>
+      </c>
+      <c r="F58" s="1">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>65</v>
+      </c>
+      <c r="D59" s="1">
+        <v>49</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44</v>
+      </c>
+      <c r="F59" s="1">
+        <v>24</v>
+      </c>
+      <c r="G59" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1">
+        <v>66</v>
+      </c>
+      <c r="D60" s="1">
+        <v>48</v>
+      </c>
+      <c r="E60" s="1">
+        <v>48</v>
+      </c>
+      <c r="F60" s="1">
+        <v>46</v>
+      </c>
+      <c r="G60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>69</v>
+      </c>
+      <c r="D61" s="1">
+        <v>26</v>
+      </c>
+      <c r="E61" s="1">
+        <v>47</v>
+      </c>
+      <c r="F61" s="1">
+        <v>45</v>
+      </c>
+      <c r="G61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1">
+        <v>67</v>
+      </c>
+      <c r="D62" s="1">
+        <v>25</v>
+      </c>
+      <c r="E62" s="1">
+        <v>69</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44</v>
+      </c>
+      <c r="G62" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1">
+        <v>68</v>
+      </c>
+      <c r="D63" s="1">
+        <v>28</v>
+      </c>
+      <c r="E63" s="1">
+        <v>68</v>
+      </c>
+      <c r="F63" s="1">
+        <v>48</v>
+      </c>
+      <c r="G63" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1">
+        <v>46</v>
+      </c>
+      <c r="D64" s="1">
+        <v>31</v>
+      </c>
+      <c r="E64" s="1">
+        <v>70</v>
+      </c>
+      <c r="F64" s="1">
+        <v>47</v>
+      </c>
+      <c r="G64" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1">
+        <v>47</v>
+      </c>
+      <c r="D65" s="1">
+        <v>32</v>
+      </c>
+      <c r="E65" s="1">
+        <v>67</v>
+      </c>
+      <c r="F65" s="1">
+        <v>69</v>
+      </c>
+      <c r="G65" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43</v>
+      </c>
+      <c r="D66" s="1">
+        <v>27</v>
+      </c>
+      <c r="E66" s="1">
+        <v>50</v>
+      </c>
+      <c r="F66" s="1">
+        <v>68</v>
+      </c>
+      <c r="G66" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44</v>
+      </c>
+      <c r="D67" s="1">
+        <v>42</v>
+      </c>
+      <c r="E67" s="1">
+        <v>49</v>
+      </c>
+      <c r="F67" s="1">
+        <v>67</v>
+      </c>
+      <c r="G67" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45</v>
+      </c>
+      <c r="D68" s="1">
+        <v>41</v>
+      </c>
+      <c r="E68" s="1">
+        <v>51</v>
+      </c>
+      <c r="F68" s="1">
+        <v>70</v>
+      </c>
+      <c r="G68" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1">
+        <v>23</v>
+      </c>
+      <c r="D69" s="1">
+        <v>53</v>
+      </c>
+      <c r="E69" s="1">
+        <v>66</v>
+      </c>
+      <c r="F69" s="1">
+        <v>71</v>
+      </c>
+      <c r="G69" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1">
+        <v>24</v>
+      </c>
+      <c r="D70" s="1">
+        <v>52</v>
+      </c>
+      <c r="E70" s="1">
+        <v>65</v>
+      </c>
+      <c r="F70" s="1">
+        <v>72</v>
+      </c>
+      <c r="G70" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1">
+        <v>20</v>
+      </c>
+      <c r="D71" s="1">
+        <v>51</v>
+      </c>
+      <c r="E71" s="1">
+        <v>71</v>
+      </c>
+      <c r="F71" s="1">
+        <v>73</v>
+      </c>
+      <c r="G71" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="C72" s="1">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1">
+        <v>54</v>
+      </c>
+      <c r="E72" s="1">
+        <v>72</v>
+      </c>
+      <c r="F72" s="1">
+        <v>39</v>
+      </c>
+      <c r="G72" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
+      <c r="C73" s="1">
+        <v>22</v>
+      </c>
+      <c r="D73" s="1">
+        <v>55</v>
+      </c>
+      <c r="E73" s="1">
+        <v>73</v>
+      </c>
+      <c r="F73" s="1">
+        <v>38</v>
+      </c>
+      <c r="G73" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>50</v>
+      </c>
+      <c r="E74" s="1">
+        <v>64</v>
+      </c>
+      <c r="F74" s="1">
+        <v>32</v>
+      </c>
+      <c r="G74" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
+      <c r="C75" s="1">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1">
+        <v>65</v>
+      </c>
+      <c r="E75" s="1">
+        <v>63</v>
+      </c>
+      <c r="F75" s="1">
+        <v>33</v>
+      </c>
+      <c r="G75" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
+      <c r="C76" s="1">
+        <v>75</v>
+      </c>
+      <c r="D76" s="1">
+        <v>64</v>
+      </c>
+      <c r="E76" s="1">
+        <v>62</v>
+      </c>
+      <c r="F76" s="1">
+        <v>27</v>
+      </c>
+      <c r="G76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>70</v>
+      </c>
+      <c r="E77" s="1">
+        <v>61</v>
+      </c>
+      <c r="F77" s="1">
+        <v>26</v>
+      </c>
+      <c r="G77" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>71</v>
+      </c>
+      <c r="E78" s="1">
+        <v>41</v>
+      </c>
+      <c r="F78" s="1">
+        <v>75</v>
+      </c>
+      <c r="G78" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>72</v>
+      </c>
+      <c r="E79" s="1">
+        <v>60</v>
+      </c>
+      <c r="F79" s="1">
+        <v>76</v>
+      </c>
+      <c r="G79" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1">
+        <v>63</v>
+      </c>
+      <c r="E80" s="1">
+        <v>59</v>
+      </c>
+      <c r="F80" s="1">
+        <v>74</v>
+      </c>
+      <c r="G80" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E445DC-DEC7-486A-B56B-00B55FB99068}">
+  <dimension ref="A1:G131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1570,16 +3279,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>112768.6137258801</v>
+        <v>143162.25843487619</v>
       </c>
       <c r="D3" s="1">
-        <v>110041.248108399</v>
+        <v>120791.74338491949</v>
+      </c>
+      <c r="E3" s="1">
+        <v>133161.42101962649</v>
       </c>
       <c r="F3">
-        <v>130921.00457667319</v>
-      </c>
-      <c r="G3" s="1">
-        <v>118293.47</v>
+        <v>133970.64577239769</v>
+      </c>
+      <c r="G3">
+        <v>140217.63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1598,16 +3310,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>116</v>
       </c>
       <c r="F5" s="1">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1615,16 +3330,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G6" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1632,16 +3350,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
       </c>
       <c r="F7" s="1">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1649,16 +3370,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,16 +3390,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>105</v>
       </c>
       <c r="F9" s="1">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1683,16 +3410,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>114</v>
       </c>
       <c r="F10" s="1">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1700,16 +3430,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1">
         <v>18</v>
       </c>
-      <c r="D11" s="1">
-        <v>59</v>
+      <c r="E11" s="1">
+        <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1717,16 +3450,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1">
-        <v>40</v>
+        <v>71</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1734,16 +3470,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16</v>
       </c>
       <c r="F13" s="1">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1751,16 +3490,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>14</v>
       </c>
       <c r="F14" s="1">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1768,16 +3510,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1785,16 +3530,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>27</v>
       </c>
       <c r="F16" s="1">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1802,16 +3550,19 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
-        <v>34</v>
+        <v>113</v>
+      </c>
+      <c r="E17" s="1">
+        <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1819,16 +3570,19 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1">
-        <v>35</v>
+        <v>104</v>
+      </c>
+      <c r="E18" s="1">
+        <v>38</v>
       </c>
       <c r="F18" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1836,16 +3590,19 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>26</v>
       </c>
       <c r="F19" s="1">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1853,16 +3610,19 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1">
-        <v>17</v>
+        <v>119</v>
+      </c>
+      <c r="E20" s="1">
+        <v>25</v>
       </c>
       <c r="F20" s="1">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,16 +3630,19 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32</v>
       </c>
       <c r="F21" s="1">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1887,16 +3650,19 @@
         <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="E22" s="1">
+        <v>29</v>
       </c>
       <c r="F22" s="1">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1904,16 +3670,19 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>14</v>
+        <v>114</v>
+      </c>
+      <c r="E23" s="1">
+        <v>33</v>
       </c>
       <c r="F23" s="1">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1921,16 +3690,19 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>122</v>
       </c>
       <c r="F24" s="1">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1938,16 +3710,19 @@
         <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>28</v>
       </c>
       <c r="F25" s="1">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1955,16 +3730,19 @@
         <v>22</v>
       </c>
       <c r="C26" s="1">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1">
+        <v>89</v>
+      </c>
+      <c r="E26" s="1">
+        <v>97</v>
+      </c>
+      <c r="F26" s="1">
         <v>15</v>
       </c>
-      <c r="D26" s="1">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1">
-        <v>61</v>
-      </c>
       <c r="G26" s="1">
-        <v>26</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1972,16 +3750,19 @@
         <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1">
-        <v>11</v>
+        <v>115</v>
+      </c>
+      <c r="E27" s="1">
+        <v>98</v>
       </c>
       <c r="F27" s="1">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1">
-        <v>27.000000000000004</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1989,16 +3770,19 @@
         <v>24</v>
       </c>
       <c r="C28" s="1">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="E28" s="1">
+        <v>127</v>
       </c>
       <c r="F28" s="1">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2006,16 +3790,19 @@
         <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="D29" s="1">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="E29" s="1">
+        <v>123</v>
       </c>
       <c r="F29" s="1">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G29" s="1">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2023,16 +3810,19 @@
         <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="E30" s="1">
+        <v>95</v>
       </c>
       <c r="F30" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2040,16 +3830,19 @@
         <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="E31" s="1">
+        <v>93</v>
       </c>
       <c r="F31" s="1">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2057,16 +3850,19 @@
         <v>28</v>
       </c>
       <c r="C32" s="1">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="E32" s="1">
+        <v>107</v>
       </c>
       <c r="F32" s="1">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2074,16 +3870,19 @@
         <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D33" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="E33" s="1">
+        <v>111</v>
       </c>
       <c r="F33" s="1">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1">
-        <v>52</v>
+        <v>120.00000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2091,16 +3890,19 @@
         <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="E34" s="1">
+        <v>112</v>
       </c>
       <c r="F34" s="1">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2108,16 +3910,19 @@
         <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="E35" s="1">
+        <v>94</v>
       </c>
       <c r="F35" s="1">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="G35" s="1">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2125,16 +3930,19 @@
         <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="E36" s="1">
+        <v>46</v>
       </c>
       <c r="F36" s="1">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2142,16 +3950,19 @@
         <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D37" s="1">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="E37" s="1">
+        <v>118</v>
       </c>
       <c r="F37" s="1">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>50</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2159,16 +3970,19 @@
         <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1">
-        <v>29</v>
+        <v>98</v>
+      </c>
+      <c r="E38" s="1">
+        <v>48</v>
       </c>
       <c r="F38" s="1">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2176,16 +3990,19 @@
         <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1">
-        <v>3</v>
+        <v>91</v>
+      </c>
+      <c r="E39" s="1">
+        <v>53</v>
       </c>
       <c r="F39" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2196,13 +4013,16 @@
         <v>61</v>
       </c>
       <c r="D40" s="1">
+        <v>88</v>
+      </c>
+      <c r="E40" s="1">
+        <v>49</v>
+      </c>
+      <c r="F40" s="1">
+        <v>51</v>
+      </c>
+      <c r="G40" s="1">
         <v>2</v>
-      </c>
-      <c r="F40" s="1">
-        <v>29</v>
-      </c>
-      <c r="G40" s="1">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2210,16 +4030,19 @@
         <v>37</v>
       </c>
       <c r="C41" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1">
+        <v>124</v>
+      </c>
+      <c r="E41" s="1">
+        <v>47</v>
+      </c>
+      <c r="F41" s="1">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1">
         <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>30</v>
-      </c>
-      <c r="G41" s="1">
-        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2227,16 +4050,19 @@
         <v>38</v>
       </c>
       <c r="C42" s="1">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1">
-        <v>74</v>
+        <v>103</v>
+      </c>
+      <c r="E42" s="1">
+        <v>55</v>
       </c>
       <c r="F42" s="1">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G42" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2244,16 +4070,19 @@
         <v>39</v>
       </c>
       <c r="C43" s="1">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D43" s="1">
-        <v>75</v>
+        <v>109</v>
+      </c>
+      <c r="E43" s="1">
+        <v>66</v>
       </c>
       <c r="F43" s="1">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G43" s="1">
-        <v>44.999999999999993</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2261,16 +4090,19 @@
         <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="E44" s="1">
+        <v>113</v>
       </c>
       <c r="F44" s="1">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G44" s="1">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2278,16 +4110,19 @@
         <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D45" s="1">
-        <v>22</v>
+        <v>85</v>
+      </c>
+      <c r="E45" s="1">
+        <v>65</v>
       </c>
       <c r="F45" s="1">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G45" s="1">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2295,16 +4130,19 @@
         <v>42</v>
       </c>
       <c r="C46" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" s="1">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="E46" s="1">
+        <v>64</v>
       </c>
       <c r="F46" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G46" s="1">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2312,16 +4150,19 @@
         <v>43</v>
       </c>
       <c r="C47" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1">
-        <v>20</v>
+        <v>87</v>
+      </c>
+      <c r="E47" s="1">
+        <v>58</v>
       </c>
       <c r="F47" s="1">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G47" s="1">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2329,16 +4170,19 @@
         <v>44</v>
       </c>
       <c r="C48" s="1">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1">
-        <v>24</v>
+        <v>108</v>
+      </c>
+      <c r="E48" s="1">
+        <v>100</v>
       </c>
       <c r="F48" s="1">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G48" s="1">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2346,16 +4190,19 @@
         <v>45</v>
       </c>
       <c r="C49" s="1">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1">
-        <v>23</v>
+        <v>95</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
       </c>
       <c r="F49" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G49" s="1">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2363,16 +4210,19 @@
         <v>46</v>
       </c>
       <c r="C50" s="1">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>45</v>
+        <v>118</v>
+      </c>
+      <c r="E50" s="1">
+        <v>120</v>
       </c>
       <c r="F50" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2380,16 +4230,19 @@
         <v>47</v>
       </c>
       <c r="C51" s="1">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="E51" s="1">
+        <v>50</v>
       </c>
       <c r="F51" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G51" s="1">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2397,16 +4250,19 @@
         <v>48</v>
       </c>
       <c r="C52" s="1">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1">
-        <v>43</v>
+        <v>101</v>
+      </c>
+      <c r="E52" s="1">
+        <v>121</v>
       </c>
       <c r="F52" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G52" s="1">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2414,16 +4270,19 @@
         <v>49</v>
       </c>
       <c r="C53" s="1">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1">
-        <v>47</v>
+        <v>100</v>
+      </c>
+      <c r="E53" s="1">
+        <v>51</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G53" s="1">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2431,16 +4290,19 @@
         <v>50</v>
       </c>
       <c r="C54" s="1">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>46</v>
+        <v>82</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G54" s="1">
-        <v>64</v>
+        <v>28.000000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2448,16 +4310,19 @@
         <v>51</v>
       </c>
       <c r="C55" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="E55" s="1">
+        <v>35</v>
       </c>
       <c r="F55" s="1">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G55" s="1">
-        <v>63</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2465,16 +4330,19 @@
         <v>52</v>
       </c>
       <c r="C56" s="1">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D56" s="1">
-        <v>67</v>
+        <v>125</v>
+      </c>
+      <c r="E56" s="1">
+        <v>37</v>
       </c>
       <c r="F56" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1">
-        <v>57.000000000000007</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2482,16 +4350,19 @@
         <v>53</v>
       </c>
       <c r="C57" s="1">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="E57" s="1">
+        <v>36</v>
       </c>
       <c r="F57" s="1">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G57" s="1">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2499,16 +4370,19 @@
         <v>54</v>
       </c>
       <c r="C58" s="1">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1">
-        <v>66</v>
+        <v>83</v>
+      </c>
+      <c r="E58" s="1">
+        <v>41</v>
       </c>
       <c r="F58" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G58" s="1">
-        <v>62</v>
+        <v>29.000000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2516,16 +4390,19 @@
         <v>55</v>
       </c>
       <c r="C59" s="1">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D59" s="1">
-        <v>49</v>
+        <v>116</v>
+      </c>
+      <c r="E59" s="1">
+        <v>30</v>
       </c>
       <c r="F59" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G59" s="1">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2533,16 +4410,19 @@
         <v>56</v>
       </c>
       <c r="C60" s="1">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43</v>
       </c>
       <c r="F60" s="1">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G60" s="1">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2550,16 +4430,19 @@
         <v>57</v>
       </c>
       <c r="C61" s="1">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D61" s="1">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="E61" s="1">
+        <v>34</v>
       </c>
       <c r="F61" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G61" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2567,16 +4450,19 @@
         <v>58</v>
       </c>
       <c r="C62" s="1">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D62" s="1">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="E62" s="1">
+        <v>42</v>
       </c>
       <c r="F62" s="1">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="G62" s="1">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2584,16 +4470,19 @@
         <v>59</v>
       </c>
       <c r="C63" s="1">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
         <v>68</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
+        <v>40</v>
+      </c>
+      <c r="F63" s="1">
         <v>28</v>
       </c>
-      <c r="F63" s="1">
-        <v>48</v>
-      </c>
       <c r="G63" s="1">
-        <v>40</v>
+        <v>31.000000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,16 +4490,19 @@
         <v>60</v>
       </c>
       <c r="C64" s="1">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1">
-        <v>31</v>
+        <v>69</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44</v>
       </c>
       <c r="F64" s="1">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G64" s="1">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2618,16 +4510,19 @@
         <v>61</v>
       </c>
       <c r="C65" s="1">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D65" s="1">
+        <v>70</v>
+      </c>
+      <c r="E65" s="1">
+        <v>103</v>
+      </c>
+      <c r="F65" s="1">
         <v>32</v>
       </c>
-      <c r="F65" s="1">
-        <v>69</v>
-      </c>
       <c r="G65" s="1">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2635,16 +4530,19 @@
         <v>62</v>
       </c>
       <c r="C66" s="1">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="D66" s="1">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45</v>
       </c>
       <c r="F66" s="1">
+        <v>42</v>
+      </c>
+      <c r="G66" s="1">
         <v>68</v>
-      </c>
-      <c r="G66" s="1">
-        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2652,16 +4550,19 @@
         <v>63</v>
       </c>
       <c r="C67" s="1">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D67" s="1">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="E67" s="1">
+        <v>54</v>
       </c>
       <c r="F67" s="1">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G67" s="1">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2669,16 +4570,19 @@
         <v>64</v>
       </c>
       <c r="C68" s="1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1">
-        <v>41</v>
+        <v>72</v>
+      </c>
+      <c r="E68" s="1">
+        <v>57</v>
       </c>
       <c r="F68" s="1">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G68" s="1">
-        <v>34</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2686,16 +4590,19 @@
         <v>65</v>
       </c>
       <c r="C69" s="1">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D69" s="1">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="E69" s="1">
+        <v>56</v>
       </c>
       <c r="F69" s="1">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="G69" s="1">
-        <v>33</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2703,16 +4610,19 @@
         <v>66</v>
       </c>
       <c r="C70" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="E70" s="1">
+        <v>124</v>
       </c>
       <c r="F70" s="1">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G70" s="1">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2720,16 +4630,19 @@
         <v>67</v>
       </c>
       <c r="C71" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="E71" s="1">
+        <v>52</v>
       </c>
       <c r="F71" s="1">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="G71" s="1">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2737,16 +4650,19 @@
         <v>68</v>
       </c>
       <c r="C72" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5</v>
       </c>
       <c r="F72" s="1">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G72" s="1">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2754,16 +4670,19 @@
         <v>69</v>
       </c>
       <c r="C73" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>55</v>
+        <v>79</v>
+      </c>
+      <c r="E73" s="1">
+        <v>115</v>
       </c>
       <c r="F73" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G73" s="1">
-        <v>17</v>
+        <v>81.000000000000014</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2771,16 +4690,19 @@
         <v>70</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D74" s="1">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="E74" s="1">
+        <v>13</v>
       </c>
       <c r="F74" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G74" s="1">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2788,16 +4710,19 @@
         <v>71</v>
       </c>
       <c r="C75" s="1">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D75" s="1">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="E75" s="1">
+        <v>6</v>
       </c>
       <c r="F75" s="1">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="G75" s="1">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2805,16 +4730,19 @@
         <v>72</v>
       </c>
       <c r="C76" s="1">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D76" s="1">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="E76" s="1">
+        <v>106</v>
       </c>
       <c r="F76" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G76" s="1">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2822,16 +4750,19 @@
         <v>73</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D77" s="1">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="E77" s="1">
+        <v>24</v>
       </c>
       <c r="F77" s="1">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="G77" s="1">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2839,16 +4770,19 @@
         <v>74</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1">
-        <v>71</v>
+        <v>121</v>
+      </c>
+      <c r="E78" s="1">
+        <v>23</v>
       </c>
       <c r="F78" s="1">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="G78" s="1">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2856,16 +4790,19 @@
         <v>75</v>
       </c>
       <c r="C79" s="1">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D79" s="1">
-        <v>72</v>
+        <v>27</v>
+      </c>
+      <c r="E79" s="1">
+        <v>19</v>
       </c>
       <c r="F79" s="1">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G79" s="1">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2873,1390 +4810,13 @@
         <v>76</v>
       </c>
       <c r="C80" s="1">
-        <v>5</v>
-      </c>
-      <c r="D80" s="1">
-        <v>63</v>
-      </c>
-      <c r="F80" s="1">
-        <v>74</v>
-      </c>
-      <c r="G80" s="1">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E445DC-DEC7-486A-B56B-00B55FB99068}">
-  <dimension ref="A1:G131"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>143162.25843487619</v>
-      </c>
-      <c r="D3" s="1">
-        <v>120791.74338491949</v>
-      </c>
-      <c r="F3">
-        <v>133970.64577239769</v>
-      </c>
-      <c r="G3">
-        <v>140217.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>117</v>
-      </c>
-      <c r="G5" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>122</v>
-      </c>
-      <c r="D6" s="1">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1">
-        <v>84</v>
-      </c>
-      <c r="G6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>96</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>81</v>
-      </c>
-      <c r="G7" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>97</v>
-      </c>
-      <c r="D8" s="1">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1">
-        <v>126</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>126</v>
-      </c>
-      <c r="D9" s="1">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
-        <v>82</v>
-      </c>
-      <c r="G9" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>106</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>83</v>
-      </c>
-      <c r="G10" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>110</v>
-      </c>
-      <c r="D11" s="1">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>111</v>
-      </c>
-      <c r="D12" s="1">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>93</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1">
-        <v>78</v>
-      </c>
-      <c r="G13" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1">
-        <v>80</v>
-      </c>
-      <c r="G14" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>79</v>
-      </c>
-      <c r="G15" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1">
-        <v>117</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1">
-        <v>77</v>
-      </c>
-      <c r="G16" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1">
-        <v>113</v>
-      </c>
-      <c r="F17" s="1">
-        <v>18</v>
-      </c>
-      <c r="G17" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1">
-        <v>104</v>
-      </c>
-      <c r="F18" s="1">
-        <v>21</v>
-      </c>
-      <c r="G18" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1">
-        <v>102</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1">
-        <v>119</v>
-      </c>
-      <c r="F20" s="1">
-        <v>22</v>
-      </c>
-      <c r="G20" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1">
-        <v>49</v>
-      </c>
-      <c r="F22" s="1">
-        <v>23</v>
-      </c>
-      <c r="G22" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1">
-        <v>120</v>
-      </c>
-      <c r="D23" s="1">
-        <v>114</v>
-      </c>
-      <c r="F23" s="1">
-        <v>24</v>
-      </c>
-      <c r="G23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1">
-        <v>55</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>106</v>
-      </c>
-      <c r="G25" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1">
-        <v>89</v>
-      </c>
-      <c r="F26" s="1">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1">
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1">
-        <v>46</v>
-      </c>
-      <c r="D27" s="1">
-        <v>115</v>
-      </c>
-      <c r="F27" s="1">
-        <v>108</v>
-      </c>
-      <c r="G27" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1">
-        <v>51</v>
-      </c>
-      <c r="D28" s="1">
-        <v>59</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20</v>
-      </c>
-      <c r="G28" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1">
-        <v>123</v>
-      </c>
-      <c r="D29" s="1">
-        <v>58</v>
-      </c>
-      <c r="F29" s="1">
-        <v>19</v>
-      </c>
-      <c r="G29" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1">
-        <v>54</v>
-      </c>
-      <c r="D30" s="1">
-        <v>61</v>
-      </c>
-      <c r="F30" s="1">
-        <v>72</v>
-      </c>
-      <c r="G30" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1">
-        <v>65</v>
-      </c>
-      <c r="D31" s="1">
-        <v>60</v>
-      </c>
-      <c r="F31" s="1">
-        <v>8</v>
-      </c>
-      <c r="G31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1">
-        <v>64</v>
-      </c>
-      <c r="D32" s="1">
-        <v>90</v>
-      </c>
-      <c r="F32" s="1">
-        <v>9</v>
-      </c>
-      <c r="G32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1">
-        <v>112</v>
-      </c>
-      <c r="D33" s="1">
-        <v>99</v>
-      </c>
-      <c r="F33" s="1">
-        <v>11</v>
-      </c>
-      <c r="G33" s="1">
-        <v>120.00000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1">
-        <v>98</v>
-      </c>
-      <c r="D34" s="1">
-        <v>57</v>
-      </c>
-      <c r="F34" s="1">
-        <v>114</v>
-      </c>
-      <c r="G34" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1">
-        <v>91</v>
-      </c>
-      <c r="D35" s="1">
-        <v>63</v>
-      </c>
-      <c r="F35" s="1">
-        <v>105</v>
-      </c>
-      <c r="G35" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1">
-        <v>88</v>
-      </c>
-      <c r="D36" s="1">
-        <v>112</v>
-      </c>
-      <c r="F36" s="1">
-        <v>7</v>
-      </c>
-      <c r="G36" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1">
-        <v>124</v>
-      </c>
-      <c r="D37" s="1">
-        <v>64</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1">
-        <v>103</v>
-      </c>
-      <c r="D38" s="1">
-        <v>98</v>
-      </c>
-      <c r="F38" s="1">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1">
-        <v>58</v>
-      </c>
-      <c r="D39" s="1">
-        <v>91</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="C40" s="1">
-        <v>61</v>
-      </c>
-      <c r="D40" s="1">
-        <v>88</v>
-      </c>
-      <c r="F40" s="1">
-        <v>51</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1">
-        <v>59</v>
-      </c>
-      <c r="D41" s="1">
-        <v>124</v>
-      </c>
-      <c r="F41" s="1">
-        <v>57</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>38</v>
-      </c>
-      <c r="C42" s="1">
-        <v>115</v>
-      </c>
-      <c r="D42" s="1">
-        <v>103</v>
-      </c>
-      <c r="F42" s="1">
-        <v>54</v>
-      </c>
-      <c r="G42" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>39</v>
-      </c>
-      <c r="C43" s="1">
-        <v>89</v>
-      </c>
-      <c r="D43" s="1">
-        <v>109</v>
-      </c>
-      <c r="F43" s="1">
-        <v>45</v>
-      </c>
-      <c r="G43" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1">
-        <v>60</v>
-      </c>
-      <c r="D44" s="1">
-        <v>84</v>
-      </c>
-      <c r="F44" s="1">
-        <v>103</v>
-      </c>
-      <c r="G44" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1">
-        <v>90</v>
-      </c>
-      <c r="D45" s="1">
-        <v>85</v>
-      </c>
-      <c r="F45" s="1">
-        <v>44</v>
-      </c>
-      <c r="G45" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1">
-        <v>57</v>
-      </c>
-      <c r="D46" s="1">
-        <v>86</v>
-      </c>
-      <c r="F46" s="1">
-        <v>35</v>
-      </c>
-      <c r="G46" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1">
-        <v>63</v>
-      </c>
-      <c r="D47" s="1">
-        <v>87</v>
-      </c>
-      <c r="F47" s="1">
-        <v>36</v>
-      </c>
-      <c r="G47" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1">
-        <v>9</v>
-      </c>
-      <c r="D48" s="1">
-        <v>108</v>
-      </c>
-      <c r="F48" s="1">
-        <v>37</v>
-      </c>
-      <c r="G48" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>45</v>
-      </c>
-      <c r="C49" s="1">
-        <v>99</v>
-      </c>
-      <c r="D49" s="1">
-        <v>95</v>
-      </c>
-      <c r="F49" s="1">
-        <v>41</v>
-      </c>
-      <c r="G49" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>46</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>118</v>
-      </c>
-      <c r="F50" s="1">
-        <v>14</v>
-      </c>
-      <c r="G50" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>47</v>
-      </c>
-      <c r="C51" s="1">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1">
-        <v>62</v>
-      </c>
-      <c r="F51" s="1">
-        <v>12</v>
-      </c>
-      <c r="G51" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>48</v>
-      </c>
-      <c r="C52" s="1">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1">
-        <v>101</v>
-      </c>
-      <c r="F52" s="1">
-        <v>31</v>
-      </c>
-      <c r="G52" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>49</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>100</v>
-      </c>
-      <c r="F53" s="1">
-        <v>27</v>
-      </c>
-      <c r="G53" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>50</v>
-      </c>
-      <c r="C54" s="1">
-        <v>20</v>
-      </c>
-      <c r="D54" s="1">
-        <v>82</v>
-      </c>
-      <c r="F54" s="1">
-        <v>30</v>
-      </c>
-      <c r="G54" s="1">
-        <v>28.000000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>51</v>
-      </c>
-      <c r="C55" s="1">
-        <v>16</v>
-      </c>
-      <c r="D55" s="1">
-        <v>81</v>
-      </c>
-      <c r="F55" s="1">
-        <v>43</v>
-      </c>
-      <c r="G55" s="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>52</v>
-      </c>
-      <c r="C56" s="1">
-        <v>78</v>
-      </c>
-      <c r="D56" s="1">
-        <v>125</v>
-      </c>
-      <c r="F56" s="1">
-        <v>34</v>
-      </c>
-      <c r="G56" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>53</v>
-      </c>
-      <c r="C57" s="1">
-        <v>79</v>
-      </c>
-      <c r="D57" s="1">
-        <v>80</v>
-      </c>
-      <c r="F57" s="1">
-        <v>39</v>
-      </c>
-      <c r="G57" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>54</v>
-      </c>
-      <c r="C58" s="1">
-        <v>30</v>
-      </c>
-      <c r="D58" s="1">
-        <v>83</v>
-      </c>
-      <c r="F58" s="1">
-        <v>38</v>
-      </c>
-      <c r="G58" s="1">
-        <v>29.000000000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>55</v>
-      </c>
-      <c r="C59" s="1">
-        <v>26</v>
-      </c>
-      <c r="D59" s="1">
-        <v>116</v>
-      </c>
-      <c r="F59" s="1">
-        <v>26</v>
-      </c>
-      <c r="G59" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>56</v>
-      </c>
-      <c r="C60" s="1">
-        <v>25</v>
-      </c>
-      <c r="D60" s="1">
-        <v>77</v>
-      </c>
-      <c r="F60" s="1">
-        <v>25</v>
-      </c>
-      <c r="G60" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>57</v>
-      </c>
-      <c r="C61" s="1">
-        <v>29</v>
-      </c>
-      <c r="D61" s="1">
-        <v>75</v>
-      </c>
-      <c r="F61" s="1">
-        <v>33</v>
-      </c>
-      <c r="G61" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>58</v>
-      </c>
-      <c r="C62" s="1">
-        <v>40</v>
-      </c>
-      <c r="D62" s="1">
-        <v>74</v>
-      </c>
-      <c r="F62" s="1">
-        <v>122</v>
-      </c>
-      <c r="G62" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>59</v>
-      </c>
-      <c r="C63" s="1">
-        <v>13</v>
-      </c>
-      <c r="D63" s="1">
-        <v>68</v>
-      </c>
-      <c r="F63" s="1">
-        <v>28</v>
-      </c>
-      <c r="G63" s="1">
-        <v>31.000000000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>60</v>
-      </c>
-      <c r="C64" s="1">
-        <v>104</v>
-      </c>
-      <c r="D64" s="1">
-        <v>69</v>
-      </c>
-      <c r="F64" s="1">
-        <v>29</v>
-      </c>
-      <c r="G64" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>61</v>
-      </c>
-      <c r="C65" s="1">
-        <v>113</v>
-      </c>
-      <c r="D65" s="1">
-        <v>70</v>
-      </c>
-      <c r="F65" s="1">
-        <v>32</v>
-      </c>
-      <c r="G65" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>62</v>
-      </c>
-      <c r="C66" s="1">
-        <v>119</v>
-      </c>
-      <c r="D66" s="1">
-        <v>67</v>
-      </c>
-      <c r="F66" s="1">
-        <v>42</v>
-      </c>
-      <c r="G66" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>63</v>
-      </c>
-      <c r="C67" s="1">
-        <v>114</v>
-      </c>
-      <c r="D67" s="1">
-        <v>66</v>
-      </c>
-      <c r="F67" s="1">
-        <v>40</v>
-      </c>
-      <c r="G67" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>64</v>
-      </c>
-      <c r="C68" s="1">
-        <v>12</v>
-      </c>
-      <c r="D68" s="1">
-        <v>72</v>
-      </c>
-      <c r="F68" s="1">
-        <v>121</v>
-      </c>
-      <c r="G68" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>65</v>
-      </c>
-      <c r="C69" s="1">
-        <v>49</v>
-      </c>
-      <c r="D69" s="1">
-        <v>73</v>
-      </c>
-      <c r="F69" s="1">
-        <v>5</v>
-      </c>
-      <c r="G69" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>66</v>
-      </c>
-      <c r="C70" s="1">
-        <v>6</v>
-      </c>
-      <c r="D70" s="1">
-        <v>17</v>
-      </c>
-      <c r="F70" s="1">
-        <v>56</v>
-      </c>
-      <c r="G70" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>67</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
-        <v>76</v>
-      </c>
-      <c r="F71" s="1">
-        <v>124</v>
-      </c>
-      <c r="G71" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>68</v>
-      </c>
-      <c r="C72" s="1">
-        <v>15</v>
-      </c>
-      <c r="D72" s="1">
-        <v>78</v>
-      </c>
-      <c r="F72" s="1">
-        <v>52</v>
-      </c>
-      <c r="G72" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>69</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
-        <v>79</v>
-      </c>
-      <c r="F73" s="1">
-        <v>50</v>
-      </c>
-      <c r="G73" s="1">
-        <v>81.000000000000014</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>70</v>
-      </c>
-      <c r="C74" s="1">
-        <v>50</v>
-      </c>
-      <c r="D74" s="1">
-        <v>24</v>
-      </c>
-      <c r="F74" s="1">
-        <v>13</v>
-      </c>
-      <c r="G74" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>71</v>
-      </c>
-      <c r="C75" s="1">
-        <v>34</v>
-      </c>
-      <c r="D75" s="1">
-        <v>32</v>
-      </c>
-      <c r="F75" s="1">
-        <v>115</v>
-      </c>
-      <c r="G75" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>72</v>
-      </c>
-      <c r="C76" s="1">
-        <v>36</v>
-      </c>
-      <c r="D76" s="1">
-        <v>28</v>
-      </c>
-      <c r="F76" s="1">
-        <v>10</v>
-      </c>
-      <c r="G76" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>73</v>
-      </c>
-      <c r="C77" s="1">
-        <v>35</v>
-      </c>
-      <c r="D77" s="1">
-        <v>31</v>
-      </c>
-      <c r="F77" s="1">
-        <v>120</v>
-      </c>
-      <c r="G77" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>74</v>
-      </c>
-      <c r="C78" s="1">
-        <v>11</v>
-      </c>
-      <c r="D78" s="1">
-        <v>121</v>
-      </c>
-      <c r="F78" s="1">
-        <v>3</v>
-      </c>
-      <c r="G78" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>75</v>
-      </c>
-      <c r="C79" s="1">
-        <v>105</v>
-      </c>
-      <c r="D79" s="1">
-        <v>27</v>
-      </c>
-      <c r="F79" s="1">
-        <v>90</v>
-      </c>
-      <c r="G79" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>76</v>
-      </c>
-      <c r="C80" s="1">
         <v>14</v>
       </c>
       <c r="D80" s="1">
         <v>96</v>
+      </c>
+      <c r="E80" s="1">
+        <v>72</v>
       </c>
       <c r="F80" s="1">
         <v>116</v>
@@ -4275,6 +4835,9 @@
       <c r="D81" s="1">
         <v>97</v>
       </c>
+      <c r="E81" s="1">
+        <v>8</v>
+      </c>
       <c r="F81" s="1">
         <v>60</v>
       </c>
@@ -4292,6 +4855,9 @@
       <c r="D82" s="1">
         <v>122</v>
       </c>
+      <c r="E82" s="1">
+        <v>67</v>
+      </c>
       <c r="F82" s="1">
         <v>62</v>
       </c>
@@ -4309,6 +4875,9 @@
       <c r="D83" s="1">
         <v>94</v>
       </c>
+      <c r="E83" s="1">
+        <v>73</v>
+      </c>
       <c r="F83" s="1">
         <v>61</v>
       </c>
@@ -4326,6 +4895,9 @@
       <c r="D84" s="1">
         <v>92</v>
       </c>
+      <c r="E84" s="1">
+        <v>74</v>
+      </c>
       <c r="F84" s="1">
         <v>91</v>
       </c>
@@ -4343,6 +4915,9 @@
       <c r="D85" s="1">
         <v>126</v>
       </c>
+      <c r="E85" s="1">
+        <v>68</v>
+      </c>
       <c r="F85" s="1">
         <v>58</v>
       </c>
@@ -4360,6 +4935,9 @@
       <c r="D86" s="1">
         <v>106</v>
       </c>
+      <c r="E86" s="1">
+        <v>71</v>
+      </c>
       <c r="F86" s="1">
         <v>64</v>
       </c>
@@ -4377,6 +4955,9 @@
       <c r="D87" s="1">
         <v>110</v>
       </c>
+      <c r="E87" s="1">
+        <v>70</v>
+      </c>
       <c r="F87" s="1">
         <v>100</v>
       </c>
@@ -4394,6 +4975,9 @@
       <c r="D88" s="1">
         <v>111</v>
       </c>
+      <c r="E88" s="1">
+        <v>69</v>
+      </c>
       <c r="F88" s="1">
         <v>113</v>
       </c>
@@ -4411,6 +4995,9 @@
       <c r="D89" s="1">
         <v>93</v>
       </c>
+      <c r="E89" s="1">
+        <v>75</v>
+      </c>
       <c r="F89" s="1">
         <v>66</v>
       </c>
@@ -4428,6 +5015,9 @@
       <c r="D90" s="1">
         <v>45</v>
       </c>
+      <c r="E90" s="1">
+        <v>76</v>
+      </c>
       <c r="F90" s="1">
         <v>55</v>
       </c>
@@ -4445,6 +5035,9 @@
       <c r="D91" s="1">
         <v>117</v>
       </c>
+      <c r="E91" s="1">
+        <v>77</v>
+      </c>
       <c r="F91" s="1">
         <v>47</v>
       </c>
@@ -4462,6 +5055,9 @@
       <c r="D92" s="1">
         <v>47</v>
       </c>
+      <c r="E92" s="1">
+        <v>18</v>
+      </c>
       <c r="F92" s="1">
         <v>49</v>
       </c>
@@ -4479,6 +5075,9 @@
       <c r="D93" s="1">
         <v>52</v>
       </c>
+      <c r="E93" s="1">
+        <v>21</v>
+      </c>
       <c r="F93" s="1">
         <v>53</v>
       </c>
@@ -4496,6 +5095,9 @@
       <c r="D94" s="1">
         <v>48</v>
       </c>
+      <c r="E94" s="1">
+        <v>22</v>
+      </c>
       <c r="F94" s="1">
         <v>118</v>
       </c>
@@ -4513,6 +5115,9 @@
       <c r="D95" s="1">
         <v>46</v>
       </c>
+      <c r="E95" s="1">
+        <v>4</v>
+      </c>
       <c r="F95" s="1">
         <v>48</v>
       </c>
@@ -4530,6 +5135,9 @@
       <c r="D96" s="1">
         <v>54</v>
       </c>
+      <c r="E96" s="1">
+        <v>108</v>
+      </c>
       <c r="F96" s="1">
         <v>46</v>
       </c>
@@ -4547,6 +5155,9 @@
       <c r="D97" s="1">
         <v>65</v>
       </c>
+      <c r="E97" s="1">
+        <v>15</v>
+      </c>
       <c r="F97" s="1">
         <v>94</v>
       </c>
@@ -4564,6 +5175,9 @@
       <c r="D98" s="1">
         <v>123</v>
       </c>
+      <c r="E98" s="1">
+        <v>20</v>
+      </c>
       <c r="F98" s="1">
         <v>112</v>
       </c>
@@ -4581,6 +5195,9 @@
       <c r="D99" s="1">
         <v>51</v>
       </c>
+      <c r="E99" s="1">
+        <v>17</v>
+      </c>
       <c r="F99" s="1">
         <v>111</v>
       </c>
@@ -4598,6 +5215,9 @@
       <c r="D100" s="1">
         <v>4</v>
       </c>
+      <c r="E100" s="1">
+        <v>12</v>
+      </c>
       <c r="F100" s="1">
         <v>107</v>
       </c>
@@ -4615,6 +5235,9 @@
       <c r="D101" s="1">
         <v>55</v>
       </c>
+      <c r="E101" s="1">
+        <v>79</v>
+      </c>
       <c r="F101" s="1">
         <v>127</v>
       </c>
@@ -4632,6 +5255,9 @@
       <c r="D102" s="1">
         <v>120</v>
       </c>
+      <c r="E102" s="1">
+        <v>80</v>
+      </c>
       <c r="F102" s="1">
         <v>93</v>
       </c>
@@ -4649,6 +5275,9 @@
       <c r="D103" s="1">
         <v>50</v>
       </c>
+      <c r="E103" s="1">
+        <v>78</v>
+      </c>
       <c r="F103" s="1">
         <v>95</v>
       </c>
@@ -4666,6 +5295,9 @@
       <c r="D104" s="1">
         <v>56</v>
       </c>
+      <c r="E104" s="1">
+        <v>117</v>
+      </c>
       <c r="F104" s="1">
         <v>123</v>
       </c>
@@ -4683,6 +5315,9 @@
       <c r="D105" s="1">
         <v>53</v>
       </c>
+      <c r="E105" s="1">
+        <v>84</v>
+      </c>
       <c r="F105" s="1">
         <v>97</v>
       </c>
@@ -4700,6 +5335,9 @@
       <c r="D106" s="1">
         <v>44</v>
       </c>
+      <c r="E106" s="1">
+        <v>81</v>
+      </c>
       <c r="F106" s="1">
         <v>98</v>
       </c>
@@ -4717,6 +5355,9 @@
       <c r="D107" s="1">
         <v>102</v>
       </c>
+      <c r="E107" s="1">
+        <v>126</v>
+      </c>
       <c r="F107" s="1">
         <v>101</v>
       </c>
@@ -4734,6 +5375,9 @@
       <c r="D108" s="1">
         <v>43</v>
       </c>
+      <c r="E108" s="1">
+        <v>82</v>
+      </c>
       <c r="F108" s="1">
         <v>102</v>
       </c>
@@ -4751,6 +5395,9 @@
       <c r="D109" s="1">
         <v>39</v>
       </c>
+      <c r="E109" s="1">
+        <v>83</v>
+      </c>
       <c r="F109" s="1">
         <v>63</v>
       </c>
@@ -4768,6 +5415,9 @@
       <c r="D110" s="1">
         <v>42</v>
       </c>
+      <c r="E110" s="1">
+        <v>101</v>
+      </c>
       <c r="F110" s="1">
         <v>119</v>
       </c>
@@ -4785,6 +5435,9 @@
       <c r="D111" s="1">
         <v>33</v>
       </c>
+      <c r="E111" s="1">
+        <v>102</v>
+      </c>
       <c r="F111" s="1">
         <v>96</v>
       </c>
@@ -4802,6 +5455,9 @@
       <c r="D112" s="1">
         <v>41</v>
       </c>
+      <c r="E112" s="1">
+        <v>63</v>
+      </c>
       <c r="F112" s="1">
         <v>109</v>
       </c>
@@ -4819,6 +5475,9 @@
       <c r="D113" s="1">
         <v>38</v>
       </c>
+      <c r="E113" s="1">
+        <v>119</v>
+      </c>
       <c r="F113" s="1">
         <v>87</v>
       </c>
@@ -4836,6 +5495,9 @@
       <c r="D114" s="1">
         <v>37</v>
       </c>
+      <c r="E114" s="1">
+        <v>96</v>
+      </c>
       <c r="F114" s="1">
         <v>86</v>
       </c>
@@ -4853,6 +5515,9 @@
       <c r="D115" s="1">
         <v>25</v>
       </c>
+      <c r="E115" s="1">
+        <v>109</v>
+      </c>
       <c r="F115" s="1">
         <v>85</v>
       </c>
@@ -4870,6 +5535,9 @@
       <c r="D116" s="1">
         <v>26</v>
       </c>
+      <c r="E116" s="1">
+        <v>86</v>
+      </c>
       <c r="F116" s="1">
         <v>88</v>
       </c>
@@ -4887,6 +5555,9 @@
       <c r="D117" s="1">
         <v>30</v>
       </c>
+      <c r="E117" s="1">
+        <v>88</v>
+      </c>
       <c r="F117" s="1">
         <v>110</v>
       </c>
@@ -4904,6 +5575,9 @@
       <c r="D118" s="1">
         <v>29</v>
       </c>
+      <c r="E118" s="1">
+        <v>87</v>
+      </c>
       <c r="F118" s="1">
         <v>71</v>
       </c>
@@ -4921,6 +5595,9 @@
       <c r="D119" s="1">
         <v>40</v>
       </c>
+      <c r="E119" s="1">
+        <v>85</v>
+      </c>
       <c r="F119" s="1">
         <v>70</v>
       </c>
@@ -4938,6 +5615,9 @@
       <c r="D120" s="1">
         <v>35</v>
       </c>
+      <c r="E120" s="1">
+        <v>110</v>
+      </c>
       <c r="F120" s="1">
         <v>69</v>
       </c>
@@ -4955,6 +5635,9 @@
       <c r="D121" s="1">
         <v>36</v>
       </c>
+      <c r="E121" s="1">
+        <v>104</v>
+      </c>
       <c r="F121" s="1">
         <v>68</v>
       </c>
@@ -4972,6 +5655,9 @@
       <c r="D122" s="1">
         <v>34</v>
       </c>
+      <c r="E122" s="1">
+        <v>99</v>
+      </c>
       <c r="F122" s="1">
         <v>73</v>
       </c>
@@ -4989,6 +5675,9 @@
       <c r="D123" s="1">
         <v>1</v>
       </c>
+      <c r="E123" s="1">
+        <v>92</v>
+      </c>
       <c r="F123" s="1">
         <v>74</v>
       </c>
@@ -5006,6 +5695,9 @@
       <c r="D124" s="1">
         <v>0</v>
       </c>
+      <c r="E124" s="1">
+        <v>89</v>
+      </c>
       <c r="F124" s="1">
         <v>67</v>
       </c>
@@ -5023,6 +5715,9 @@
       <c r="D125" s="1">
         <v>15</v>
       </c>
+      <c r="E125" s="1">
+        <v>125</v>
+      </c>
       <c r="F125" s="1">
         <v>59</v>
       </c>
@@ -5040,6 +5735,9 @@
       <c r="D126" s="1">
         <v>13</v>
       </c>
+      <c r="E126" s="1">
+        <v>59</v>
+      </c>
       <c r="F126" s="1">
         <v>125</v>
       </c>
@@ -5057,6 +5755,9 @@
       <c r="D127" s="1">
         <v>11</v>
       </c>
+      <c r="E127" s="1">
+        <v>60</v>
+      </c>
       <c r="F127" s="1">
         <v>89</v>
       </c>
@@ -5074,6 +5775,9 @@
       <c r="D128" s="1">
         <v>19</v>
       </c>
+      <c r="E128" s="1">
+        <v>62</v>
+      </c>
       <c r="F128" s="1">
         <v>92</v>
       </c>
@@ -5091,6 +5795,9 @@
       <c r="D129" s="1">
         <v>107</v>
       </c>
+      <c r="E129" s="1">
+        <v>61</v>
+      </c>
       <c r="F129" s="1">
         <v>99</v>
       </c>
@@ -5108,6 +5815,9 @@
       <c r="D130" s="1">
         <v>14</v>
       </c>
+      <c r="E130" s="1">
+        <v>91</v>
+      </c>
       <c r="F130" s="1">
         <v>65</v>
       </c>
@@ -5124,6 +5834,9 @@
       </c>
       <c r="D131" s="1">
         <v>105</v>
+      </c>
+      <c r="E131" s="1">
+        <v>90</v>
       </c>
       <c r="F131" s="1">
         <v>104</v>
@@ -5143,6 +5856,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009A90AB19BA281B46B8380751D999A78D" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="30d09d38612c93741b9eedbb53514047">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e4a570-071a-4a2d-92fe-032540accd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea953fb45c2891f5fd0cec805fc9463" ns2:_="">
     <xsd:import namespace="49e4a570-071a-4a2d-92fe-032540accd22"/>
@@ -5286,22 +6014,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AC383A-0CD0-4D21-B13C-12C946D4DD45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5317,21 +6047,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Zestawienie wyników TSP.xlsx
+++ b/Zestawienie wyników TSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justyna\source\repos\Projekt_IO\TSP-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C899F01-9CDE-48B9-812B-F62EF7C6FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4610A7-9578-41B4-9278-703232052457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7D776930-A9A0-493F-8678-92D617752308}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{7D776930-A9A0-493F-8678-92D617752308}"/>
   </bookViews>
   <sheets>
     <sheet name="TSP 48" sheetId="1" r:id="rId1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2D9EBF-28AC-433A-86F4-52F78A19CEF8}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>10692</v>
+      </c>
       <c r="C3" s="1">
         <v>10811</v>
       </c>
@@ -582,7 +584,9 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
       <c r="C5" s="1">
         <v>15</v>
       </c>
@@ -603,7 +607,9 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>44</v>
+      </c>
       <c r="C6" s="1">
         <v>40</v>
       </c>
@@ -624,7 +630,9 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>31</v>
+      </c>
       <c r="C7" s="1">
         <v>33</v>
       </c>
@@ -645,7 +653,9 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>38</v>
+      </c>
       <c r="C8" s="1">
         <v>28</v>
       </c>
@@ -666,7 +676,9 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -687,7 +699,9 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
       <c r="C10" s="1">
         <v>25</v>
       </c>
@@ -708,7 +722,9 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
@@ -729,7 +745,9 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>40</v>
+      </c>
       <c r="C12" s="1">
         <v>34</v>
       </c>
@@ -750,7 +768,9 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
       <c r="C13" s="1">
         <v>44</v>
       </c>
@@ -771,7 +791,9 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -792,7 +814,9 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
       <c r="C15" s="1">
         <v>23</v>
       </c>
@@ -813,7 +837,9 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
       <c r="C16" s="1">
         <v>41</v>
       </c>
@@ -834,7 +860,9 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
@@ -855,7 +883,9 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
       <c r="C18" s="1">
         <v>47</v>
       </c>
@@ -876,7 +906,9 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>23</v>
+      </c>
       <c r="C19" s="1">
         <v>38</v>
       </c>
@@ -897,7 +929,9 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
       <c r="C20" s="1">
         <v>31</v>
       </c>
@@ -918,7 +952,9 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>22</v>
+      </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -939,7 +975,9 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
       <c r="C22" s="1">
         <v>46</v>
       </c>
@@ -960,7 +998,9 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>41</v>
+      </c>
       <c r="C23" s="1">
         <v>19</v>
       </c>
@@ -981,7 +1021,9 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>34</v>
+      </c>
       <c r="C24" s="1">
         <v>32</v>
       </c>
@@ -1002,7 +1044,9 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>29</v>
+      </c>
       <c r="C25" s="1">
         <v>45</v>
       </c>
@@ -1023,7 +1067,9 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
       <c r="C26" s="1">
         <v>35</v>
       </c>
@@ -1044,7 +1090,9 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
       <c r="C27" s="1">
         <v>29</v>
       </c>
@@ -1065,7 +1113,9 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
       <c r="C28" s="1">
         <v>42</v>
       </c>
@@ -1086,7 +1136,9 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>35</v>
+      </c>
       <c r="C29" s="1">
         <v>16</v>
       </c>
@@ -1107,7 +1159,9 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>45</v>
+      </c>
       <c r="C30" s="1">
         <v>26</v>
       </c>
@@ -1128,7 +1182,9 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
       <c r="C31" s="1">
         <v>18</v>
       </c>
@@ -1149,7 +1205,9 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1">
+        <v>24</v>
+      </c>
       <c r="C32" s="1">
         <v>36</v>
       </c>
@@ -1170,7 +1228,9 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>42</v>
+      </c>
       <c r="C33" s="1">
         <v>5</v>
       </c>
@@ -1191,7 +1251,9 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
       <c r="C34" s="1">
         <v>27</v>
       </c>
@@ -1212,7 +1274,9 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>48</v>
+      </c>
       <c r="C35" s="1">
         <v>6</v>
       </c>
@@ -1233,7 +1297,9 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <v>39</v>
+      </c>
       <c r="C36" s="1">
         <v>17</v>
       </c>
@@ -1254,7 +1320,9 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <v>32</v>
+      </c>
       <c r="C37" s="1">
         <v>43</v>
       </c>
@@ -1275,7 +1343,9 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1">
+        <v>21</v>
+      </c>
       <c r="C38" s="1">
         <v>30</v>
       </c>
@@ -1296,7 +1366,9 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1">
+        <v>47</v>
+      </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
@@ -1317,7 +1389,9 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>20</v>
+      </c>
       <c r="C40" s="1">
         <v>8</v>
       </c>
@@ -1338,7 +1412,9 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>33</v>
+      </c>
       <c r="C41" s="1">
         <v>7</v>
       </c>
@@ -1359,7 +1435,9 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>46</v>
+      </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
@@ -1380,7 +1458,9 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>36</v>
+      </c>
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -1401,7 +1481,9 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1">
+        <v>30</v>
+      </c>
       <c r="C44" s="1">
         <v>14</v>
       </c>
@@ -1422,7 +1504,9 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
       <c r="C45" s="1">
         <v>11</v>
       </c>
@@ -1443,7 +1527,9 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1">
+        <v>17</v>
+      </c>
       <c r="C46" s="1">
         <v>10</v>
       </c>
@@ -1464,7 +1550,9 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1">
+        <v>27</v>
+      </c>
       <c r="C47" s="1">
         <v>22</v>
       </c>
@@ -1485,7 +1573,9 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1">
+        <v>19</v>
+      </c>
       <c r="C48" s="1">
         <v>12</v>
       </c>
@@ -1506,7 +1596,9 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1">
+        <v>37</v>
+      </c>
       <c r="C49" s="1">
         <v>24</v>
       </c>
@@ -1527,7 +1619,9 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
       <c r="C50" s="1">
         <v>13</v>
       </c>
@@ -1548,7 +1642,9 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1">
+        <v>28</v>
+      </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
@@ -1569,7 +1665,9 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1">
+        <v>7</v>
+      </c>
       <c r="C52" s="1">
         <v>21</v>
       </c>
@@ -1618,7 +1716,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1667,6 +1765,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1">
+        <v>108942.16981663719</v>
+      </c>
       <c r="C3" s="1">
         <v>112768.6137258801</v>
       </c>
@@ -1698,6 +1799,9 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
+      <c r="B5" s="1">
+        <v>41</v>
+      </c>
       <c r="C5" s="1">
         <v>6</v>
       </c>
@@ -1718,6 +1822,9 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
+      <c r="B6" s="1">
+        <v>39</v>
+      </c>
       <c r="C6" s="1">
         <v>7</v>
       </c>
@@ -1738,6 +1845,9 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
+      <c r="B7" s="1">
+        <v>38</v>
+      </c>
       <c r="C7" s="1">
         <v>8</v>
       </c>
@@ -1758,6 +1868,9 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
+      <c r="B8" s="1">
+        <v>36</v>
+      </c>
       <c r="C8" s="1">
         <v>9</v>
       </c>
@@ -1778,6 +1891,9 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
+      <c r="B9" s="1">
+        <v>37</v>
+      </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1798,6 +1914,9 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
+      <c r="B10" s="1">
+        <v>18</v>
+      </c>
       <c r="C10" s="1">
         <v>19</v>
       </c>
@@ -1818,6 +1937,9 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
       <c r="C11" s="1">
         <v>18</v>
       </c>
@@ -1838,6 +1960,9 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
+      <c r="B12" s="1">
+        <v>16</v>
+      </c>
       <c r="C12" s="1">
         <v>30</v>
       </c>
@@ -1858,6 +1983,9 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
       <c r="C13" s="1">
         <v>29</v>
       </c>
@@ -1878,6 +2006,9 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
+      <c r="B14" s="1">
+        <v>74</v>
+      </c>
       <c r="C14" s="1">
         <v>28</v>
       </c>
@@ -1898,6 +2029,9 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
       <c r="C15" s="1">
         <v>25</v>
       </c>
@@ -1918,6 +2052,9 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
       <c r="C16" s="1">
         <v>26</v>
       </c>
@@ -1938,6 +2075,9 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
       <c r="C17" s="1">
         <v>27</v>
       </c>
@@ -1958,6 +2098,9 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
       <c r="C18" s="1">
         <v>32</v>
       </c>
@@ -1978,6 +2121,9 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
       <c r="C19" s="1">
         <v>31</v>
       </c>
@@ -1998,6 +2144,9 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
       <c r="C20" s="1">
         <v>10</v>
       </c>
@@ -2018,6 +2167,9 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
       <c r="C21" s="1">
         <v>11</v>
       </c>
@@ -2038,6 +2190,9 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
       <c r="C22" s="1">
         <v>12</v>
       </c>
@@ -2058,6 +2213,9 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
       <c r="C23" s="1">
         <v>13</v>
       </c>
@@ -2078,6 +2236,9 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
       <c r="C24" s="1">
         <v>73</v>
       </c>
@@ -2098,6 +2259,9 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
       <c r="C25" s="1">
         <v>14</v>
       </c>
@@ -2118,6 +2282,9 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
       <c r="C26" s="1">
         <v>15</v>
       </c>
@@ -2138,6 +2305,9 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
       <c r="C27" s="1">
         <v>16</v>
       </c>
@@ -2158,6 +2328,9 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
+      <c r="B28" s="1">
+        <v>75</v>
+      </c>
       <c r="C28" s="1">
         <v>17</v>
       </c>
@@ -2178,6 +2351,9 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
+      <c r="B29" s="1">
+        <v>76</v>
+      </c>
       <c r="C29" s="1">
         <v>36</v>
       </c>
@@ -2198,6 +2374,9 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
       <c r="C30" s="1">
         <v>35</v>
       </c>
@@ -2218,6 +2397,9 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
+      <c r="B31" s="1">
+        <v>23</v>
+      </c>
       <c r="C31" s="1">
         <v>34</v>
       </c>
@@ -2238,6 +2420,9 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
+      <c r="B32" s="1">
+        <v>22</v>
+      </c>
       <c r="C32" s="1">
         <v>33</v>
       </c>
@@ -2258,6 +2443,9 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
+      <c r="B33" s="1">
+        <v>21</v>
+      </c>
       <c r="C33" s="1">
         <v>37</v>
       </c>
@@ -2278,6 +2466,9 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
+      <c r="B34" s="1">
+        <v>25</v>
+      </c>
       <c r="C34" s="1">
         <v>38</v>
       </c>
@@ -2298,6 +2489,9 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
+      <c r="B35" s="1">
+        <v>24</v>
+      </c>
       <c r="C35" s="1">
         <v>39</v>
       </c>
@@ -2318,6 +2512,9 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
+      <c r="B36" s="1">
+        <v>46</v>
+      </c>
       <c r="C36" s="1">
         <v>40</v>
       </c>
@@ -2338,6 +2535,9 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
+      <c r="B37" s="1">
+        <v>45</v>
+      </c>
       <c r="C37" s="1">
         <v>59</v>
       </c>
@@ -2358,6 +2558,9 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
+      <c r="B38" s="1">
+        <v>44</v>
+      </c>
       <c r="C38" s="1">
         <v>58</v>
       </c>
@@ -2378,6 +2581,9 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
+      <c r="B39" s="1">
+        <v>48</v>
+      </c>
       <c r="C39" s="1">
         <v>60</v>
       </c>
@@ -2398,6 +2604,9 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
+      <c r="B40" s="1">
+        <v>47</v>
+      </c>
       <c r="C40" s="1">
         <v>61</v>
       </c>
@@ -2418,6 +2627,9 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
+      <c r="B41" s="1">
+        <v>69</v>
+      </c>
       <c r="C41" s="1">
         <v>63</v>
       </c>
@@ -2438,6 +2650,9 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
+      <c r="B42" s="1">
+        <v>68</v>
+      </c>
       <c r="C42" s="1">
         <v>72</v>
       </c>
@@ -2458,6 +2673,9 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
+      <c r="B43" s="1">
+        <v>70</v>
+      </c>
       <c r="C43" s="1">
         <v>71</v>
       </c>
@@ -2478,6 +2696,9 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
+      <c r="B44" s="1">
+        <v>67</v>
+      </c>
       <c r="C44" s="1">
         <v>70</v>
       </c>
@@ -2498,6 +2719,9 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
+      <c r="B45" s="1">
+        <v>50</v>
+      </c>
       <c r="C45" s="1">
         <v>62</v>
       </c>
@@ -2518,6 +2742,9 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
+      <c r="B46" s="1">
+        <v>49</v>
+      </c>
       <c r="C46" s="1">
         <v>56</v>
       </c>
@@ -2538,6 +2765,9 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
+      <c r="B47" s="1">
+        <v>51</v>
+      </c>
       <c r="C47" s="1">
         <v>57</v>
       </c>
@@ -2558,6 +2788,9 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
+      <c r="B48" s="1">
+        <v>66</v>
+      </c>
       <c r="C48" s="1">
         <v>55</v>
       </c>
@@ -2578,6 +2811,9 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
+      <c r="B49" s="1">
+        <v>65</v>
+      </c>
       <c r="C49" s="1">
         <v>54</v>
       </c>
@@ -2598,6 +2834,9 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
+      <c r="B50" s="1">
+        <v>71</v>
+      </c>
       <c r="C50" s="1">
         <v>53</v>
       </c>
@@ -2618,6 +2857,9 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
+      <c r="B51" s="1">
+        <v>72</v>
+      </c>
       <c r="C51" s="1">
         <v>41</v>
       </c>
@@ -2638,6 +2880,9 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
+      <c r="B52" s="1">
+        <v>73</v>
+      </c>
       <c r="C52" s="1">
         <v>42</v>
       </c>
@@ -2658,6 +2903,9 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
+      <c r="B53" s="1">
+        <v>64</v>
+      </c>
       <c r="C53" s="1">
         <v>52</v>
       </c>
@@ -2678,6 +2926,9 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
+      <c r="B54" s="1">
+        <v>63</v>
+      </c>
       <c r="C54" s="1">
         <v>51</v>
       </c>
@@ -2698,6 +2949,9 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
+      <c r="B55" s="1">
+        <v>62</v>
+      </c>
       <c r="C55" s="1">
         <v>48</v>
       </c>
@@ -2718,6 +2972,9 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
+      <c r="B56" s="1">
+        <v>61</v>
+      </c>
       <c r="C56" s="1">
         <v>49</v>
       </c>
@@ -2738,6 +2995,9 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
+      <c r="B57" s="1">
+        <v>60</v>
+      </c>
       <c r="C57" s="1">
         <v>50</v>
       </c>
@@ -2758,6 +3018,9 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
+      <c r="B58" s="1">
+        <v>59</v>
+      </c>
       <c r="C58" s="1">
         <v>64</v>
       </c>
@@ -2778,6 +3041,9 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
       <c r="C59" s="1">
         <v>65</v>
       </c>
@@ -2798,6 +3064,9 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
       <c r="C60" s="1">
         <v>66</v>
       </c>
@@ -2818,6 +3087,9 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
+      <c r="B61" s="1">
+        <v>56</v>
+      </c>
       <c r="C61" s="1">
         <v>69</v>
       </c>
@@ -2838,6 +3110,9 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
+      <c r="B62" s="1">
+        <v>55</v>
+      </c>
       <c r="C62" s="1">
         <v>67</v>
       </c>
@@ -2858,6 +3133,9 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
+      <c r="B63" s="1">
+        <v>52</v>
+      </c>
       <c r="C63" s="1">
         <v>68</v>
       </c>
@@ -2878,6 +3156,9 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
+      <c r="B64" s="1">
+        <v>53</v>
+      </c>
       <c r="C64" s="1">
         <v>46</v>
       </c>
@@ -2898,6 +3179,9 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
+      <c r="B65" s="1">
+        <v>54</v>
+      </c>
       <c r="C65" s="1">
         <v>47</v>
       </c>
@@ -2918,6 +3202,9 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
+      <c r="B66" s="1">
+        <v>42</v>
+      </c>
       <c r="C66" s="1">
         <v>43</v>
       </c>
@@ -2938,6 +3225,9 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
+      <c r="B67" s="1">
+        <v>43</v>
+      </c>
       <c r="C67" s="1">
         <v>44</v>
       </c>
@@ -2958,6 +3248,9 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
+      <c r="B68" s="1">
+        <v>28</v>
+      </c>
       <c r="C68" s="1">
         <v>45</v>
       </c>
@@ -2978,6 +3271,9 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
+      <c r="B69" s="1">
+        <v>27</v>
+      </c>
       <c r="C69" s="1">
         <v>23</v>
       </c>
@@ -2998,6 +3294,9 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
+      <c r="B70" s="1">
+        <v>26</v>
+      </c>
       <c r="C70" s="1">
         <v>24</v>
       </c>
@@ -3018,6 +3317,9 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
+      <c r="B71" s="1">
+        <v>20</v>
+      </c>
       <c r="C71" s="1">
         <v>20</v>
       </c>
@@ -3038,6 +3340,9 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
+      <c r="B72" s="1">
+        <v>19</v>
+      </c>
       <c r="C72" s="1">
         <v>21</v>
       </c>
@@ -3058,6 +3363,9 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
+      <c r="B73" s="1">
+        <v>31</v>
+      </c>
       <c r="C73" s="1">
         <v>22</v>
       </c>
@@ -3078,6 +3386,9 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
+      <c r="B74" s="1">
+        <v>30</v>
+      </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
@@ -3098,6 +3409,9 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
+      <c r="B75" s="1">
+        <v>29</v>
+      </c>
       <c r="C75" s="1">
         <v>74</v>
       </c>
@@ -3118,6 +3432,9 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
+      <c r="B76" s="1">
+        <v>32</v>
+      </c>
       <c r="C76" s="1">
         <v>75</v>
       </c>
@@ -3138,6 +3455,9 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
+      <c r="B77" s="1">
+        <v>33</v>
+      </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
@@ -3158,6 +3478,9 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
+      <c r="B78" s="1">
+        <v>35</v>
+      </c>
       <c r="C78" s="1">
         <v>2</v>
       </c>
@@ -3178,6 +3501,9 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
+      <c r="B79" s="1">
+        <v>34</v>
+      </c>
       <c r="C79" s="1">
         <v>3</v>
       </c>
@@ -3197,6 +3523,9 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>76</v>
+      </c>
+      <c r="B80" s="1">
+        <v>40</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
@@ -3229,7 +3558,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3278,6 +3607,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1">
+        <v>119118.2886994874</v>
+      </c>
       <c r="C3" s="1">
         <v>143162.25843487619</v>
       </c>
@@ -3309,6 +3641,9 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
+      <c r="B5" s="1">
+        <v>83</v>
+      </c>
       <c r="C5" s="1">
         <v>94</v>
       </c>
@@ -3329,6 +3664,9 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
+      <c r="B6" s="1">
+        <v>101</v>
+      </c>
       <c r="C6" s="1">
         <v>122</v>
       </c>
@@ -3349,6 +3687,9 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
       <c r="C7" s="1">
         <v>96</v>
       </c>
@@ -3369,6 +3710,9 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
+      <c r="B8" s="1">
+        <v>63</v>
+      </c>
       <c r="C8" s="1">
         <v>97</v>
       </c>
@@ -3389,6 +3733,9 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
+      <c r="B9" s="1">
+        <v>119</v>
+      </c>
       <c r="C9" s="1">
         <v>126</v>
       </c>
@@ -3409,6 +3756,9 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
+      <c r="B10" s="1">
+        <v>96</v>
+      </c>
       <c r="C10" s="1">
         <v>106</v>
       </c>
@@ -3429,6 +3779,9 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
+      <c r="B11" s="1">
+        <v>109</v>
+      </c>
       <c r="C11" s="1">
         <v>110</v>
       </c>
@@ -3449,6 +3802,9 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
+      <c r="B12" s="1">
+        <v>88</v>
+      </c>
       <c r="C12" s="1">
         <v>111</v>
       </c>
@@ -3469,6 +3825,9 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
+      <c r="B13" s="1">
+        <v>87</v>
+      </c>
       <c r="C13" s="1">
         <v>93</v>
       </c>
@@ -3489,6 +3848,9 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
+      <c r="B14" s="1">
+        <v>86</v>
+      </c>
       <c r="C14" s="1">
         <v>45</v>
       </c>
@@ -3509,6 +3871,9 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
+      <c r="B15" s="1">
+        <v>85</v>
+      </c>
       <c r="C15" s="1">
         <v>48</v>
       </c>
@@ -3529,6 +3894,9 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
+      <c r="B16" s="1">
+        <v>110</v>
+      </c>
       <c r="C16" s="1">
         <v>117</v>
       </c>
@@ -3549,6 +3917,9 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
+      <c r="B17" s="1">
+        <v>104</v>
+      </c>
       <c r="C17" s="1">
         <v>47</v>
       </c>
@@ -3569,6 +3940,9 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
+      <c r="B18" s="1">
+        <v>125</v>
+      </c>
       <c r="C18" s="1">
         <v>44</v>
       </c>
@@ -3589,6 +3963,9 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
+      <c r="B19" s="1">
+        <v>89</v>
+      </c>
       <c r="C19" s="1">
         <v>102</v>
       </c>
@@ -3609,6 +3986,9 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
+      <c r="B20" s="1">
+        <v>92</v>
+      </c>
       <c r="C20" s="1">
         <v>43</v>
       </c>
@@ -3629,6 +4009,9 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
+      <c r="B21" s="1">
+        <v>99</v>
+      </c>
       <c r="C21" s="1">
         <v>53</v>
       </c>
@@ -3649,6 +4032,9 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
+      <c r="B22" s="1">
+        <v>65</v>
+      </c>
       <c r="C22" s="1">
         <v>56</v>
       </c>
@@ -3669,6 +4055,9 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
+      <c r="B23" s="1">
+        <v>113</v>
+      </c>
       <c r="C23" s="1">
         <v>120</v>
       </c>
@@ -3689,6 +4078,9 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
+      <c r="B24" s="1">
+        <v>66</v>
+      </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
@@ -3709,6 +4101,9 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
+      <c r="B25" s="1">
+        <v>55</v>
+      </c>
       <c r="C25" s="1">
         <v>55</v>
       </c>
@@ -3729,6 +4124,9 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
+      <c r="B26" s="1">
+        <v>47</v>
+      </c>
       <c r="C26" s="1">
         <v>52</v>
       </c>
@@ -3749,6 +4147,9 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
+      <c r="B27" s="1">
+        <v>49</v>
+      </c>
       <c r="C27" s="1">
         <v>46</v>
       </c>
@@ -3769,6 +4170,9 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
+      <c r="B28" s="1">
+        <v>53</v>
+      </c>
       <c r="C28" s="1">
         <v>51</v>
       </c>
@@ -3789,6 +4193,9 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
+      <c r="B29" s="1">
+        <v>48</v>
+      </c>
       <c r="C29" s="1">
         <v>123</v>
       </c>
@@ -3809,6 +4216,9 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
+      <c r="B30" s="1">
+        <v>118</v>
+      </c>
       <c r="C30" s="1">
         <v>54</v>
       </c>
@@ -3829,6 +4239,9 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
+      <c r="B31" s="1">
+        <v>46</v>
+      </c>
       <c r="C31" s="1">
         <v>65</v>
       </c>
@@ -3849,6 +4262,9 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
+      <c r="B32" s="1">
+        <v>94</v>
+      </c>
       <c r="C32" s="1">
         <v>64</v>
       </c>
@@ -3869,6 +4285,9 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
+      <c r="B33" s="1">
+        <v>112</v>
+      </c>
       <c r="C33" s="1">
         <v>112</v>
       </c>
@@ -3889,6 +4308,9 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
+      <c r="B34" s="1">
+        <v>111</v>
+      </c>
       <c r="C34" s="1">
         <v>98</v>
       </c>
@@ -3909,6 +4331,9 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
+      <c r="B35" s="1">
+        <v>107</v>
+      </c>
       <c r="C35" s="1">
         <v>91</v>
       </c>
@@ -3929,6 +4354,9 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
+      <c r="B36" s="1">
+        <v>127</v>
+      </c>
       <c r="C36" s="1">
         <v>88</v>
       </c>
@@ -3949,6 +4377,9 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
+      <c r="B37" s="1">
+        <v>93</v>
+      </c>
       <c r="C37" s="1">
         <v>124</v>
       </c>
@@ -3969,6 +4400,9 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
+      <c r="B38" s="1">
+        <v>95</v>
+      </c>
       <c r="C38" s="1">
         <v>103</v>
       </c>
@@ -3989,6 +4423,9 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
+      <c r="B39" s="1">
+        <v>123</v>
+      </c>
       <c r="C39" s="1">
         <v>58</v>
       </c>
@@ -4009,6 +4446,9 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
+      <c r="B40" s="1">
+        <v>97</v>
+      </c>
       <c r="C40" s="1">
         <v>61</v>
       </c>
@@ -4029,6 +4469,9 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
+      <c r="B41" s="1">
+        <v>98</v>
+      </c>
       <c r="C41" s="1">
         <v>59</v>
       </c>
@@ -4049,6 +4492,9 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
+      <c r="B42" s="1">
+        <v>32</v>
+      </c>
       <c r="C42" s="1">
         <v>115</v>
       </c>
@@ -4069,6 +4515,9 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
+      <c r="B43" s="1">
+        <v>29</v>
+      </c>
       <c r="C43" s="1">
         <v>89</v>
       </c>
@@ -4089,6 +4538,9 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
+      <c r="B44" s="1">
+        <v>28</v>
+      </c>
       <c r="C44" s="1">
         <v>60</v>
       </c>
@@ -4109,6 +4561,9 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
+      <c r="B45" s="1">
+        <v>122</v>
+      </c>
       <c r="C45" s="1">
         <v>90</v>
       </c>
@@ -4129,6 +4584,9 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
+      <c r="B46" s="1">
+        <v>33</v>
+      </c>
       <c r="C46" s="1">
         <v>57</v>
       </c>
@@ -4149,6 +4607,9 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
+      <c r="B47" s="1">
+        <v>25</v>
+      </c>
       <c r="C47" s="1">
         <v>63</v>
       </c>
@@ -4169,6 +4630,9 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
+      <c r="B48" s="1">
+        <v>26</v>
+      </c>
       <c r="C48" s="1">
         <v>9</v>
       </c>
@@ -4189,6 +4653,9 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
+      <c r="B49" s="1">
+        <v>38</v>
+      </c>
       <c r="C49" s="1">
         <v>99</v>
       </c>
@@ -4209,6 +4676,9 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
+      <c r="B50" s="1">
+        <v>39</v>
+      </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
@@ -4229,6 +4699,9 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
+      <c r="B51" s="1">
+        <v>42</v>
+      </c>
       <c r="C51" s="1">
         <v>10</v>
       </c>
@@ -4249,6 +4722,9 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
+      <c r="B52" s="1">
+        <v>34</v>
+      </c>
       <c r="C52" s="1">
         <v>8</v>
       </c>
@@ -4269,6 +4745,9 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
+      <c r="B53" s="1">
+        <v>43</v>
+      </c>
       <c r="C53" s="1">
         <v>5</v>
       </c>
@@ -4289,6 +4768,9 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
+      <c r="B54" s="1">
+        <v>40</v>
+      </c>
       <c r="C54" s="1">
         <v>20</v>
       </c>
@@ -4309,6 +4791,9 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
+      <c r="B55" s="1">
+        <v>35</v>
+      </c>
       <c r="C55" s="1">
         <v>16</v>
       </c>
@@ -4329,6 +4814,9 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
+      <c r="B56" s="1">
+        <v>37</v>
+      </c>
       <c r="C56" s="1">
         <v>78</v>
       </c>
@@ -4349,6 +4837,9 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
+      <c r="B57" s="1">
+        <v>36</v>
+      </c>
       <c r="C57" s="1">
         <v>79</v>
       </c>
@@ -4369,6 +4860,9 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
+      <c r="B58" s="1">
+        <v>41</v>
+      </c>
       <c r="C58" s="1">
         <v>30</v>
       </c>
@@ -4389,6 +4883,9 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
+      <c r="B59" s="1">
+        <v>14</v>
+      </c>
       <c r="C59" s="1">
         <v>26</v>
       </c>
@@ -4409,6 +4906,9 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
+      <c r="B60" s="1">
+        <v>12</v>
+      </c>
       <c r="C60" s="1">
         <v>25</v>
       </c>
@@ -4429,6 +4929,9 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
+      <c r="B61" s="1">
+        <v>30</v>
+      </c>
       <c r="C61" s="1">
         <v>29</v>
       </c>
@@ -4449,6 +4952,9 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
+      <c r="B62" s="1">
+        <v>27</v>
+      </c>
       <c r="C62" s="1">
         <v>40</v>
       </c>
@@ -4469,6 +4975,9 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
+      <c r="B63" s="1">
+        <v>31</v>
+      </c>
       <c r="C63" s="1">
         <v>13</v>
       </c>
@@ -4489,6 +4998,9 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
+      <c r="B64" s="1">
+        <v>80</v>
+      </c>
       <c r="C64" s="1">
         <v>104</v>
       </c>
@@ -4509,6 +5021,9 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
+      <c r="B65" s="1">
+        <v>79</v>
+      </c>
       <c r="C65" s="1">
         <v>113</v>
       </c>
@@ -4529,6 +5044,9 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
+      <c r="B66" s="1">
+        <v>77</v>
+      </c>
       <c r="C66" s="1">
         <v>119</v>
       </c>
@@ -4549,6 +5067,9 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
+      <c r="B67" s="1">
+        <v>18</v>
+      </c>
       <c r="C67" s="1">
         <v>114</v>
       </c>
@@ -4569,6 +5090,9 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
+      <c r="B68" s="1">
+        <v>21</v>
+      </c>
       <c r="C68" s="1">
         <v>12</v>
       </c>
@@ -4589,6 +5113,9 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
+      <c r="B69" s="1">
+        <v>17</v>
+      </c>
       <c r="C69" s="1">
         <v>49</v>
       </c>
@@ -4609,6 +5136,9 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
+      <c r="B70" s="1">
+        <v>20</v>
+      </c>
       <c r="C70" s="1">
         <v>6</v>
       </c>
@@ -4629,6 +5159,9 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
+      <c r="B71" s="1">
+        <v>108</v>
+      </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
@@ -4649,6 +5182,9 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
+      <c r="B72" s="1">
+        <v>15</v>
+      </c>
       <c r="C72" s="1">
         <v>15</v>
       </c>
@@ -4669,6 +5205,9 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
+      <c r="B73" s="1">
+        <v>106</v>
+      </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
@@ -4689,6 +5228,9 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
+      <c r="B74" s="1">
+        <v>6</v>
+      </c>
       <c r="C74" s="1">
         <v>50</v>
       </c>
@@ -4709,6 +5251,9 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
+      <c r="B75" s="1">
+        <v>114</v>
+      </c>
       <c r="C75" s="1">
         <v>34</v>
       </c>
@@ -4729,6 +5274,9 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
+      <c r="B76" s="1">
+        <v>105</v>
+      </c>
       <c r="C76" s="1">
         <v>36</v>
       </c>
@@ -4749,6 +5297,9 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
       <c r="C77" s="1">
         <v>35</v>
       </c>
@@ -4769,6 +5320,9 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
+      <c r="B78" s="1">
+        <v>16</v>
+      </c>
       <c r="C78" s="1">
         <v>11</v>
       </c>
@@ -4789,6 +5343,9 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
       <c r="C79" s="1">
         <v>105</v>
       </c>
@@ -4809,6 +5366,9 @@
       <c r="A80" s="1">
         <v>76</v>
       </c>
+      <c r="B80" s="1">
+        <v>51</v>
+      </c>
       <c r="C80" s="1">
         <v>14</v>
       </c>
@@ -4829,6 +5389,9 @@
       <c r="A81" s="1">
         <v>77</v>
       </c>
+      <c r="B81" s="1">
+        <v>44</v>
+      </c>
       <c r="C81" s="1">
         <v>19</v>
       </c>
@@ -4849,6 +5412,9 @@
       <c r="A82" s="1">
         <v>78</v>
       </c>
+      <c r="B82" s="1">
+        <v>103</v>
+      </c>
       <c r="C82" s="1">
         <v>22</v>
       </c>
@@ -4869,6 +5435,9 @@
       <c r="A83" s="1">
         <v>79</v>
       </c>
+      <c r="B83" s="1">
+        <v>45</v>
+      </c>
       <c r="C83" s="1">
         <v>3</v>
       </c>
@@ -4889,6 +5458,9 @@
       <c r="A84" s="1">
         <v>80</v>
       </c>
+      <c r="B84" s="1">
+        <v>54</v>
+      </c>
       <c r="C84" s="1">
         <v>23</v>
       </c>
@@ -4909,6 +5481,9 @@
       <c r="A85" s="1">
         <v>81</v>
       </c>
+      <c r="B85" s="1">
+        <v>57</v>
+      </c>
       <c r="C85" s="1">
         <v>107</v>
       </c>
@@ -4929,6 +5504,9 @@
       <c r="A86" s="1">
         <v>82</v>
       </c>
+      <c r="B86" s="1">
+        <v>121</v>
+      </c>
       <c r="C86" s="1">
         <v>21</v>
       </c>
@@ -4949,6 +5527,9 @@
       <c r="A87" s="1">
         <v>83</v>
       </c>
+      <c r="B87" s="1">
+        <v>56</v>
+      </c>
       <c r="C87" s="1">
         <v>18</v>
       </c>
@@ -4969,6 +5550,9 @@
       <c r="A88" s="1">
         <v>84</v>
       </c>
+      <c r="B88" s="1">
+        <v>124</v>
+      </c>
       <c r="C88" s="1">
         <v>7</v>
       </c>
@@ -4989,6 +5573,9 @@
       <c r="A89" s="1">
         <v>85</v>
       </c>
+      <c r="B89" s="1">
+        <v>52</v>
+      </c>
       <c r="C89" s="1">
         <v>71</v>
       </c>
@@ -5009,6 +5596,9 @@
       <c r="A90" s="1">
         <v>86</v>
       </c>
+      <c r="B90" s="1">
+        <v>5</v>
+      </c>
       <c r="C90" s="1">
         <v>73</v>
       </c>
@@ -5029,6 +5619,9 @@
       <c r="A91" s="1">
         <v>87</v>
       </c>
+      <c r="B91" s="1">
+        <v>50</v>
+      </c>
       <c r="C91" s="1">
         <v>67</v>
       </c>
@@ -5049,6 +5642,9 @@
       <c r="A92" s="1">
         <v>88</v>
       </c>
+      <c r="B92" s="1">
+        <v>115</v>
+      </c>
       <c r="C92" s="1">
         <v>66</v>
       </c>
@@ -5069,6 +5665,9 @@
       <c r="A93" s="1">
         <v>89</v>
       </c>
+      <c r="B93" s="1">
+        <v>13</v>
+      </c>
       <c r="C93" s="1">
         <v>72</v>
       </c>
@@ -5089,6 +5688,9 @@
       <c r="A94" s="1">
         <v>90</v>
       </c>
+      <c r="B94" s="1">
+        <v>7</v>
+      </c>
       <c r="C94" s="1">
         <v>17</v>
       </c>
@@ -5109,6 +5711,9 @@
       <c r="A95" s="1">
         <v>91</v>
       </c>
+      <c r="B95" s="1">
+        <v>120</v>
+      </c>
       <c r="C95" s="1">
         <v>76</v>
       </c>
@@ -5129,6 +5734,9 @@
       <c r="A96" s="1">
         <v>92</v>
       </c>
+      <c r="B96" s="1">
+        <v>10</v>
+      </c>
       <c r="C96" s="1">
         <v>77</v>
       </c>
@@ -5149,6 +5757,9 @@
       <c r="A97" s="1">
         <v>93</v>
       </c>
+      <c r="B97" s="1">
+        <v>100</v>
+      </c>
       <c r="C97" s="1">
         <v>75</v>
       </c>
@@ -5169,6 +5780,9 @@
       <c r="A98" s="1">
         <v>94</v>
       </c>
+      <c r="B98" s="1">
+        <v>64</v>
+      </c>
       <c r="C98" s="1">
         <v>116</v>
       </c>
@@ -5189,6 +5803,9 @@
       <c r="A99" s="1">
         <v>95</v>
       </c>
+      <c r="B99" s="1">
+        <v>58</v>
+      </c>
       <c r="C99" s="1">
         <v>83</v>
       </c>
@@ -5209,6 +5826,9 @@
       <c r="A100" s="1">
         <v>96</v>
       </c>
+      <c r="B100" s="1">
+        <v>91</v>
+      </c>
       <c r="C100" s="1">
         <v>125</v>
       </c>
@@ -5229,6 +5849,9 @@
       <c r="A101" s="1">
         <v>97</v>
       </c>
+      <c r="B101" s="1">
+        <v>61</v>
+      </c>
       <c r="C101" s="1">
         <v>81</v>
       </c>
@@ -5249,6 +5872,9 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
+      <c r="B102" s="1">
+        <v>62</v>
+      </c>
       <c r="C102" s="1">
         <v>80</v>
       </c>
@@ -5269,6 +5895,9 @@
       <c r="A103" s="1">
         <v>99</v>
       </c>
+      <c r="B103" s="1">
+        <v>59</v>
+      </c>
       <c r="C103" s="1">
         <v>74</v>
       </c>
@@ -5289,6 +5918,9 @@
       <c r="A104" s="1">
         <v>100</v>
       </c>
+      <c r="B104" s="1">
+        <v>60</v>
+      </c>
       <c r="C104" s="1">
         <v>68</v>
       </c>
@@ -5309,6 +5941,9 @@
       <c r="A105" s="1">
         <v>101</v>
       </c>
+      <c r="B105" s="1">
+        <v>116</v>
+      </c>
       <c r="C105" s="1">
         <v>69</v>
       </c>
@@ -5329,6 +5964,9 @@
       <c r="A106" s="1">
         <v>102</v>
       </c>
+      <c r="B106" s="1">
+        <v>90</v>
+      </c>
       <c r="C106" s="1">
         <v>70</v>
       </c>
@@ -5349,6 +5987,9 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
+      <c r="B107" s="1">
+        <v>3</v>
+      </c>
       <c r="C107" s="1">
         <v>109</v>
       </c>
@@ -5369,6 +6010,9 @@
       <c r="A108" s="1">
         <v>104</v>
       </c>
+      <c r="B108" s="1">
+        <v>11</v>
+      </c>
       <c r="C108" s="1">
         <v>84</v>
       </c>
@@ -5389,6 +6033,9 @@
       <c r="A109" s="1">
         <v>105</v>
       </c>
+      <c r="B109" s="1">
+        <v>9</v>
+      </c>
       <c r="C109" s="1">
         <v>85</v>
       </c>
@@ -5409,6 +6056,9 @@
       <c r="A110" s="1">
         <v>106</v>
       </c>
+      <c r="B110" s="1">
+        <v>24</v>
+      </c>
       <c r="C110" s="1">
         <v>86</v>
       </c>
@@ -5429,6 +6079,9 @@
       <c r="A111" s="1">
         <v>107</v>
       </c>
+      <c r="B111" s="1">
+        <v>23</v>
+      </c>
       <c r="C111" s="1">
         <v>87</v>
       </c>
@@ -5449,6 +6102,9 @@
       <c r="A112" s="1">
         <v>108</v>
       </c>
+      <c r="B112" s="1">
+        <v>4</v>
+      </c>
       <c r="C112" s="1">
         <v>108</v>
       </c>
@@ -5469,6 +6125,9 @@
       <c r="A113" s="1">
         <v>109</v>
       </c>
+      <c r="B113" s="1">
+        <v>22</v>
+      </c>
       <c r="C113" s="1">
         <v>95</v>
       </c>
@@ -5489,6 +6148,9 @@
       <c r="A114" s="1">
         <v>110</v>
       </c>
+      <c r="B114" s="1">
+        <v>19</v>
+      </c>
       <c r="C114" s="1">
         <v>118</v>
       </c>
@@ -5509,6 +6171,9 @@
       <c r="A115" s="1">
         <v>111</v>
       </c>
+      <c r="B115" s="1">
+        <v>72</v>
+      </c>
       <c r="C115" s="1">
         <v>62</v>
       </c>
@@ -5529,6 +6194,9 @@
       <c r="A116" s="1">
         <v>112</v>
       </c>
+      <c r="B116" s="1">
+        <v>8</v>
+      </c>
       <c r="C116" s="1">
         <v>101</v>
       </c>
@@ -5549,6 +6217,9 @@
       <c r="A117" s="1">
         <v>113</v>
       </c>
+      <c r="B117" s="1">
+        <v>67</v>
+      </c>
       <c r="C117" s="1">
         <v>100</v>
       </c>
@@ -5569,6 +6240,9 @@
       <c r="A118" s="1">
         <v>114</v>
       </c>
+      <c r="B118" s="1">
+        <v>73</v>
+      </c>
       <c r="C118" s="1">
         <v>82</v>
       </c>
@@ -5589,6 +6263,9 @@
       <c r="A119" s="1">
         <v>115</v>
       </c>
+      <c r="B119" s="1">
+        <v>74</v>
+      </c>
       <c r="C119" s="1">
         <v>31</v>
       </c>
@@ -5609,6 +6286,9 @@
       <c r="A120" s="1">
         <v>116</v>
       </c>
+      <c r="B120" s="1">
+        <v>68</v>
+      </c>
       <c r="C120" s="1">
         <v>28</v>
       </c>
@@ -5629,6 +6309,9 @@
       <c r="A121" s="1">
         <v>117</v>
       </c>
+      <c r="B121" s="1">
+        <v>71</v>
+      </c>
       <c r="C121" s="1">
         <v>32</v>
       </c>
@@ -5649,6 +6332,9 @@
       <c r="A122" s="1">
         <v>118</v>
       </c>
+      <c r="B122" s="1">
+        <v>70</v>
+      </c>
       <c r="C122" s="1">
         <v>121</v>
       </c>
@@ -5669,6 +6355,9 @@
       <c r="A123" s="1">
         <v>119</v>
       </c>
+      <c r="B123" s="1">
+        <v>69</v>
+      </c>
       <c r="C123" s="1">
         <v>27</v>
       </c>
@@ -5689,6 +6378,9 @@
       <c r="A124" s="1">
         <v>120</v>
       </c>
+      <c r="B124" s="1">
+        <v>75</v>
+      </c>
       <c r="C124" s="1">
         <v>37</v>
       </c>
@@ -5709,6 +6401,9 @@
       <c r="A125" s="1">
         <v>121</v>
       </c>
+      <c r="B125" s="1">
+        <v>76</v>
+      </c>
       <c r="C125" s="1">
         <v>24</v>
       </c>
@@ -5729,6 +6424,9 @@
       <c r="A126" s="1">
         <v>122</v>
       </c>
+      <c r="B126" s="1">
+        <v>78</v>
+      </c>
       <c r="C126" s="1">
         <v>42</v>
       </c>
@@ -5749,6 +6447,9 @@
       <c r="A127" s="1">
         <v>123</v>
       </c>
+      <c r="B127" s="1">
+        <v>117</v>
+      </c>
       <c r="C127" s="1">
         <v>33</v>
       </c>
@@ -5769,6 +6470,9 @@
       <c r="A128" s="1">
         <v>124</v>
       </c>
+      <c r="B128" s="1">
+        <v>84</v>
+      </c>
       <c r="C128" s="1">
         <v>38</v>
       </c>
@@ -5789,6 +6493,9 @@
       <c r="A129" s="1">
         <v>125</v>
       </c>
+      <c r="B129" s="1">
+        <v>81</v>
+      </c>
       <c r="C129" s="1">
         <v>41</v>
       </c>
@@ -5809,6 +6516,9 @@
       <c r="A130" s="1">
         <v>126</v>
       </c>
+      <c r="B130" s="1">
+        <v>126</v>
+      </c>
       <c r="C130" s="1">
         <v>39</v>
       </c>
@@ -5828,6 +6538,9 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>127</v>
+      </c>
+      <c r="B131" s="1">
+        <v>82</v>
       </c>
       <c r="C131" s="1">
         <v>92</v>
@@ -5856,21 +6569,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009A90AB19BA281B46B8380751D999A78D" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="30d09d38612c93741b9eedbb53514047">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e4a570-071a-4a2d-92fe-032540accd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea953fb45c2891f5fd0cec805fc9463" ns2:_="">
     <xsd:import namespace="49e4a570-071a-4a2d-92fe-032540accd22"/>
@@ -6014,24 +6712,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AC383A-0CD0-4D21-B13C-12C946D4DD45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6047,4 +6743,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33636C1-79C3-4BDB-8D35-438EBA4C952E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B8D945-FECE-4899-8F01-A4C642C38956}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>